--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bishe\BiShe\Assets\Resources\Data\RawData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82D636D-DBD3-45D5-8FE3-EDBD06A62F5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,14 +24,210 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="46">
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑产出物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置建筑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildingID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满效率生产所需生产力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>People</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Return</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Influence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Storage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品产出数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造花费金钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resource（ItemID）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占地面积（长）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占地面积（宽）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Width</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑影响范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后置建筑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简易仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麦田</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稻田</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磨坊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>养殖场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屠宰场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加工厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伐木场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆除返还金钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造花费原料1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造花费原料2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费原料1数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造花费原料3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费原料2数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费原料3数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,7 +255,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +532,856 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.75" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="6" max="11" width="26.75" customWidth="1"/>
+    <col min="12" max="12" width="15.875" customWidth="1"/>
+    <col min="13" max="15" width="14.625" customWidth="1"/>
+    <col min="16" max="16" width="13.5" customWidth="1"/>
+    <col min="17" max="18" width="16" customWidth="1"/>
+    <col min="19" max="19" width="20.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>20001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>200</v>
+      </c>
+      <c r="F3">
+        <v>10004</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>50</v>
+      </c>
+      <c r="M3">
+        <v>10007</v>
+      </c>
+      <c r="N3">
+        <v>10</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R3">
+        <v>50</v>
+      </c>
+      <c r="S3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>20002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>200</v>
+      </c>
+      <c r="F4">
+        <v>10004</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>50</v>
+      </c>
+      <c r="M4">
+        <v>10007</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R4">
+        <v>50</v>
+      </c>
+      <c r="S4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>20003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>200</v>
+      </c>
+      <c r="F5">
+        <v>10004</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>50</v>
+      </c>
+      <c r="M5">
+        <v>10007</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R5">
+        <v>50</v>
+      </c>
+      <c r="S5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>20004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>200</v>
+      </c>
+      <c r="F6">
+        <v>10004</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>50</v>
+      </c>
+      <c r="M6">
+        <v>10007</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>41</v>
+      </c>
+      <c r="R6">
+        <v>50</v>
+      </c>
+      <c r="S6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>20005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>200</v>
+      </c>
+      <c r="F7">
+        <v>10004</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>50</v>
+      </c>
+      <c r="M7">
+        <v>10007</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>41</v>
+      </c>
+      <c r="R7">
+        <v>50</v>
+      </c>
+      <c r="S7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>20006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>200</v>
+      </c>
+      <c r="F8">
+        <v>10004</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>50</v>
+      </c>
+      <c r="M8">
+        <v>10007</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>41</v>
+      </c>
+      <c r="R8">
+        <v>50</v>
+      </c>
+      <c r="S8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>20007</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>200</v>
+      </c>
+      <c r="F9">
+        <v>10004</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>50</v>
+      </c>
+      <c r="M9">
+        <v>10007</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>41</v>
+      </c>
+      <c r="R9">
+        <v>50</v>
+      </c>
+      <c r="S9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>20008</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>200</v>
+      </c>
+      <c r="F10">
+        <v>10004</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>50</v>
+      </c>
+      <c r="M10">
+        <v>10007</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>41</v>
+      </c>
+      <c r="R10">
+        <v>50</v>
+      </c>
+      <c r="S10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>20009</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>200</v>
+      </c>
+      <c r="F11">
+        <v>10004</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>50</v>
+      </c>
+      <c r="M11">
+        <v>10007</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>41</v>
+      </c>
+      <c r="R11">
+        <v>50</v>
+      </c>
+      <c r="S11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>20010</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>200</v>
+      </c>
+      <c r="F12">
+        <v>10004</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>50</v>
+      </c>
+      <c r="M12">
+        <v>10007</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>41</v>
+      </c>
+      <c r="R12">
+        <v>50</v>
+      </c>
+      <c r="S12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>20011</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>200</v>
+      </c>
+      <c r="F13">
+        <v>10004</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>50</v>
+      </c>
+      <c r="M13">
+        <v>10007</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>41</v>
+      </c>
+      <c r="R13">
+        <v>50</v>
+      </c>
+      <c r="S13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>20012</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>200</v>
+      </c>
+      <c r="F14">
+        <v>10004</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>50</v>
+      </c>
+      <c r="M14">
+        <v>10007</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>41</v>
+      </c>
+      <c r="R14">
+        <v>50</v>
+      </c>
+      <c r="S14">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bishe\BiShe\Assets\Resources\Data\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82D636D-DBD3-45D5-8FE3-EDBD06A62F5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252C01F7-D48F-4EFE-87CE-B44B3EE75D66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4560" yWindow="3435" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="49">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,34 +47,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ItemID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>前置建筑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BuildingID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>满效率生产所需生产力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>People</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Return</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Influence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,10 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>建造花费金钱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -208,6 +188,36 @@
   </si>
   <si>
     <t>花费原料3数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkerNum</t>
+  </si>
+  <si>
+    <t>RearBuildingId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FrontBuildingId</t>
+  </si>
+  <si>
+    <t>InfluenceRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产周期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -533,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -548,72 +558,75 @@
     <col min="5" max="5" width="12.375" customWidth="1"/>
     <col min="6" max="11" width="26.75" customWidth="1"/>
     <col min="12" max="12" width="15.875" customWidth="1"/>
-    <col min="13" max="15" width="14.625" customWidth="1"/>
-    <col min="16" max="16" width="13.5" customWidth="1"/>
-    <col min="17" max="18" width="16" customWidth="1"/>
-    <col min="19" max="19" width="20.25" customWidth="1"/>
+    <col min="13" max="16" width="14.625" customWidth="1"/>
+    <col min="17" max="17" width="13.5" customWidth="1"/>
+    <col min="18" max="19" width="16" customWidth="1"/>
+    <col min="20" max="20" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" t="s">
         <v>39</v>
       </c>
-      <c r="G1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
         <v>40</v>
       </c>
-      <c r="I1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" t="s">
-        <v>45</v>
-      </c>
       <c r="L1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M1" t="s">
         <v>4</v>
       </c>
       <c r="N1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O1" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="P1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -621,63 +634,66 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" t="s">
         <v>10</v>
       </c>
-      <c r="M2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>7</v>
-      </c>
-      <c r="R2" t="s">
-        <v>14</v>
-      </c>
-      <c r="S2" t="s">
-        <v>9</v>
+      <c r="T2" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>20001</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -695,13 +711,13 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -716,27 +732,30 @@
         <v>10</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3" t="s">
-        <v>41</v>
+        <v>10</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>41</v>
-      </c>
-      <c r="R3">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="R3" t="s">
+        <v>36</v>
       </c>
       <c r="S3">
+        <v>50</v>
+      </c>
+      <c r="T3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>20002</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -754,13 +773,13 @@
         <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -775,27 +794,30 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="s">
-        <v>41</v>
+        <v>10</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>41</v>
-      </c>
-      <c r="R4">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="R4" t="s">
+        <v>36</v>
       </c>
       <c r="S4">
+        <v>50</v>
+      </c>
+      <c r="T4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>20003</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -813,13 +835,13 @@
         <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -834,27 +856,30 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="s">
-        <v>41</v>
+        <v>10</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>41</v>
-      </c>
-      <c r="R5">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="R5" t="s">
+        <v>36</v>
       </c>
       <c r="S5">
+        <v>50</v>
+      </c>
+      <c r="T5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>20004</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -872,13 +897,13 @@
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -893,27 +918,30 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="s">
-        <v>41</v>
+        <v>10</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
       </c>
       <c r="Q6" t="s">
-        <v>41</v>
-      </c>
-      <c r="R6">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="R6" t="s">
+        <v>36</v>
       </c>
       <c r="S6">
+        <v>50</v>
+      </c>
+      <c r="T6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>20005</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -931,13 +959,13 @@
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -952,27 +980,30 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="s">
-        <v>41</v>
+        <v>10</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
       </c>
       <c r="Q7" t="s">
-        <v>41</v>
-      </c>
-      <c r="R7">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="R7" t="s">
+        <v>36</v>
       </c>
       <c r="S7">
+        <v>50</v>
+      </c>
+      <c r="T7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>20006</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -990,13 +1021,13 @@
         <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1011,27 +1042,30 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="s">
-        <v>41</v>
+        <v>10</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
       </c>
       <c r="Q8" t="s">
-        <v>41</v>
-      </c>
-      <c r="R8">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="R8" t="s">
+        <v>36</v>
       </c>
       <c r="S8">
+        <v>50</v>
+      </c>
+      <c r="T8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>20007</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -1049,13 +1083,13 @@
         <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1070,27 +1104,30 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="s">
-        <v>41</v>
+        <v>10</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
       </c>
       <c r="Q9" t="s">
-        <v>41</v>
-      </c>
-      <c r="R9">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="R9" t="s">
+        <v>36</v>
       </c>
       <c r="S9">
+        <v>50</v>
+      </c>
+      <c r="T9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>20008</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -1108,13 +1145,13 @@
         <v>5</v>
       </c>
       <c r="H10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1129,27 +1166,30 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="s">
-        <v>41</v>
+        <v>10</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
       </c>
       <c r="Q10" t="s">
-        <v>41</v>
-      </c>
-      <c r="R10">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="R10" t="s">
+        <v>36</v>
       </c>
       <c r="S10">
+        <v>50</v>
+      </c>
+      <c r="T10">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>20009</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -1167,13 +1207,13 @@
         <v>5</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1188,27 +1228,30 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="s">
-        <v>41</v>
+        <v>10</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
       </c>
       <c r="Q11" t="s">
-        <v>41</v>
-      </c>
-      <c r="R11">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="R11" t="s">
+        <v>36</v>
       </c>
       <c r="S11">
+        <v>50</v>
+      </c>
+      <c r="T11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>20010</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -1226,13 +1269,13 @@
         <v>5</v>
       </c>
       <c r="H12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1247,27 +1290,30 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="s">
-        <v>41</v>
+        <v>10</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
       </c>
       <c r="Q12" t="s">
-        <v>41</v>
-      </c>
-      <c r="R12">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="R12" t="s">
+        <v>36</v>
       </c>
       <c r="S12">
+        <v>50</v>
+      </c>
+      <c r="T12">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>20011</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -1285,13 +1331,13 @@
         <v>5</v>
       </c>
       <c r="H13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1306,27 +1352,30 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="s">
-        <v>41</v>
+        <v>10</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
       </c>
       <c r="Q13" t="s">
-        <v>41</v>
-      </c>
-      <c r="R13">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="R13" t="s">
+        <v>36</v>
       </c>
       <c r="S13">
+        <v>50</v>
+      </c>
+      <c r="T13">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>20012</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -1344,13 +1393,13 @@
         <v>5</v>
       </c>
       <c r="H14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1365,23 +1414,27 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="s">
-        <v>41</v>
+        <v>10</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
       </c>
       <c r="Q14" t="s">
-        <v>41</v>
-      </c>
-      <c r="R14">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="R14" t="s">
+        <v>36</v>
       </c>
       <c r="S14">
+        <v>50</v>
+      </c>
+      <c r="T14">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bishe\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82D636D-DBD3-45D5-8FE3-EDBD06A62F5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A369A4-D8B0-4588-BB08-551A42556256}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="46">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,10 +159,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>屠宰场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>加工厂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -171,10 +167,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>材料厂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>拆除返还金钱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -208,6 +200,14 @@
   </si>
   <si>
     <t>花费原料3数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑存储资源上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -533,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -548,15 +548,17 @@
     <col min="5" max="5" width="12.375" customWidth="1"/>
     <col min="6" max="11" width="26.75" customWidth="1"/>
     <col min="12" max="12" width="15.875" customWidth="1"/>
-    <col min="13" max="15" width="14.625" customWidth="1"/>
-    <col min="16" max="16" width="13.5" customWidth="1"/>
-    <col min="17" max="18" width="16" customWidth="1"/>
-    <col min="19" max="19" width="20.25" customWidth="1"/>
+    <col min="13" max="14" width="14.625" customWidth="1"/>
+    <col min="15" max="15" width="17.625" customWidth="1"/>
+    <col min="16" max="16" width="14.625" customWidth="1"/>
+    <col min="17" max="17" width="13.5" customWidth="1"/>
+    <col min="18" max="19" width="16" customWidth="1"/>
+    <col min="20" max="20" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -571,25 +573,25 @@
         <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s">
         <v>42</v>
       </c>
-      <c r="H1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" t="s">
-        <v>44</v>
-      </c>
       <c r="J1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" t="s">
         <v>43</v>
       </c>
-      <c r="K1" t="s">
-        <v>45</v>
-      </c>
       <c r="L1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M1" t="s">
         <v>4</v>
@@ -598,22 +600,25 @@
         <v>15</v>
       </c>
       <c r="O1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" t="s">
         <v>23</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>24</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>13</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -657,22 +662,25 @@
         <v>16</v>
       </c>
       <c r="O2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" t="s">
         <v>11</v>
-      </c>
-      <c r="P2" t="s">
-        <v>7</v>
       </c>
       <c r="Q2" t="s">
         <v>7</v>
       </c>
       <c r="R2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" t="s">
         <v>14</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>20001</v>
       </c>
@@ -695,13 +703,13 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -716,22 +724,25 @@
         <v>10</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3" t="s">
-        <v>41</v>
+        <v>100</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>41</v>
-      </c>
-      <c r="R3">
-        <v>50</v>
+        <v>39</v>
+      </c>
+      <c r="R3" t="s">
+        <v>39</v>
       </c>
       <c r="S3">
+        <v>50</v>
+      </c>
+      <c r="T3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>20002</v>
       </c>
@@ -754,13 +765,13 @@
         <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -775,22 +786,25 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="s">
-        <v>41</v>
+        <v>100</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>41</v>
-      </c>
-      <c r="R4">
-        <v>50</v>
+        <v>39</v>
+      </c>
+      <c r="R4" t="s">
+        <v>39</v>
       </c>
       <c r="S4">
+        <v>50</v>
+      </c>
+      <c r="T4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>20003</v>
       </c>
@@ -813,13 +827,13 @@
         <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -834,22 +848,25 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="s">
-        <v>41</v>
+        <v>100</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>41</v>
-      </c>
-      <c r="R5">
-        <v>50</v>
+        <v>39</v>
+      </c>
+      <c r="R5" t="s">
+        <v>39</v>
       </c>
       <c r="S5">
+        <v>50</v>
+      </c>
+      <c r="T5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>20004</v>
       </c>
@@ -872,13 +889,13 @@
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -893,22 +910,25 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="s">
-        <v>41</v>
+        <v>100</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
       </c>
       <c r="Q6" t="s">
-        <v>41</v>
-      </c>
-      <c r="R6">
-        <v>50</v>
+        <v>39</v>
+      </c>
+      <c r="R6" t="s">
+        <v>39</v>
       </c>
       <c r="S6">
+        <v>50</v>
+      </c>
+      <c r="T6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>20005</v>
       </c>
@@ -931,13 +951,13 @@
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -952,22 +972,25 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="s">
-        <v>41</v>
+        <v>100</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
       </c>
       <c r="Q7" t="s">
-        <v>41</v>
-      </c>
-      <c r="R7">
-        <v>50</v>
+        <v>39</v>
+      </c>
+      <c r="R7" t="s">
+        <v>39</v>
       </c>
       <c r="S7">
+        <v>50</v>
+      </c>
+      <c r="T7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>20006</v>
       </c>
@@ -990,13 +1013,13 @@
         <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1011,22 +1034,25 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="s">
-        <v>41</v>
+        <v>100</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
       </c>
       <c r="Q8" t="s">
-        <v>41</v>
-      </c>
-      <c r="R8">
-        <v>50</v>
+        <v>39</v>
+      </c>
+      <c r="R8" t="s">
+        <v>39</v>
       </c>
       <c r="S8">
+        <v>50</v>
+      </c>
+      <c r="T8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>20007</v>
       </c>
@@ -1049,13 +1075,13 @@
         <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1070,22 +1096,25 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="s">
-        <v>41</v>
+        <v>100</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
       </c>
       <c r="Q9" t="s">
-        <v>41</v>
-      </c>
-      <c r="R9">
-        <v>50</v>
+        <v>39</v>
+      </c>
+      <c r="R9" t="s">
+        <v>39</v>
       </c>
       <c r="S9">
+        <v>50</v>
+      </c>
+      <c r="T9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>20008</v>
       </c>
@@ -1108,13 +1137,13 @@
         <v>5</v>
       </c>
       <c r="H10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1129,22 +1158,25 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="s">
-        <v>41</v>
+        <v>100</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
       </c>
       <c r="Q10" t="s">
-        <v>41</v>
-      </c>
-      <c r="R10">
-        <v>50</v>
+        <v>39</v>
+      </c>
+      <c r="R10" t="s">
+        <v>39</v>
       </c>
       <c r="S10">
+        <v>50</v>
+      </c>
+      <c r="T10">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>20009</v>
       </c>
@@ -1167,13 +1199,13 @@
         <v>5</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1188,22 +1220,25 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="s">
-        <v>41</v>
+        <v>100</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
       </c>
       <c r="Q11" t="s">
-        <v>41</v>
-      </c>
-      <c r="R11">
-        <v>50</v>
+        <v>39</v>
+      </c>
+      <c r="R11" t="s">
+        <v>39</v>
       </c>
       <c r="S11">
+        <v>50</v>
+      </c>
+      <c r="T11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>20010</v>
       </c>
@@ -1226,13 +1261,13 @@
         <v>5</v>
       </c>
       <c r="H12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1247,141 +1282,27 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="s">
-        <v>41</v>
+        <v>100</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
       </c>
       <c r="Q12" t="s">
-        <v>41</v>
-      </c>
-      <c r="R12">
-        <v>50</v>
+        <v>39</v>
+      </c>
+      <c r="R12" t="s">
+        <v>39</v>
       </c>
       <c r="S12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>20011</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>200</v>
-      </c>
-      <c r="F13">
-        <v>10004</v>
-      </c>
-      <c r="G13">
-        <v>5</v>
-      </c>
-      <c r="H13" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
-        <v>41</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>50</v>
-      </c>
-      <c r="M13">
-        <v>10007</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>41</v>
-      </c>
-      <c r="R13">
-        <v>50</v>
-      </c>
-      <c r="S13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>20012</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <v>200</v>
-      </c>
-      <c r="F14">
-        <v>10004</v>
-      </c>
-      <c r="G14">
-        <v>5</v>
-      </c>
-      <c r="H14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14" t="s">
-        <v>41</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>50</v>
-      </c>
-      <c r="M14">
-        <v>10007</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>41</v>
-      </c>
-      <c r="R14">
-        <v>50</v>
-      </c>
-      <c r="S14">
+        <v>50</v>
+      </c>
+      <c r="T12">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bishe\BiShe\Assets\Resources\Data\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A369A4-D8B0-4588-BB08-551A42556256}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E895A0F-DCA5-4F4E-A01A-79010AAEB358}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="72">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -208,6 +208,91 @@
   </si>
   <si>
     <t>Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在ab包名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ab包内名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bundleName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pfbName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>building.l1_northhouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1_Northhouse001</t>
+  </si>
+  <si>
+    <t>building.l2_northhouse</t>
+  </si>
+  <si>
+    <t>building.l3_northhouse</t>
+  </si>
+  <si>
+    <t>building.l4_northhouse</t>
+  </si>
+  <si>
+    <t>building.l5_northhouse</t>
+  </si>
+  <si>
+    <t>building.l6_northhouse</t>
+  </si>
+  <si>
+    <t>building.l7_northhouse</t>
+  </si>
+  <si>
+    <t>building.l8_northhouse</t>
+  </si>
+  <si>
+    <t>building.l9_northhouse</t>
+  </si>
+  <si>
+    <t>building.l10_northhouse</t>
+  </si>
+  <si>
+    <t>L1_Northhouse002</t>
+  </si>
+  <si>
+    <t>L1_Northhouse003</t>
+  </si>
+  <si>
+    <t>L1_Northhouse004</t>
+  </si>
+  <si>
+    <t>L1_Northhouse005</t>
+  </si>
+  <si>
+    <t>L1_Northhouse006</t>
+  </si>
+  <si>
+    <t>L1_Northhouse007</t>
+  </si>
+  <si>
+    <t>L1_Northhouse008</t>
+  </si>
+  <si>
+    <t>L1_Northhouse009</t>
+  </si>
+  <si>
+    <t>L1_Northhouse010</t>
+  </si>
+  <si>
+    <t>建造页签种类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buildingTabType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -533,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -546,17 +631,25 @@
     <col min="3" max="3" width="16.125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="12.375" customWidth="1"/>
-    <col min="6" max="11" width="26.75" customWidth="1"/>
-    <col min="12" max="12" width="15.875" customWidth="1"/>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="13.375" customWidth="1"/>
+    <col min="10" max="10" width="12.375" customWidth="1"/>
+    <col min="11" max="11" width="8.125" customWidth="1"/>
+    <col min="12" max="12" width="7" customWidth="1"/>
     <col min="13" max="14" width="14.625" customWidth="1"/>
     <col min="15" max="15" width="17.625" customWidth="1"/>
     <col min="16" max="16" width="14.625" customWidth="1"/>
     <col min="17" max="17" width="13.5" customWidth="1"/>
     <col min="18" max="19" width="16" customWidth="1"/>
-    <col min="20" max="20" width="20.25" customWidth="1"/>
+    <col min="20" max="20" width="21.75" customWidth="1"/>
+    <col min="21" max="21" width="25.625" customWidth="1"/>
+    <col min="22" max="22" width="18" customWidth="1"/>
+    <col min="23" max="23" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -617,8 +710,17 @@
       <c r="T1" t="s">
         <v>8</v>
       </c>
+      <c r="U1" t="s">
+        <v>46</v>
+      </c>
+      <c r="V1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W1" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -679,8 +781,17 @@
       <c r="T2" t="s">
         <v>9</v>
       </c>
+      <c r="U2" t="s">
+        <v>48</v>
+      </c>
+      <c r="V2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W2" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>20001</v>
       </c>
@@ -741,8 +852,17 @@
       <c r="T3">
         <v>5</v>
       </c>
+      <c r="U3" t="s">
+        <v>50</v>
+      </c>
+      <c r="V3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>20002</v>
       </c>
@@ -803,8 +923,17 @@
       <c r="T4">
         <v>5</v>
       </c>
+      <c r="U4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V4" t="s">
+        <v>61</v>
+      </c>
+      <c r="W4">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>20003</v>
       </c>
@@ -865,8 +994,17 @@
       <c r="T5">
         <v>5</v>
       </c>
+      <c r="U5" t="s">
+        <v>53</v>
+      </c>
+      <c r="V5" t="s">
+        <v>62</v>
+      </c>
+      <c r="W5">
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>20004</v>
       </c>
@@ -927,8 +1065,17 @@
       <c r="T6">
         <v>5</v>
       </c>
+      <c r="U6" t="s">
+        <v>54</v>
+      </c>
+      <c r="V6" t="s">
+        <v>63</v>
+      </c>
+      <c r="W6">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>20005</v>
       </c>
@@ -989,8 +1136,17 @@
       <c r="T7">
         <v>5</v>
       </c>
+      <c r="U7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V7" t="s">
+        <v>64</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>20006</v>
       </c>
@@ -1051,8 +1207,17 @@
       <c r="T8">
         <v>5</v>
       </c>
+      <c r="U8" t="s">
+        <v>56</v>
+      </c>
+      <c r="V8" t="s">
+        <v>65</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>20007</v>
       </c>
@@ -1113,8 +1278,17 @@
       <c r="T9">
         <v>5</v>
       </c>
+      <c r="U9" t="s">
+        <v>57</v>
+      </c>
+      <c r="V9" t="s">
+        <v>66</v>
+      </c>
+      <c r="W9">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>20008</v>
       </c>
@@ -1175,8 +1349,17 @@
       <c r="T10">
         <v>5</v>
       </c>
+      <c r="U10" t="s">
+        <v>58</v>
+      </c>
+      <c r="V10" t="s">
+        <v>67</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>20009</v>
       </c>
@@ -1237,8 +1420,17 @@
       <c r="T11">
         <v>5</v>
       </c>
+      <c r="U11" t="s">
+        <v>59</v>
+      </c>
+      <c r="V11" t="s">
+        <v>68</v>
+      </c>
+      <c r="W11">
+        <v>3</v>
+      </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>20010</v>
       </c>
@@ -1298,6 +1490,15 @@
       </c>
       <c r="T12">
         <v>5</v>
+      </c>
+      <c r="U12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V12" t="s">
+        <v>69</v>
+      </c>
+      <c r="W12">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E895A0F-DCA5-4F4E-A01A-79010AAEB358}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012FFFC4-17AE-42C8-B780-262EC16F1E82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="56">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -227,72 +227,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>building.l1_northhouse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>L1_Northhouse001</t>
   </si>
   <si>
-    <t>building.l2_northhouse</t>
-  </si>
-  <si>
-    <t>building.l3_northhouse</t>
-  </si>
-  <si>
-    <t>building.l4_northhouse</t>
-  </si>
-  <si>
-    <t>building.l5_northhouse</t>
-  </si>
-  <si>
-    <t>building.l6_northhouse</t>
-  </si>
-  <si>
-    <t>building.l7_northhouse</t>
-  </si>
-  <si>
-    <t>building.l8_northhouse</t>
-  </si>
-  <si>
-    <t>building.l9_northhouse</t>
-  </si>
-  <si>
-    <t>building.l10_northhouse</t>
-  </si>
-  <si>
-    <t>L1_Northhouse002</t>
-  </si>
-  <si>
-    <t>L1_Northhouse003</t>
-  </si>
-  <si>
-    <t>L1_Northhouse004</t>
-  </si>
-  <si>
-    <t>L1_Northhouse005</t>
-  </si>
-  <si>
-    <t>L1_Northhouse006</t>
-  </si>
-  <si>
-    <t>L1_Northhouse007</t>
-  </si>
-  <si>
-    <t>L1_Northhouse008</t>
-  </si>
-  <si>
-    <t>L1_Northhouse009</t>
-  </si>
-  <si>
-    <t>L1_Northhouse010</t>
-  </si>
-  <si>
     <t>建造页签种类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>buildingTabType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1_Northhouse001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1_Storehouse001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>building.ab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -620,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -643,7 +597,7 @@
     <col min="16" max="16" width="14.625" customWidth="1"/>
     <col min="17" max="17" width="13.5" customWidth="1"/>
     <col min="18" max="19" width="16" customWidth="1"/>
-    <col min="20" max="20" width="21.75" customWidth="1"/>
+    <col min="20" max="20" width="17.5" customWidth="1"/>
     <col min="21" max="21" width="25.625" customWidth="1"/>
     <col min="22" max="22" width="18" customWidth="1"/>
     <col min="23" max="23" width="14.25" customWidth="1"/>
@@ -717,7 +671,7 @@
         <v>47</v>
       </c>
       <c r="W1" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
@@ -788,7 +742,7 @@
         <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
@@ -853,10 +807,10 @@
         <v>5</v>
       </c>
       <c r="U3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="V3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -924,10 +878,10 @@
         <v>5</v>
       </c>
       <c r="U4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="V4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="W4">
         <v>4</v>
@@ -995,10 +949,10 @@
         <v>5</v>
       </c>
       <c r="U5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V5" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="W5">
         <v>5</v>
@@ -1066,10 +1020,10 @@
         <v>5</v>
       </c>
       <c r="U6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V6" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="W6">
         <v>5</v>
@@ -1140,7 +1094,7 @@
         <v>55</v>
       </c>
       <c r="V7" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="W7">
         <v>1</v>
@@ -1208,10 +1162,10 @@
         <v>5</v>
       </c>
       <c r="U8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V8" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="W8">
         <v>1</v>
@@ -1279,10 +1233,10 @@
         <v>5</v>
       </c>
       <c r="U9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V9" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="W9">
         <v>3</v>
@@ -1350,10 +1304,10 @@
         <v>5</v>
       </c>
       <c r="U10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="V10" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="W10">
         <v>1</v>
@@ -1421,10 +1375,10 @@
         <v>5</v>
       </c>
       <c r="U11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="V11" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="W11">
         <v>3</v>
@@ -1492,10 +1446,10 @@
         <v>5</v>
       </c>
       <c r="U12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="V12" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="W12">
         <v>2</v>

--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012FFFC4-17AE-42C8-B780-262EC16F1E82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F738D241-C6AB-4249-8415-6E996DBB164A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -574,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Y8" sqref="Y8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -753,10 +753,10 @@
         <v>25</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>200</v>

--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F738D241-C6AB-4249-8415-6E996DBB164A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEA6352-1FE3-4B92-B6FC-05F31D1CE02C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="58">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -247,6 +247,14 @@
   </si>
   <si>
     <t>building.ab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>road.ab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1_Road001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -574,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -878,10 +886,10 @@
         <v>5</v>
       </c>
       <c r="U4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="W4">
         <v>4</v>

--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEA6352-1FE3-4B92-B6FC-05F31D1CE02C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DCCC22-5F81-4BA7-A5CF-8F0E0CC6BB41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="60">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -255,6 +255,14 @@
   </si>
   <si>
     <t>L1_Road001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产时长（周）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品数量（吨/单位面积）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -298,8 +306,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -580,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:AD12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -604,14 +616,19 @@
     <col min="15" max="15" width="17.625" customWidth="1"/>
     <col min="16" max="16" width="14.625" customWidth="1"/>
     <col min="17" max="17" width="13.5" customWidth="1"/>
-    <col min="18" max="19" width="16" customWidth="1"/>
-    <col min="20" max="20" width="17.5" customWidth="1"/>
-    <col min="21" max="21" width="25.625" customWidth="1"/>
-    <col min="22" max="22" width="18" customWidth="1"/>
-    <col min="23" max="23" width="14.25" customWidth="1"/>
+    <col min="18" max="21" width="16" customWidth="1"/>
+    <col min="22" max="22" width="26.75" customWidth="1"/>
+    <col min="23" max="23" width="25.625" customWidth="1"/>
+    <col min="24" max="24" width="18" customWidth="1"/>
+    <col min="25" max="25" width="23.125" customWidth="1"/>
+    <col min="26" max="26" width="18.125" customWidth="1"/>
+    <col min="27" max="27" width="24.25" customWidth="1"/>
+    <col min="28" max="28" width="15.25" customWidth="1"/>
+    <col min="29" max="29" width="24.625" customWidth="1"/>
+    <col min="30" max="30" width="29.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -669,20 +686,27 @@
       <c r="S1" t="s">
         <v>13</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V1" t="s">
         <v>8</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>46</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>47</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>51</v>
       </c>
+      <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -740,20 +764,22 @@
       <c r="S2" t="s">
         <v>14</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" s="1"/>
+      <c r="V2" t="s">
         <v>9</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>48</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>49</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>52</v>
       </c>
+      <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>20001</v>
       </c>
@@ -811,20 +837,22 @@
       <c r="S3">
         <v>50</v>
       </c>
-      <c r="T3">
-        <v>5</v>
-      </c>
-      <c r="U3" t="s">
+      <c r="T3" s="1"/>
+      <c r="V3">
+        <v>5</v>
+      </c>
+      <c r="W3" t="s">
         <v>55</v>
       </c>
-      <c r="V3" t="s">
-        <v>50</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
+      <c r="X3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>20002</v>
       </c>
@@ -882,20 +910,22 @@
       <c r="S4">
         <v>50</v>
       </c>
-      <c r="T4">
-        <v>5</v>
-      </c>
-      <c r="U4" t="s">
+      <c r="T4" s="1"/>
+      <c r="V4">
+        <v>5</v>
+      </c>
+      <c r="W4" t="s">
         <v>56</v>
       </c>
-      <c r="V4" t="s">
+      <c r="X4" t="s">
         <v>57</v>
       </c>
-      <c r="W4">
+      <c r="Y4">
         <v>4</v>
       </c>
+      <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>20003</v>
       </c>
@@ -953,20 +983,22 @@
       <c r="S5">
         <v>50</v>
       </c>
-      <c r="T5">
-        <v>5</v>
-      </c>
-      <c r="U5" t="s">
+      <c r="T5" s="1"/>
+      <c r="V5">
+        <v>5</v>
+      </c>
+      <c r="W5" t="s">
         <v>55</v>
       </c>
-      <c r="V5" t="s">
+      <c r="X5" t="s">
         <v>54</v>
       </c>
-      <c r="W5">
-        <v>5</v>
-      </c>
+      <c r="Y5">
+        <v>5</v>
+      </c>
+      <c r="AA5" s="1"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>20004</v>
       </c>
@@ -1024,20 +1056,22 @@
       <c r="S6">
         <v>50</v>
       </c>
-      <c r="T6">
-        <v>5</v>
-      </c>
-      <c r="U6" t="s">
+      <c r="T6" s="1"/>
+      <c r="V6">
+        <v>5</v>
+      </c>
+      <c r="W6" t="s">
         <v>55</v>
       </c>
-      <c r="V6" t="s">
+      <c r="X6" t="s">
         <v>53</v>
       </c>
-      <c r="W6">
-        <v>5</v>
-      </c>
+      <c r="Y6">
+        <v>5</v>
+      </c>
+      <c r="AA6" s="1"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>20005</v>
       </c>
@@ -1095,20 +1129,25 @@
       <c r="S7">
         <v>50</v>
       </c>
-      <c r="T7">
-        <v>5</v>
-      </c>
-      <c r="U7" t="s">
+      <c r="T7" s="1">
+        <v>20</v>
+      </c>
+      <c r="V7">
+        <v>5</v>
+      </c>
+      <c r="W7" t="s">
         <v>55</v>
       </c>
-      <c r="V7" t="s">
+      <c r="X7" t="s">
         <v>53</v>
       </c>
-      <c r="W7">
+      <c r="Y7">
         <v>1</v>
       </c>
+      <c r="AA7" s="1"/>
+      <c r="AD7" s="2"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>20006</v>
       </c>
@@ -1166,20 +1205,22 @@
       <c r="S8">
         <v>50</v>
       </c>
-      <c r="T8">
-        <v>5</v>
-      </c>
-      <c r="U8" t="s">
+      <c r="U8" s="1"/>
+      <c r="V8">
+        <v>5</v>
+      </c>
+      <c r="W8" t="s">
         <v>55</v>
       </c>
-      <c r="V8" t="s">
+      <c r="X8" t="s">
         <v>53</v>
       </c>
-      <c r="W8">
+      <c r="Y8">
         <v>1</v>
       </c>
+      <c r="AA8" s="1"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>20007</v>
       </c>
@@ -1237,20 +1278,22 @@
       <c r="S9">
         <v>50</v>
       </c>
-      <c r="T9">
-        <v>5</v>
-      </c>
-      <c r="U9" t="s">
+      <c r="U9" s="1"/>
+      <c r="V9">
+        <v>5</v>
+      </c>
+      <c r="W9" t="s">
         <v>55</v>
       </c>
-      <c r="V9" t="s">
+      <c r="X9" t="s">
         <v>53</v>
       </c>
-      <c r="W9">
+      <c r="Y9">
         <v>3</v>
       </c>
+      <c r="AA9" s="1"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>20008</v>
       </c>
@@ -1308,20 +1351,22 @@
       <c r="S10">
         <v>50</v>
       </c>
-      <c r="T10">
-        <v>5</v>
-      </c>
-      <c r="U10" t="s">
+      <c r="U10" s="1"/>
+      <c r="V10">
+        <v>5</v>
+      </c>
+      <c r="W10" t="s">
         <v>55</v>
       </c>
-      <c r="V10" t="s">
+      <c r="X10" t="s">
         <v>53</v>
       </c>
-      <c r="W10">
+      <c r="Y10">
         <v>1</v>
       </c>
+      <c r="AA10" s="1"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>20009</v>
       </c>
@@ -1379,20 +1424,22 @@
       <c r="S11">
         <v>50</v>
       </c>
-      <c r="T11">
-        <v>5</v>
-      </c>
-      <c r="U11" t="s">
+      <c r="U11" s="1"/>
+      <c r="V11">
+        <v>5</v>
+      </c>
+      <c r="W11" t="s">
         <v>55</v>
       </c>
-      <c r="V11" t="s">
+      <c r="X11" t="s">
         <v>53</v>
       </c>
-      <c r="W11">
+      <c r="Y11">
         <v>3</v>
       </c>
+      <c r="AA11" s="1"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>20010</v>
       </c>
@@ -1450,18 +1497,20 @@
       <c r="S12">
         <v>50</v>
       </c>
-      <c r="T12">
-        <v>5</v>
-      </c>
-      <c r="U12" t="s">
+      <c r="U12" s="1"/>
+      <c r="V12">
+        <v>5</v>
+      </c>
+      <c r="W12" t="s">
         <v>55</v>
       </c>
-      <c r="V12" t="s">
+      <c r="X12" t="s">
         <v>53</v>
       </c>
-      <c r="W12">
-        <v>2</v>
-      </c>
+      <c r="Y12">
+        <v>2</v>
+      </c>
+      <c r="AA12" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\毕业设计\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DCCC22-5F81-4BA7-A5CF-8F0E0CC6BB41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57ABE2B-E811-41A1-90BF-797D230CFB84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10185" yWindow="285" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="58">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,22 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>存储量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Storage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物品产出数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>建造花费金钱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -151,10 +135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>磨坊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>养殖场</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -264,23 +244,32 @@
   <si>
     <t>产品数量（吨/单位面积）</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weeks</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>10006，10004</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -592,121 +581,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD12"/>
+  <dimension ref="A1:AB11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <pane xSplit="2" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.75" customWidth="1"/>
-    <col min="2" max="2" width="11.875" customWidth="1"/>
-    <col min="3" max="3" width="16.125" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="12.375" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
-    <col min="7" max="7" width="11.5" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="13.375" customWidth="1"/>
-    <col min="10" max="10" width="12.375" customWidth="1"/>
-    <col min="11" max="11" width="8.125" customWidth="1"/>
-    <col min="12" max="12" width="7" customWidth="1"/>
-    <col min="13" max="14" width="14.625" customWidth="1"/>
-    <col min="15" max="15" width="17.625" customWidth="1"/>
-    <col min="16" max="16" width="14.625" customWidth="1"/>
-    <col min="17" max="17" width="13.5" customWidth="1"/>
-    <col min="18" max="21" width="16" customWidth="1"/>
-    <col min="22" max="22" width="26.75" customWidth="1"/>
-    <col min="23" max="23" width="25.625" customWidth="1"/>
-    <col min="24" max="24" width="18" customWidth="1"/>
-    <col min="25" max="25" width="23.125" customWidth="1"/>
-    <col min="26" max="26" width="18.125" customWidth="1"/>
-    <col min="27" max="27" width="24.25" customWidth="1"/>
-    <col min="28" max="28" width="15.25" customWidth="1"/>
-    <col min="29" max="29" width="24.625" customWidth="1"/>
-    <col min="30" max="30" width="29.625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="15" max="15" width="24.42578125" customWidth="1"/>
+    <col min="16" max="16" width="26.7109375" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" customWidth="1"/>
+    <col min="20" max="20" width="16" customWidth="1"/>
+    <col min="21" max="21" width="25.5703125" customWidth="1"/>
+    <col min="22" max="22" width="18" customWidth="1"/>
+    <col min="23" max="23" width="23.140625" customWidth="1"/>
+    <col min="24" max="24" width="18.140625" customWidth="1"/>
+    <col min="25" max="25" width="24.28515625" customWidth="1"/>
+    <col min="26" max="26" width="15.28515625" customWidth="1"/>
+    <col min="27" max="27" width="24.5703125" customWidth="1"/>
+    <col min="28" max="28" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
         <v>37</v>
       </c>
-      <c r="G1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" t="s">
         <v>38</v>
       </c>
-      <c r="I1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" t="s">
-        <v>43</v>
-      </c>
       <c r="L1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
         <v>4</v>
       </c>
-      <c r="N1" t="s">
-        <v>15</v>
+      <c r="N1" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="O1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="P1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="Q1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" t="s">
         <v>6</v>
       </c>
-      <c r="R1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S1" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>58</v>
+      <c r="T1" t="s">
+        <v>20</v>
       </c>
       <c r="U1" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="V1" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="W1" t="s">
         <v>46</v>
       </c>
-      <c r="X1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA1" s="1"/>
+      <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -714,28 +700,28 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
         <v>12</v>
@@ -746,45 +732,41 @@
       <c r="M2" t="s">
         <v>5</v>
       </c>
-      <c r="N2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" t="s">
-        <v>45</v>
+      <c r="N2" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="P2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>7</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>7</v>
       </c>
-      <c r="S2" t="s">
-        <v>14</v>
-      </c>
-      <c r="T2" s="1"/>
+      <c r="U2" t="s">
+        <v>43</v>
+      </c>
       <c r="V2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
-      </c>
-      <c r="X2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA2" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28">
       <c r="A3">
         <v>20001</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -793,22 +775,22 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F3">
         <v>10004</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -819,565 +801,555 @@
       <c r="M3">
         <v>10007</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3">
         <v>10</v>
       </c>
-      <c r="O3">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>100</v>
       </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>39</v>
-      </c>
-      <c r="R3" t="s">
-        <v>39</v>
-      </c>
-      <c r="S3">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T3" t="s">
+        <v>34</v>
+      </c>
+      <c r="U3" t="s">
         <v>50</v>
       </c>
-      <c r="T3" s="1"/>
-      <c r="V3">
-        <v>5</v>
-      </c>
-      <c r="W3" t="s">
-        <v>55</v>
-      </c>
-      <c r="X3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="1"/>
+      <c r="V3" t="s">
+        <v>45</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28">
       <c r="A4">
         <v>20002</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="F4">
         <v>10004</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>50</v>
-      </c>
-      <c r="M4">
-        <v>10007</v>
-      </c>
-      <c r="N4">
+        <v>15</v>
+      </c>
+      <c r="M4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N4" s="1">
         <v>0</v>
       </c>
       <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>100</v>
       </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" t="s">
-        <v>39</v>
-      </c>
-      <c r="S4">
-        <v>50</v>
-      </c>
-      <c r="T4" s="1"/>
-      <c r="V4">
-        <v>5</v>
-      </c>
-      <c r="W4" t="s">
-        <v>56</v>
-      </c>
-      <c r="X4" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y4">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4" t="s">
+        <v>34</v>
+      </c>
+      <c r="T4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U4" t="s">
+        <v>51</v>
+      </c>
+      <c r="V4" t="s">
+        <v>52</v>
+      </c>
+      <c r="W4">
         <v>4</v>
       </c>
-      <c r="AA4" s="1"/>
+      <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28">
       <c r="A5">
         <v>20003</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E5">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F5">
         <v>10004</v>
       </c>
       <c r="G5">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>150</v>
+      </c>
+      <c r="M5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>100</v>
+      </c>
+      <c r="R5">
+        <v>50</v>
+      </c>
+      <c r="S5" t="s">
+        <v>34</v>
+      </c>
+      <c r="T5" t="s">
+        <v>34</v>
+      </c>
+      <c r="U5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V5" t="s">
+        <v>49</v>
+      </c>
+      <c r="W5">
         <v>5</v>
       </c>
-      <c r="H5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>50</v>
-      </c>
-      <c r="M5">
-        <v>10007</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>100</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>39</v>
-      </c>
-      <c r="R5" t="s">
-        <v>39</v>
-      </c>
-      <c r="S5">
-        <v>50</v>
-      </c>
-      <c r="T5" s="1"/>
-      <c r="V5">
-        <v>5</v>
-      </c>
-      <c r="W5" t="s">
-        <v>55</v>
-      </c>
-      <c r="X5" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y5">
-        <v>5</v>
-      </c>
-      <c r="AA5" s="1"/>
+      <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28">
       <c r="A6">
         <v>20004</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E6">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F6">
         <v>10004</v>
       </c>
       <c r="G6">
+        <v>80</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>250</v>
+      </c>
+      <c r="M6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>100</v>
+      </c>
+      <c r="R6">
+        <v>200</v>
+      </c>
+      <c r="S6" t="s">
+        <v>34</v>
+      </c>
+      <c r="T6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U6" t="s">
+        <v>50</v>
+      </c>
+      <c r="V6" t="s">
+        <v>48</v>
+      </c>
+      <c r="W6">
         <v>5</v>
       </c>
-      <c r="H6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>50</v>
-      </c>
-      <c r="M6">
-        <v>10007</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>100</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>39</v>
-      </c>
-      <c r="R6" t="s">
-        <v>39</v>
-      </c>
-      <c r="S6">
-        <v>50</v>
-      </c>
-      <c r="T6" s="1"/>
-      <c r="V6">
-        <v>5</v>
-      </c>
-      <c r="W6" t="s">
-        <v>55</v>
-      </c>
-      <c r="X6" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y6">
-        <v>5</v>
-      </c>
-      <c r="AA6" s="1"/>
+      <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28">
       <c r="A7">
         <v>20005</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="F7">
         <v>10004</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>60</v>
+      </c>
+      <c r="M7">
+        <v>10001</v>
+      </c>
+      <c r="N7" s="1">
+        <v>24</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
         <v>5</v>
       </c>
-      <c r="H7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
+      <c r="Q7">
+        <v>100</v>
+      </c>
+      <c r="R7">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s">
+        <v>34</v>
+      </c>
+      <c r="T7" t="s">
+        <v>34</v>
+      </c>
+      <c r="U7" t="s">
         <v>50</v>
       </c>
-      <c r="M7">
-        <v>10007</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>100</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>39</v>
-      </c>
-      <c r="R7" t="s">
-        <v>39</v>
-      </c>
-      <c r="S7">
-        <v>50</v>
-      </c>
-      <c r="T7" s="1">
-        <v>20</v>
-      </c>
-      <c r="V7">
-        <v>5</v>
-      </c>
-      <c r="W7" t="s">
-        <v>55</v>
-      </c>
-      <c r="X7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y7">
+      <c r="V7" t="s">
+        <v>48</v>
+      </c>
+      <c r="W7">
         <v>1</v>
       </c>
-      <c r="AA7" s="1"/>
-      <c r="AD7" s="2"/>
+      <c r="Y7" s="1"/>
+      <c r="AB7" s="2"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28">
       <c r="A8">
         <v>20006</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="F8">
         <v>10004</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>63</v>
+      </c>
+      <c r="M8">
+        <v>10002</v>
+      </c>
+      <c r="N8" s="1">
+        <v>18</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="P8">
+        <v>6</v>
+      </c>
+      <c r="Q8">
+        <v>100</v>
+      </c>
+      <c r="R8">
         <v>5</v>
       </c>
-      <c r="H8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
+      <c r="S8" t="s">
+        <v>34</v>
+      </c>
+      <c r="T8" t="s">
+        <v>34</v>
+      </c>
+      <c r="U8" t="s">
         <v>50</v>
       </c>
-      <c r="M8">
-        <v>10007</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>100</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>39</v>
-      </c>
-      <c r="R8" t="s">
-        <v>39</v>
-      </c>
-      <c r="S8">
-        <v>50</v>
-      </c>
-      <c r="U8" s="1"/>
-      <c r="V8">
-        <v>5</v>
-      </c>
-      <c r="W8" t="s">
-        <v>55</v>
-      </c>
-      <c r="X8" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y8">
+      <c r="V8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W8">
         <v>1</v>
       </c>
-      <c r="AA8" s="1"/>
+      <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28">
       <c r="A9">
         <v>20007</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="F9">
         <v>10004</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
+        <v>140</v>
+      </c>
+      <c r="M9">
+        <v>10005</v>
+      </c>
+      <c r="N9" s="1">
+        <v>48</v>
+      </c>
+      <c r="O9" s="1">
+        <v>20</v>
+      </c>
+      <c r="P9">
+        <v>30</v>
+      </c>
+      <c r="Q9">
+        <v>100</v>
+      </c>
+      <c r="R9">
+        <v>30</v>
+      </c>
+      <c r="S9" t="s">
+        <v>34</v>
+      </c>
+      <c r="T9" t="s">
+        <v>34</v>
+      </c>
+      <c r="U9" t="s">
         <v>50</v>
       </c>
-      <c r="M9">
-        <v>10007</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>100</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>39</v>
-      </c>
-      <c r="R9" t="s">
-        <v>39</v>
-      </c>
-      <c r="S9">
-        <v>50</v>
-      </c>
-      <c r="U9" s="1"/>
-      <c r="V9">
-        <v>5</v>
-      </c>
-      <c r="W9" t="s">
-        <v>55</v>
-      </c>
-      <c r="X9" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y9">
-        <v>3</v>
-      </c>
-      <c r="AA9" s="1"/>
+      <c r="V9" t="s">
+        <v>48</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28">
       <c r="A10">
         <v>20008</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E10">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F10">
         <v>10004</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
+        <v>200</v>
+      </c>
+      <c r="M10" t="s">
+        <v>57</v>
+      </c>
+      <c r="N10" s="1">
+        <v>2</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10</v>
+      </c>
+      <c r="P10">
+        <v>20</v>
+      </c>
+      <c r="Q10">
+        <v>100</v>
+      </c>
+      <c r="R10">
+        <v>45</v>
+      </c>
+      <c r="S10" t="s">
+        <v>34</v>
+      </c>
+      <c r="T10" t="s">
+        <v>34</v>
+      </c>
+      <c r="U10" t="s">
         <v>50</v>
       </c>
-      <c r="M10">
-        <v>10007</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>100</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>39</v>
-      </c>
-      <c r="R10" t="s">
-        <v>39</v>
-      </c>
-      <c r="S10">
-        <v>50</v>
-      </c>
-      <c r="U10" s="1"/>
-      <c r="V10">
-        <v>5</v>
-      </c>
-      <c r="W10" t="s">
-        <v>55</v>
-      </c>
-      <c r="X10" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y10">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="1"/>
+      <c r="V10" t="s">
+        <v>48</v>
+      </c>
+      <c r="W10">
+        <v>3</v>
+      </c>
+      <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28">
       <c r="A11">
         <v>20009</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E11">
         <v>200</v>
@@ -1386,16 +1358,16 @@
         <v>10004</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1404,113 +1376,39 @@
         <v>50</v>
       </c>
       <c r="M11">
-        <v>10007</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
+        <v>10003</v>
+      </c>
+      <c r="N11" s="1">
+        <v>20</v>
+      </c>
+      <c r="O11" s="1">
+        <v>15</v>
+      </c>
+      <c r="P11">
+        <v>25</v>
+      </c>
+      <c r="Q11">
         <v>100</v>
       </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>39</v>
-      </c>
-      <c r="R11" t="s">
-        <v>39</v>
-      </c>
-      <c r="S11">
+      <c r="R11">
+        <v>60</v>
+      </c>
+      <c r="S11" t="s">
+        <v>34</v>
+      </c>
+      <c r="T11" t="s">
+        <v>34</v>
+      </c>
+      <c r="U11" t="s">
         <v>50</v>
       </c>
-      <c r="U11" s="1"/>
-      <c r="V11">
-        <v>5</v>
-      </c>
-      <c r="W11" t="s">
-        <v>55</v>
-      </c>
-      <c r="X11" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y11">
-        <v>3</v>
-      </c>
-      <c r="AA11" s="1"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>20010</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12">
+      <c r="V11" t="s">
+        <v>48</v>
+      </c>
+      <c r="W11">
         <v>2</v>
       </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>200</v>
-      </c>
-      <c r="F12">
-        <v>10004</v>
-      </c>
-      <c r="G12">
-        <v>5</v>
-      </c>
-      <c r="H12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s">
-        <v>39</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>50</v>
-      </c>
-      <c r="M12">
-        <v>10007</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>100</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>39</v>
-      </c>
-      <c r="R12" t="s">
-        <v>39</v>
-      </c>
-      <c r="S12">
-        <v>50</v>
-      </c>
-      <c r="U12" s="1"/>
-      <c r="V12">
-        <v>5</v>
-      </c>
-      <c r="W12" t="s">
-        <v>55</v>
-      </c>
-      <c r="X12" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y12">
-        <v>2</v>
-      </c>
-      <c r="AA12" s="1"/>
+      <c r="Y11" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\毕业设计\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57ABE2B-E811-41A1-90BF-797D230CFB84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F274B7-2686-4DC1-8D22-EF95A4394A8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10185" yWindow="285" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3885" yWindow="1845" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -584,8 +584,8 @@
   <dimension ref="A1:AB11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S11" sqref="S11"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1202,10 +1202,10 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E9">
         <v>280</v>

--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\毕业设计\BiShe\Assets\Resources\Data\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57ABE2B-E811-41A1-90BF-797D230CFB84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D1D22F-925B-48D1-B31D-B5F21563D838}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10185" yWindow="285" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="62">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -246,30 +246,48 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>weeks</t>
-  </si>
-  <si>
     <t>Null</t>
   </si>
   <si>
-    <t>10006，10004</t>
+    <t>ProductNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1_Market001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1_Farm001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1_Factory001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1_Sawmill001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -584,43 +602,43 @@
   <dimension ref="A1:AB11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S11" sqref="S11"/>
+      <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.75" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="16.125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
+    <col min="7" max="7" width="15.625" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.25" customWidth="1"/>
+    <col min="10" max="10" width="20.625" customWidth="1"/>
+    <col min="11" max="11" width="16.875" customWidth="1"/>
+    <col min="12" max="12" width="16.125" customWidth="1"/>
+    <col min="13" max="13" width="14.625" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="15" width="24.42578125" customWidth="1"/>
-    <col min="16" max="16" width="26.7109375" customWidth="1"/>
-    <col min="17" max="17" width="17.5703125" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" customWidth="1"/>
+    <col min="15" max="15" width="24.375" customWidth="1"/>
+    <col min="16" max="16" width="26.75" customWidth="1"/>
+    <col min="17" max="17" width="17.625" customWidth="1"/>
+    <col min="18" max="18" width="14.625" customWidth="1"/>
+    <col min="19" max="19" width="13.375" customWidth="1"/>
     <col min="20" max="20" width="16" customWidth="1"/>
-    <col min="21" max="21" width="25.5703125" customWidth="1"/>
+    <col min="21" max="21" width="25.625" customWidth="1"/>
     <col min="22" max="22" width="18" customWidth="1"/>
-    <col min="23" max="23" width="23.140625" customWidth="1"/>
-    <col min="24" max="24" width="18.140625" customWidth="1"/>
-    <col min="25" max="25" width="24.28515625" customWidth="1"/>
-    <col min="26" max="26" width="15.28515625" customWidth="1"/>
-    <col min="27" max="27" width="24.5703125" customWidth="1"/>
-    <col min="28" max="28" width="29.5703125" customWidth="1"/>
+    <col min="23" max="23" width="23.125" customWidth="1"/>
+    <col min="24" max="24" width="18.125" customWidth="1"/>
+    <col min="25" max="25" width="24.25" customWidth="1"/>
+    <col min="26" max="26" width="15.25" customWidth="1"/>
+    <col min="27" max="27" width="24.625" customWidth="1"/>
+    <col min="28" max="28" width="29.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -692,7 +710,7 @@
       </c>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -733,7 +751,10 @@
         <v>5</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
+      </c>
+      <c r="O2" t="s">
+        <v>56</v>
       </c>
       <c r="P2" t="s">
         <v>9</v>
@@ -761,7 +782,7 @@
       </c>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>20001</v>
       </c>
@@ -833,7 +854,7 @@
       </c>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>20002</v>
       </c>
@@ -871,7 +892,7 @@
         <v>15</v>
       </c>
       <c r="M4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N4" s="1">
         <v>0</v>
@@ -905,7 +926,7 @@
       </c>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>20003</v>
       </c>
@@ -943,7 +964,7 @@
         <v>150</v>
       </c>
       <c r="M5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N5" s="1">
         <v>0</v>
@@ -977,7 +998,7 @@
       </c>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>20004</v>
       </c>
@@ -1015,7 +1036,7 @@
         <v>250</v>
       </c>
       <c r="M6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N6" s="1">
         <v>0</v>
@@ -1042,14 +1063,14 @@
         <v>50</v>
       </c>
       <c r="V6" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="W6">
         <v>5</v>
       </c>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>20005</v>
       </c>
@@ -1122,7 +1143,7 @@
       <c r="Y7" s="1"/>
       <c r="AB7" s="2"/>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>20006</v>
       </c>
@@ -1194,7 +1215,7 @@
       </c>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>20007</v>
       </c>
@@ -1259,14 +1280,14 @@
         <v>50</v>
       </c>
       <c r="V9" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="W9">
         <v>1</v>
       </c>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>20008</v>
       </c>
@@ -1303,8 +1324,8 @@
       <c r="L10">
         <v>200</v>
       </c>
-      <c r="M10" t="s">
-        <v>57</v>
+      <c r="M10">
+        <v>10006</v>
       </c>
       <c r="N10" s="1">
         <v>2</v>
@@ -1331,14 +1352,14 @@
         <v>50</v>
       </c>
       <c r="V10" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="W10">
         <v>3</v>
       </c>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>20009</v>
       </c>
@@ -1403,7 +1424,7 @@
         <v>50</v>
       </c>
       <c r="V11" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="W11">
         <v>2</v>

--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D1D22F-925B-48D1-B31D-B5F21563D838}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55A66A5-5B08-4A4F-BB7F-78310CE1439E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -218,10 +218,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>L1_Northhouse001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>L1_Storehouse001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -270,6 +266,10 @@
   </si>
   <si>
     <t>L1_Sawmill001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1_Fieldedge001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -602,8 +602,8 @@
   <dimension ref="A1:AB11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O10" sqref="O10"/>
+      <pane xSplit="2" topLeftCell="T1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -679,10 +679,10 @@
         <v>4</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" t="s">
         <v>53</v>
-      </c>
-      <c r="O1" t="s">
-        <v>54</v>
       </c>
       <c r="P1" t="s">
         <v>8</v>
@@ -751,10 +751,10 @@
         <v>5</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P2" t="s">
         <v>9</v>
@@ -844,7 +844,7 @@
         <v>34</v>
       </c>
       <c r="U3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V3" t="s">
         <v>45</v>
@@ -892,7 +892,7 @@
         <v>15</v>
       </c>
       <c r="M4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N4" s="1">
         <v>0</v>
@@ -916,10 +916,10 @@
         <v>34</v>
       </c>
       <c r="U4" t="s">
+        <v>50</v>
+      </c>
+      <c r="V4" t="s">
         <v>51</v>
-      </c>
-      <c r="V4" t="s">
-        <v>52</v>
       </c>
       <c r="W4">
         <v>4</v>
@@ -964,7 +964,7 @@
         <v>150</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N5" s="1">
         <v>0</v>
@@ -988,10 +988,10 @@
         <v>34</v>
       </c>
       <c r="U5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W5">
         <v>5</v>
@@ -1036,7 +1036,7 @@
         <v>250</v>
       </c>
       <c r="M6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N6" s="1">
         <v>0</v>
@@ -1060,10 +1060,10 @@
         <v>34</v>
       </c>
       <c r="U6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W6">
         <v>5</v>
@@ -1132,10 +1132,10 @@
         <v>34</v>
       </c>
       <c r="U7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V7" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="W7">
         <v>1</v>
@@ -1205,10 +1205,10 @@
         <v>34</v>
       </c>
       <c r="U8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V8" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="W8">
         <v>1</v>
@@ -1277,10 +1277,10 @@
         <v>34</v>
       </c>
       <c r="U9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W9">
         <v>1</v>
@@ -1349,10 +1349,10 @@
         <v>34</v>
       </c>
       <c r="U10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W10">
         <v>3</v>
@@ -1421,10 +1421,10 @@
         <v>34</v>
       </c>
       <c r="U11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W11">
         <v>2</v>

--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bishe\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D1D22F-925B-48D1-B31D-B5F21563D838}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FF794A-C766-494C-8FCC-F3F57211FD7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="72">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,10 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>民房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>土路</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,10 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>集市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>麦田</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -135,18 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>养殖场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加工厂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伐木场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>拆除返还金钱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -270,6 +250,66 @@
   </si>
   <si>
     <t>L1_Sawmill001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民房Ⅰ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集市Ⅰ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加工厂Ⅰ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>养殖场Ⅰ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伐木场Ⅰ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民房Ⅱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集市Ⅱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>养殖场Ⅱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加工厂Ⅱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伐木场Ⅱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民房Ⅲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集市Ⅲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>养殖场Ⅲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加工厂Ⅲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伐木场Ⅲ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -599,11 +639,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB11"/>
+  <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O10" sqref="O10"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -640,7 +680,7 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -655,40 +695,40 @@
         <v>13</v>
       </c>
       <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
         <v>32</v>
       </c>
-      <c r="G1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
         <v>33</v>
       </c>
-      <c r="I1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" t="s">
-        <v>38</v>
-      </c>
       <c r="L1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M1" t="s">
         <v>4</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="O1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="P1" t="s">
         <v>8</v>
       </c>
       <c r="Q1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
         <v>19</v>
@@ -700,13 +740,13 @@
         <v>20</v>
       </c>
       <c r="U1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W1" t="s">
         <v>41</v>
-      </c>
-      <c r="V1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W1" t="s">
-        <v>46</v>
       </c>
       <c r="Y1" s="1"/>
     </row>
@@ -751,16 +791,16 @@
         <v>5</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="P2" t="s">
         <v>9</v>
       </c>
       <c r="Q2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="R2" t="s">
         <v>11</v>
@@ -772,13 +812,13 @@
         <v>7</v>
       </c>
       <c r="U2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="V2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="W2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="Y2" s="1"/>
     </row>
@@ -787,7 +827,7 @@
         <v>20001</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -805,13 +845,13 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -838,16 +878,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="T3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="U3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="V3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -859,7 +899,7 @@
         <v>20002</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -877,13 +917,13 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -892,7 +932,7 @@
         <v>15</v>
       </c>
       <c r="M4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N4" s="1">
         <v>0</v>
@@ -910,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="T4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="U4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="V4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="W4">
         <v>4</v>
@@ -931,7 +971,7 @@
         <v>20003</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -949,13 +989,13 @@
         <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -964,7 +1004,7 @@
         <v>150</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N5" s="1">
         <v>0</v>
@@ -982,16 +1022,16 @@
         <v>50</v>
       </c>
       <c r="S5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="T5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="U5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="V5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="W5">
         <v>5</v>
@@ -1003,7 +1043,7 @@
         <v>20004</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -1021,13 +1061,13 @@
         <v>80</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1036,7 +1076,7 @@
         <v>250</v>
       </c>
       <c r="M6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N6" s="1">
         <v>0</v>
@@ -1054,16 +1094,16 @@
         <v>200</v>
       </c>
       <c r="S6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="T6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="U6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="V6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="W6">
         <v>5</v>
@@ -1075,7 +1115,7 @@
         <v>20005</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1093,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1126,16 +1166,16 @@
         <v>5</v>
       </c>
       <c r="S7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="T7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="U7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="V7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="W7">
         <v>1</v>
@@ -1148,7 +1188,7 @@
         <v>20006</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1166,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1199,16 +1239,16 @@
         <v>5</v>
       </c>
       <c r="S8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="T8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="U8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="V8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="W8">
         <v>1</v>
@@ -1220,7 +1260,7 @@
         <v>20007</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="C9">
         <v>14</v>
@@ -1238,13 +1278,13 @@
         <v>50</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1271,16 +1311,16 @@
         <v>30</v>
       </c>
       <c r="S9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="T9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="U9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="V9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="W9">
         <v>1</v>
@@ -1292,7 +1332,7 @@
         <v>20008</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -1310,13 +1350,13 @@
         <v>70</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1343,16 +1383,16 @@
         <v>45</v>
       </c>
       <c r="S10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="T10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="U10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="V10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="W10">
         <v>3</v>
@@ -1364,7 +1404,7 @@
         <v>20009</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -1382,13 +1422,13 @@
         <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1415,21 +1455,741 @@
         <v>60</v>
       </c>
       <c r="S11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="T11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="U11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="V11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="W11">
         <v>2</v>
       </c>
       <c r="Y11" s="1"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>20010</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>100</v>
+      </c>
+      <c r="F12">
+        <v>10004</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>50</v>
+      </c>
+      <c r="M12">
+        <v>10007</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>10</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>100</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12" t="s">
+        <v>29</v>
+      </c>
+      <c r="T12" t="s">
+        <v>29</v>
+      </c>
+      <c r="U12" t="s">
+        <v>45</v>
+      </c>
+      <c r="V12" t="s">
+        <v>40</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="1"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>20011</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>14</v>
+      </c>
+      <c r="E13">
+        <v>500</v>
+      </c>
+      <c r="F13">
+        <v>10004</v>
+      </c>
+      <c r="G13">
+        <v>80</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>250</v>
+      </c>
+      <c r="M13" t="s">
+        <v>50</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>100</v>
+      </c>
+      <c r="R13">
+        <v>200</v>
+      </c>
+      <c r="S13" t="s">
+        <v>29</v>
+      </c>
+      <c r="T13" t="s">
+        <v>29</v>
+      </c>
+      <c r="U13" t="s">
+        <v>45</v>
+      </c>
+      <c r="V13" t="s">
+        <v>53</v>
+      </c>
+      <c r="W13">
+        <v>5</v>
+      </c>
+      <c r="Y13" s="1"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>20012</v>
+      </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>280</v>
+      </c>
+      <c r="F14">
+        <v>10004</v>
+      </c>
+      <c r="G14">
+        <v>50</v>
+      </c>
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>140</v>
+      </c>
+      <c r="M14">
+        <v>10005</v>
+      </c>
+      <c r="N14" s="1">
+        <v>48</v>
+      </c>
+      <c r="O14" s="1">
+        <v>20</v>
+      </c>
+      <c r="P14">
+        <v>30</v>
+      </c>
+      <c r="Q14">
+        <v>100</v>
+      </c>
+      <c r="R14">
+        <v>30</v>
+      </c>
+      <c r="S14" t="s">
+        <v>29</v>
+      </c>
+      <c r="T14" t="s">
+        <v>29</v>
+      </c>
+      <c r="U14" t="s">
+        <v>45</v>
+      </c>
+      <c r="V14" t="s">
+        <v>54</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="1"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>20013</v>
+      </c>
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>400</v>
+      </c>
+      <c r="F15">
+        <v>10004</v>
+      </c>
+      <c r="G15">
+        <v>70</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>200</v>
+      </c>
+      <c r="M15">
+        <v>10006</v>
+      </c>
+      <c r="N15" s="1">
+        <v>2</v>
+      </c>
+      <c r="O15" s="1">
+        <v>10</v>
+      </c>
+      <c r="P15">
+        <v>20</v>
+      </c>
+      <c r="Q15">
+        <v>100</v>
+      </c>
+      <c r="R15">
+        <v>45</v>
+      </c>
+      <c r="S15" t="s">
+        <v>29</v>
+      </c>
+      <c r="T15" t="s">
+        <v>29</v>
+      </c>
+      <c r="U15" t="s">
+        <v>45</v>
+      </c>
+      <c r="V15" t="s">
+        <v>55</v>
+      </c>
+      <c r="W15">
+        <v>3</v>
+      </c>
+      <c r="Y15" s="1"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>20014</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <v>200</v>
+      </c>
+      <c r="F16">
+        <v>10004</v>
+      </c>
+      <c r="G16">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>50</v>
+      </c>
+      <c r="M16">
+        <v>10003</v>
+      </c>
+      <c r="N16" s="1">
+        <v>20</v>
+      </c>
+      <c r="O16" s="1">
+        <v>15</v>
+      </c>
+      <c r="P16">
+        <v>25</v>
+      </c>
+      <c r="Q16">
+        <v>100</v>
+      </c>
+      <c r="R16">
+        <v>60</v>
+      </c>
+      <c r="S16" t="s">
+        <v>29</v>
+      </c>
+      <c r="T16" t="s">
+        <v>29</v>
+      </c>
+      <c r="U16" t="s">
+        <v>45</v>
+      </c>
+      <c r="V16" t="s">
+        <v>56</v>
+      </c>
+      <c r="W16">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="1"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>20015</v>
+      </c>
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>100</v>
+      </c>
+      <c r="F17">
+        <v>10004</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="H17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>50</v>
+      </c>
+      <c r="M17">
+        <v>10007</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>10</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>100</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17" t="s">
+        <v>29</v>
+      </c>
+      <c r="T17" t="s">
+        <v>29</v>
+      </c>
+      <c r="U17" t="s">
+        <v>45</v>
+      </c>
+      <c r="V17" t="s">
+        <v>40</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="1"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>20016</v>
+      </c>
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>14</v>
+      </c>
+      <c r="E18">
+        <v>500</v>
+      </c>
+      <c r="F18">
+        <v>10004</v>
+      </c>
+      <c r="G18">
+        <v>80</v>
+      </c>
+      <c r="H18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>250</v>
+      </c>
+      <c r="M18" t="s">
+        <v>50</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>100</v>
+      </c>
+      <c r="R18">
+        <v>200</v>
+      </c>
+      <c r="S18" t="s">
+        <v>29</v>
+      </c>
+      <c r="T18" t="s">
+        <v>29</v>
+      </c>
+      <c r="U18" t="s">
+        <v>45</v>
+      </c>
+      <c r="V18" t="s">
+        <v>53</v>
+      </c>
+      <c r="W18">
+        <v>5</v>
+      </c>
+      <c r="Y18" s="1"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>20017</v>
+      </c>
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19">
+        <v>14</v>
+      </c>
+      <c r="D19">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>280</v>
+      </c>
+      <c r="F19">
+        <v>10004</v>
+      </c>
+      <c r="G19">
+        <v>50</v>
+      </c>
+      <c r="H19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>140</v>
+      </c>
+      <c r="M19">
+        <v>10005</v>
+      </c>
+      <c r="N19" s="1">
+        <v>48</v>
+      </c>
+      <c r="O19" s="1">
+        <v>20</v>
+      </c>
+      <c r="P19">
+        <v>30</v>
+      </c>
+      <c r="Q19">
+        <v>100</v>
+      </c>
+      <c r="R19">
+        <v>30</v>
+      </c>
+      <c r="S19" t="s">
+        <v>29</v>
+      </c>
+      <c r="T19" t="s">
+        <v>29</v>
+      </c>
+      <c r="U19" t="s">
+        <v>45</v>
+      </c>
+      <c r="V19" t="s">
+        <v>54</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="1"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>20018</v>
+      </c>
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <v>400</v>
+      </c>
+      <c r="F20">
+        <v>10004</v>
+      </c>
+      <c r="G20">
+        <v>70</v>
+      </c>
+      <c r="H20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>200</v>
+      </c>
+      <c r="M20">
+        <v>10006</v>
+      </c>
+      <c r="N20" s="1">
+        <v>2</v>
+      </c>
+      <c r="O20" s="1">
+        <v>10</v>
+      </c>
+      <c r="P20">
+        <v>20</v>
+      </c>
+      <c r="Q20">
+        <v>100</v>
+      </c>
+      <c r="R20">
+        <v>45</v>
+      </c>
+      <c r="S20" t="s">
+        <v>29</v>
+      </c>
+      <c r="T20" t="s">
+        <v>29</v>
+      </c>
+      <c r="U20" t="s">
+        <v>45</v>
+      </c>
+      <c r="V20" t="s">
+        <v>55</v>
+      </c>
+      <c r="W20">
+        <v>3</v>
+      </c>
+      <c r="Y20" s="1"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20019</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>200</v>
+      </c>
+      <c r="F21">
+        <v>10004</v>
+      </c>
+      <c r="G21">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>29</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>50</v>
+      </c>
+      <c r="M21">
+        <v>10003</v>
+      </c>
+      <c r="N21" s="1">
+        <v>20</v>
+      </c>
+      <c r="O21" s="1">
+        <v>15</v>
+      </c>
+      <c r="P21">
+        <v>25</v>
+      </c>
+      <c r="Q21">
+        <v>100</v>
+      </c>
+      <c r="R21">
+        <v>60</v>
+      </c>
+      <c r="S21" t="s">
+        <v>29</v>
+      </c>
+      <c r="T21" t="s">
+        <v>29</v>
+      </c>
+      <c r="U21" t="s">
+        <v>45</v>
+      </c>
+      <c r="V21" t="s">
+        <v>56</v>
+      </c>
+      <c r="W21">
+        <v>2</v>
+      </c>
+      <c r="Y21" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bishe\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FF794A-C766-494C-8FCC-F3F57211FD7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6C24A4-5D2B-4FC2-8CD9-A40745679476}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="73">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -273,43 +273,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>民房Ⅱ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>集市Ⅱ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>养殖场Ⅱ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加工厂Ⅱ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伐木场Ⅱ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>民房Ⅲ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>集市Ⅲ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>养殖场Ⅲ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加工厂Ⅲ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伐木场Ⅲ</t>
+    <t>建筑简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城镇发展最基础的建筑、提供城镇发展运行所需的劳动力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简易的交通道路，在一定程度上会减少各个生产建筑间的运输成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用来储存生产资料与商品的设施</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城镇收入的主要来源，城镇内生产的所有生产资料与商品都可以在市场上进行交易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供小麦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供水稻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供禽蛋肉类，玩家可以对其生产项目进行选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供加工功能，有玩家选择可以加工的产品种类，选择后无法更改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供原木，是城镇发展建设不可缺少的设施</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -639,11 +643,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB21"/>
+  <dimension ref="A1:AB11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C10" sqref="C10"/>
+      <pane xSplit="2" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -748,6 +752,9 @@
       <c r="W1" t="s">
         <v>41</v>
       </c>
+      <c r="X1" t="s">
+        <v>62</v>
+      </c>
       <c r="Y1" s="1"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
@@ -819,6 +826,9 @@
       </c>
       <c r="W2" t="s">
         <v>42</v>
+      </c>
+      <c r="X2" t="s">
+        <v>63</v>
       </c>
       <c r="Y2" s="1"/>
     </row>
@@ -892,6 +902,9 @@
       <c r="W3">
         <v>0</v>
       </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
       <c r="Y3" s="1"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
@@ -964,6 +977,9 @@
       <c r="W4">
         <v>4</v>
       </c>
+      <c r="X4" t="s">
+        <v>65</v>
+      </c>
       <c r="Y4" s="1"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
@@ -1036,6 +1052,9 @@
       <c r="W5">
         <v>5</v>
       </c>
+      <c r="X5" t="s">
+        <v>66</v>
+      </c>
       <c r="Y5" s="1"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
@@ -1108,6 +1127,9 @@
       <c r="W6">
         <v>5</v>
       </c>
+      <c r="X6" t="s">
+        <v>67</v>
+      </c>
       <c r="Y6" s="1"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
@@ -1179,6 +1201,9 @@
       </c>
       <c r="W7">
         <v>1</v>
+      </c>
+      <c r="X7" t="s">
+        <v>68</v>
       </c>
       <c r="Y7" s="1"/>
       <c r="AB7" s="2"/>
@@ -1253,6 +1278,9 @@
       <c r="W8">
         <v>1</v>
       </c>
+      <c r="X8" t="s">
+        <v>69</v>
+      </c>
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
@@ -1325,6 +1353,9 @@
       <c r="W9">
         <v>1</v>
       </c>
+      <c r="X9" t="s">
+        <v>70</v>
+      </c>
       <c r="Y9" s="1"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
@@ -1397,6 +1428,9 @@
       <c r="W10">
         <v>3</v>
       </c>
+      <c r="X10" t="s">
+        <v>71</v>
+      </c>
       <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
@@ -1469,727 +1503,10 @@
       <c r="W11">
         <v>2</v>
       </c>
+      <c r="X11" t="s">
+        <v>72</v>
+      </c>
       <c r="Y11" s="1"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>20010</v>
-      </c>
-      <c r="B12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <v>100</v>
-      </c>
-      <c r="F12">
-        <v>10004</v>
-      </c>
-      <c r="G12">
-        <v>10</v>
-      </c>
-      <c r="H12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>50</v>
-      </c>
-      <c r="M12">
-        <v>10007</v>
-      </c>
-      <c r="N12" s="1">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>10</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>100</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12" t="s">
-        <v>29</v>
-      </c>
-      <c r="T12" t="s">
-        <v>29</v>
-      </c>
-      <c r="U12" t="s">
-        <v>45</v>
-      </c>
-      <c r="V12" t="s">
-        <v>40</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="1"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>20011</v>
-      </c>
-      <c r="B13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13">
-        <v>12</v>
-      </c>
-      <c r="D13">
-        <v>14</v>
-      </c>
-      <c r="E13">
-        <v>500</v>
-      </c>
-      <c r="F13">
-        <v>10004</v>
-      </c>
-      <c r="G13">
-        <v>80</v>
-      </c>
-      <c r="H13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>250</v>
-      </c>
-      <c r="M13" t="s">
-        <v>50</v>
-      </c>
-      <c r="N13" s="1">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>100</v>
-      </c>
-      <c r="R13">
-        <v>200</v>
-      </c>
-      <c r="S13" t="s">
-        <v>29</v>
-      </c>
-      <c r="T13" t="s">
-        <v>29</v>
-      </c>
-      <c r="U13" t="s">
-        <v>45</v>
-      </c>
-      <c r="V13" t="s">
-        <v>53</v>
-      </c>
-      <c r="W13">
-        <v>5</v>
-      </c>
-      <c r="Y13" s="1"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>20012</v>
-      </c>
-      <c r="B14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14">
-        <v>14</v>
-      </c>
-      <c r="D14">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>280</v>
-      </c>
-      <c r="F14">
-        <v>10004</v>
-      </c>
-      <c r="G14">
-        <v>50</v>
-      </c>
-      <c r="H14" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>140</v>
-      </c>
-      <c r="M14">
-        <v>10005</v>
-      </c>
-      <c r="N14" s="1">
-        <v>48</v>
-      </c>
-      <c r="O14" s="1">
-        <v>20</v>
-      </c>
-      <c r="P14">
-        <v>30</v>
-      </c>
-      <c r="Q14">
-        <v>100</v>
-      </c>
-      <c r="R14">
-        <v>30</v>
-      </c>
-      <c r="S14" t="s">
-        <v>29</v>
-      </c>
-      <c r="T14" t="s">
-        <v>29</v>
-      </c>
-      <c r="U14" t="s">
-        <v>45</v>
-      </c>
-      <c r="V14" t="s">
-        <v>54</v>
-      </c>
-      <c r="W14">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="1"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>20013</v>
-      </c>
-      <c r="B15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-      <c r="D15">
-        <v>6</v>
-      </c>
-      <c r="E15">
-        <v>400</v>
-      </c>
-      <c r="F15">
-        <v>10004</v>
-      </c>
-      <c r="G15">
-        <v>70</v>
-      </c>
-      <c r="H15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>200</v>
-      </c>
-      <c r="M15">
-        <v>10006</v>
-      </c>
-      <c r="N15" s="1">
-        <v>2</v>
-      </c>
-      <c r="O15" s="1">
-        <v>10</v>
-      </c>
-      <c r="P15">
-        <v>20</v>
-      </c>
-      <c r="Q15">
-        <v>100</v>
-      </c>
-      <c r="R15">
-        <v>45</v>
-      </c>
-      <c r="S15" t="s">
-        <v>29</v>
-      </c>
-      <c r="T15" t="s">
-        <v>29</v>
-      </c>
-      <c r="U15" t="s">
-        <v>45</v>
-      </c>
-      <c r="V15" t="s">
-        <v>55</v>
-      </c>
-      <c r="W15">
-        <v>3</v>
-      </c>
-      <c r="Y15" s="1"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>20014</v>
-      </c>
-      <c r="B16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16">
-        <v>7</v>
-      </c>
-      <c r="D16">
-        <v>8</v>
-      </c>
-      <c r="E16">
-        <v>200</v>
-      </c>
-      <c r="F16">
-        <v>10004</v>
-      </c>
-      <c r="G16">
-        <v>45</v>
-      </c>
-      <c r="H16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16" t="s">
-        <v>29</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>50</v>
-      </c>
-      <c r="M16">
-        <v>10003</v>
-      </c>
-      <c r="N16" s="1">
-        <v>20</v>
-      </c>
-      <c r="O16" s="1">
-        <v>15</v>
-      </c>
-      <c r="P16">
-        <v>25</v>
-      </c>
-      <c r="Q16">
-        <v>100</v>
-      </c>
-      <c r="R16">
-        <v>60</v>
-      </c>
-      <c r="S16" t="s">
-        <v>29</v>
-      </c>
-      <c r="T16" t="s">
-        <v>29</v>
-      </c>
-      <c r="U16" t="s">
-        <v>45</v>
-      </c>
-      <c r="V16" t="s">
-        <v>56</v>
-      </c>
-      <c r="W16">
-        <v>2</v>
-      </c>
-      <c r="Y16" s="1"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>20015</v>
-      </c>
-      <c r="B17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17">
-        <v>5</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="E17">
-        <v>100</v>
-      </c>
-      <c r="F17">
-        <v>10004</v>
-      </c>
-      <c r="G17">
-        <v>10</v>
-      </c>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17" t="s">
-        <v>29</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>50</v>
-      </c>
-      <c r="M17">
-        <v>10007</v>
-      </c>
-      <c r="N17" s="1">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>10</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>100</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17" t="s">
-        <v>29</v>
-      </c>
-      <c r="T17" t="s">
-        <v>29</v>
-      </c>
-      <c r="U17" t="s">
-        <v>45</v>
-      </c>
-      <c r="V17" t="s">
-        <v>40</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="1"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>20016</v>
-      </c>
-      <c r="B18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18">
-        <v>12</v>
-      </c>
-      <c r="D18">
-        <v>14</v>
-      </c>
-      <c r="E18">
-        <v>500</v>
-      </c>
-      <c r="F18">
-        <v>10004</v>
-      </c>
-      <c r="G18">
-        <v>80</v>
-      </c>
-      <c r="H18" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18" t="s">
-        <v>29</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>250</v>
-      </c>
-      <c r="M18" t="s">
-        <v>50</v>
-      </c>
-      <c r="N18" s="1">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>100</v>
-      </c>
-      <c r="R18">
-        <v>200</v>
-      </c>
-      <c r="S18" t="s">
-        <v>29</v>
-      </c>
-      <c r="T18" t="s">
-        <v>29</v>
-      </c>
-      <c r="U18" t="s">
-        <v>45</v>
-      </c>
-      <c r="V18" t="s">
-        <v>53</v>
-      </c>
-      <c r="W18">
-        <v>5</v>
-      </c>
-      <c r="Y18" s="1"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>20017</v>
-      </c>
-      <c r="B19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19">
-        <v>14</v>
-      </c>
-      <c r="D19">
-        <v>20</v>
-      </c>
-      <c r="E19">
-        <v>280</v>
-      </c>
-      <c r="F19">
-        <v>10004</v>
-      </c>
-      <c r="G19">
-        <v>50</v>
-      </c>
-      <c r="H19" t="s">
-        <v>29</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19" t="s">
-        <v>29</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>140</v>
-      </c>
-      <c r="M19">
-        <v>10005</v>
-      </c>
-      <c r="N19" s="1">
-        <v>48</v>
-      </c>
-      <c r="O19" s="1">
-        <v>20</v>
-      </c>
-      <c r="P19">
-        <v>30</v>
-      </c>
-      <c r="Q19">
-        <v>100</v>
-      </c>
-      <c r="R19">
-        <v>30</v>
-      </c>
-      <c r="S19" t="s">
-        <v>29</v>
-      </c>
-      <c r="T19" t="s">
-        <v>29</v>
-      </c>
-      <c r="U19" t="s">
-        <v>45</v>
-      </c>
-      <c r="V19" t="s">
-        <v>54</v>
-      </c>
-      <c r="W19">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="1"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>20018</v>
-      </c>
-      <c r="B20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20">
-        <v>4</v>
-      </c>
-      <c r="D20">
-        <v>6</v>
-      </c>
-      <c r="E20">
-        <v>400</v>
-      </c>
-      <c r="F20">
-        <v>10004</v>
-      </c>
-      <c r="G20">
-        <v>70</v>
-      </c>
-      <c r="H20" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20" t="s">
-        <v>29</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>200</v>
-      </c>
-      <c r="M20">
-        <v>10006</v>
-      </c>
-      <c r="N20" s="1">
-        <v>2</v>
-      </c>
-      <c r="O20" s="1">
-        <v>10</v>
-      </c>
-      <c r="P20">
-        <v>20</v>
-      </c>
-      <c r="Q20">
-        <v>100</v>
-      </c>
-      <c r="R20">
-        <v>45</v>
-      </c>
-      <c r="S20" t="s">
-        <v>29</v>
-      </c>
-      <c r="T20" t="s">
-        <v>29</v>
-      </c>
-      <c r="U20" t="s">
-        <v>45</v>
-      </c>
-      <c r="V20" t="s">
-        <v>55</v>
-      </c>
-      <c r="W20">
-        <v>3</v>
-      </c>
-      <c r="Y20" s="1"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>20019</v>
-      </c>
-      <c r="B21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21">
-        <v>7</v>
-      </c>
-      <c r="D21">
-        <v>8</v>
-      </c>
-      <c r="E21">
-        <v>200</v>
-      </c>
-      <c r="F21">
-        <v>10004</v>
-      </c>
-      <c r="G21">
-        <v>45</v>
-      </c>
-      <c r="H21" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21" t="s">
-        <v>29</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>50</v>
-      </c>
-      <c r="M21">
-        <v>10003</v>
-      </c>
-      <c r="N21" s="1">
-        <v>20</v>
-      </c>
-      <c r="O21" s="1">
-        <v>15</v>
-      </c>
-      <c r="P21">
-        <v>25</v>
-      </c>
-      <c r="Q21">
-        <v>100</v>
-      </c>
-      <c r="R21">
-        <v>60</v>
-      </c>
-      <c r="S21" t="s">
-        <v>29</v>
-      </c>
-      <c r="T21" t="s">
-        <v>29</v>
-      </c>
-      <c r="U21" t="s">
-        <v>45</v>
-      </c>
-      <c r="V21" t="s">
-        <v>56</v>
-      </c>
-      <c r="W21">
-        <v>2</v>
-      </c>
-      <c r="Y21" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bishe\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6C24A4-5D2B-4FC2-8CD9-A40745679476}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FF794A-C766-494C-8FCC-F3F57211FD7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="72">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -273,47 +273,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>建筑简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Introduction </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>城镇发展最基础的建筑、提供城镇发展运行所需的劳动力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>简易的交通道路，在一定程度上会减少各个生产建筑间的运输成本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用来储存生产资料与商品的设施</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>城镇收入的主要来源，城镇内生产的所有生产资料与商品都可以在市场上进行交易</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提供小麦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提供水稻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提供禽蛋肉类，玩家可以对其生产项目进行选择</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提供加工功能，有玩家选择可以加工的产品种类，选择后无法更改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提供原木，是城镇发展建设不可缺少的设施</t>
+    <t>民房Ⅱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集市Ⅱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>养殖场Ⅱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加工厂Ⅱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伐木场Ⅱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民房Ⅲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集市Ⅲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>养殖场Ⅲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加工厂Ⅲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伐木场Ⅲ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -643,11 +639,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB11"/>
+  <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y21" sqref="Y21"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -752,9 +748,6 @@
       <c r="W1" t="s">
         <v>41</v>
       </c>
-      <c r="X1" t="s">
-        <v>62</v>
-      </c>
       <c r="Y1" s="1"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
@@ -826,9 +819,6 @@
       </c>
       <c r="W2" t="s">
         <v>42</v>
-      </c>
-      <c r="X2" t="s">
-        <v>63</v>
       </c>
       <c r="Y2" s="1"/>
     </row>
@@ -902,9 +892,6 @@
       <c r="W3">
         <v>0</v>
       </c>
-      <c r="X3" t="s">
-        <v>64</v>
-      </c>
       <c r="Y3" s="1"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
@@ -977,9 +964,6 @@
       <c r="W4">
         <v>4</v>
       </c>
-      <c r="X4" t="s">
-        <v>65</v>
-      </c>
       <c r="Y4" s="1"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
@@ -1052,9 +1036,6 @@
       <c r="W5">
         <v>5</v>
       </c>
-      <c r="X5" t="s">
-        <v>66</v>
-      </c>
       <c r="Y5" s="1"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
@@ -1127,9 +1108,6 @@
       <c r="W6">
         <v>5</v>
       </c>
-      <c r="X6" t="s">
-        <v>67</v>
-      </c>
       <c r="Y6" s="1"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
@@ -1201,9 +1179,6 @@
       </c>
       <c r="W7">
         <v>1</v>
-      </c>
-      <c r="X7" t="s">
-        <v>68</v>
       </c>
       <c r="Y7" s="1"/>
       <c r="AB7" s="2"/>
@@ -1278,9 +1253,6 @@
       <c r="W8">
         <v>1</v>
       </c>
-      <c r="X8" t="s">
-        <v>69</v>
-      </c>
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
@@ -1353,9 +1325,6 @@
       <c r="W9">
         <v>1</v>
       </c>
-      <c r="X9" t="s">
-        <v>70</v>
-      </c>
       <c r="Y9" s="1"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
@@ -1428,9 +1397,6 @@
       <c r="W10">
         <v>3</v>
       </c>
-      <c r="X10" t="s">
-        <v>71</v>
-      </c>
       <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
@@ -1503,10 +1469,727 @@
       <c r="W11">
         <v>2</v>
       </c>
-      <c r="X11" t="s">
-        <v>72</v>
-      </c>
       <c r="Y11" s="1"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>20010</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>100</v>
+      </c>
+      <c r="F12">
+        <v>10004</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>50</v>
+      </c>
+      <c r="M12">
+        <v>10007</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>10</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>100</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12" t="s">
+        <v>29</v>
+      </c>
+      <c r="T12" t="s">
+        <v>29</v>
+      </c>
+      <c r="U12" t="s">
+        <v>45</v>
+      </c>
+      <c r="V12" t="s">
+        <v>40</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="1"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>20011</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>14</v>
+      </c>
+      <c r="E13">
+        <v>500</v>
+      </c>
+      <c r="F13">
+        <v>10004</v>
+      </c>
+      <c r="G13">
+        <v>80</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>250</v>
+      </c>
+      <c r="M13" t="s">
+        <v>50</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>100</v>
+      </c>
+      <c r="R13">
+        <v>200</v>
+      </c>
+      <c r="S13" t="s">
+        <v>29</v>
+      </c>
+      <c r="T13" t="s">
+        <v>29</v>
+      </c>
+      <c r="U13" t="s">
+        <v>45</v>
+      </c>
+      <c r="V13" t="s">
+        <v>53</v>
+      </c>
+      <c r="W13">
+        <v>5</v>
+      </c>
+      <c r="Y13" s="1"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>20012</v>
+      </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>280</v>
+      </c>
+      <c r="F14">
+        <v>10004</v>
+      </c>
+      <c r="G14">
+        <v>50</v>
+      </c>
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>140</v>
+      </c>
+      <c r="M14">
+        <v>10005</v>
+      </c>
+      <c r="N14" s="1">
+        <v>48</v>
+      </c>
+      <c r="O14" s="1">
+        <v>20</v>
+      </c>
+      <c r="P14">
+        <v>30</v>
+      </c>
+      <c r="Q14">
+        <v>100</v>
+      </c>
+      <c r="R14">
+        <v>30</v>
+      </c>
+      <c r="S14" t="s">
+        <v>29</v>
+      </c>
+      <c r="T14" t="s">
+        <v>29</v>
+      </c>
+      <c r="U14" t="s">
+        <v>45</v>
+      </c>
+      <c r="V14" t="s">
+        <v>54</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="1"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>20013</v>
+      </c>
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>400</v>
+      </c>
+      <c r="F15">
+        <v>10004</v>
+      </c>
+      <c r="G15">
+        <v>70</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>200</v>
+      </c>
+      <c r="M15">
+        <v>10006</v>
+      </c>
+      <c r="N15" s="1">
+        <v>2</v>
+      </c>
+      <c r="O15" s="1">
+        <v>10</v>
+      </c>
+      <c r="P15">
+        <v>20</v>
+      </c>
+      <c r="Q15">
+        <v>100</v>
+      </c>
+      <c r="R15">
+        <v>45</v>
+      </c>
+      <c r="S15" t="s">
+        <v>29</v>
+      </c>
+      <c r="T15" t="s">
+        <v>29</v>
+      </c>
+      <c r="U15" t="s">
+        <v>45</v>
+      </c>
+      <c r="V15" t="s">
+        <v>55</v>
+      </c>
+      <c r="W15">
+        <v>3</v>
+      </c>
+      <c r="Y15" s="1"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>20014</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <v>200</v>
+      </c>
+      <c r="F16">
+        <v>10004</v>
+      </c>
+      <c r="G16">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>50</v>
+      </c>
+      <c r="M16">
+        <v>10003</v>
+      </c>
+      <c r="N16" s="1">
+        <v>20</v>
+      </c>
+      <c r="O16" s="1">
+        <v>15</v>
+      </c>
+      <c r="P16">
+        <v>25</v>
+      </c>
+      <c r="Q16">
+        <v>100</v>
+      </c>
+      <c r="R16">
+        <v>60</v>
+      </c>
+      <c r="S16" t="s">
+        <v>29</v>
+      </c>
+      <c r="T16" t="s">
+        <v>29</v>
+      </c>
+      <c r="U16" t="s">
+        <v>45</v>
+      </c>
+      <c r="V16" t="s">
+        <v>56</v>
+      </c>
+      <c r="W16">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="1"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>20015</v>
+      </c>
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>100</v>
+      </c>
+      <c r="F17">
+        <v>10004</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="H17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>50</v>
+      </c>
+      <c r="M17">
+        <v>10007</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>10</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>100</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17" t="s">
+        <v>29</v>
+      </c>
+      <c r="T17" t="s">
+        <v>29</v>
+      </c>
+      <c r="U17" t="s">
+        <v>45</v>
+      </c>
+      <c r="V17" t="s">
+        <v>40</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="1"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>20016</v>
+      </c>
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>14</v>
+      </c>
+      <c r="E18">
+        <v>500</v>
+      </c>
+      <c r="F18">
+        <v>10004</v>
+      </c>
+      <c r="G18">
+        <v>80</v>
+      </c>
+      <c r="H18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>250</v>
+      </c>
+      <c r="M18" t="s">
+        <v>50</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>100</v>
+      </c>
+      <c r="R18">
+        <v>200</v>
+      </c>
+      <c r="S18" t="s">
+        <v>29</v>
+      </c>
+      <c r="T18" t="s">
+        <v>29</v>
+      </c>
+      <c r="U18" t="s">
+        <v>45</v>
+      </c>
+      <c r="V18" t="s">
+        <v>53</v>
+      </c>
+      <c r="W18">
+        <v>5</v>
+      </c>
+      <c r="Y18" s="1"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>20017</v>
+      </c>
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19">
+        <v>14</v>
+      </c>
+      <c r="D19">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>280</v>
+      </c>
+      <c r="F19">
+        <v>10004</v>
+      </c>
+      <c r="G19">
+        <v>50</v>
+      </c>
+      <c r="H19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>140</v>
+      </c>
+      <c r="M19">
+        <v>10005</v>
+      </c>
+      <c r="N19" s="1">
+        <v>48</v>
+      </c>
+      <c r="O19" s="1">
+        <v>20</v>
+      </c>
+      <c r="P19">
+        <v>30</v>
+      </c>
+      <c r="Q19">
+        <v>100</v>
+      </c>
+      <c r="R19">
+        <v>30</v>
+      </c>
+      <c r="S19" t="s">
+        <v>29</v>
+      </c>
+      <c r="T19" t="s">
+        <v>29</v>
+      </c>
+      <c r="U19" t="s">
+        <v>45</v>
+      </c>
+      <c r="V19" t="s">
+        <v>54</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="1"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>20018</v>
+      </c>
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <v>400</v>
+      </c>
+      <c r="F20">
+        <v>10004</v>
+      </c>
+      <c r="G20">
+        <v>70</v>
+      </c>
+      <c r="H20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>200</v>
+      </c>
+      <c r="M20">
+        <v>10006</v>
+      </c>
+      <c r="N20" s="1">
+        <v>2</v>
+      </c>
+      <c r="O20" s="1">
+        <v>10</v>
+      </c>
+      <c r="P20">
+        <v>20</v>
+      </c>
+      <c r="Q20">
+        <v>100</v>
+      </c>
+      <c r="R20">
+        <v>45</v>
+      </c>
+      <c r="S20" t="s">
+        <v>29</v>
+      </c>
+      <c r="T20" t="s">
+        <v>29</v>
+      </c>
+      <c r="U20" t="s">
+        <v>45</v>
+      </c>
+      <c r="V20" t="s">
+        <v>55</v>
+      </c>
+      <c r="W20">
+        <v>3</v>
+      </c>
+      <c r="Y20" s="1"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20019</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>200</v>
+      </c>
+      <c r="F21">
+        <v>10004</v>
+      </c>
+      <c r="G21">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>29</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>50</v>
+      </c>
+      <c r="M21">
+        <v>10003</v>
+      </c>
+      <c r="N21" s="1">
+        <v>20</v>
+      </c>
+      <c r="O21" s="1">
+        <v>15</v>
+      </c>
+      <c r="P21">
+        <v>25</v>
+      </c>
+      <c r="Q21">
+        <v>100</v>
+      </c>
+      <c r="R21">
+        <v>60</v>
+      </c>
+      <c r="S21" t="s">
+        <v>29</v>
+      </c>
+      <c r="T21" t="s">
+        <v>29</v>
+      </c>
+      <c r="U21" t="s">
+        <v>45</v>
+      </c>
+      <c r="V21" t="s">
+        <v>56</v>
+      </c>
+      <c r="W21">
+        <v>2</v>
+      </c>
+      <c r="Y21" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55A66A5-5B08-4A4F-BB7F-78310CE1439E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5708588-1F7C-487E-BBFC-F65E3CE64756}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="3900" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -207,9 +207,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>L1_Northhouse001</t>
-  </si>
-  <si>
     <t>建造页签种类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -270,6 +267,10 @@
   </si>
   <si>
     <t>L1_Fieldedge001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2_Northhouse011</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -603,7 +604,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" topLeftCell="T1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W9" sqref="W9"/>
+      <selection pane="topRight" activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -679,10 +680,10 @@
         <v>4</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s">
         <v>52</v>
-      </c>
-      <c r="O1" t="s">
-        <v>53</v>
       </c>
       <c r="P1" t="s">
         <v>8</v>
@@ -706,7 +707,7 @@
         <v>42</v>
       </c>
       <c r="W1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y1" s="1"/>
     </row>
@@ -751,10 +752,10 @@
         <v>5</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s">
         <v>9</v>
@@ -778,7 +779,7 @@
         <v>44</v>
       </c>
       <c r="W2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y2" s="1"/>
     </row>
@@ -844,10 +845,10 @@
         <v>34</v>
       </c>
       <c r="U3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V3" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -892,7 +893,7 @@
         <v>15</v>
       </c>
       <c r="M4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N4" s="1">
         <v>0</v>
@@ -916,10 +917,10 @@
         <v>34</v>
       </c>
       <c r="U4" t="s">
+        <v>49</v>
+      </c>
+      <c r="V4" t="s">
         <v>50</v>
-      </c>
-      <c r="V4" t="s">
-        <v>51</v>
       </c>
       <c r="W4">
         <v>4</v>
@@ -964,7 +965,7 @@
         <v>150</v>
       </c>
       <c r="M5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N5" s="1">
         <v>0</v>
@@ -988,10 +989,10 @@
         <v>34</v>
       </c>
       <c r="U5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W5">
         <v>5</v>
@@ -1036,7 +1037,7 @@
         <v>250</v>
       </c>
       <c r="M6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N6" s="1">
         <v>0</v>
@@ -1060,10 +1061,10 @@
         <v>34</v>
       </c>
       <c r="U6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W6">
         <v>5</v>
@@ -1132,10 +1133,10 @@
         <v>34</v>
       </c>
       <c r="U7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W7">
         <v>1</v>
@@ -1205,10 +1206,10 @@
         <v>34</v>
       </c>
       <c r="U8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W8">
         <v>1</v>
@@ -1277,10 +1278,10 @@
         <v>34</v>
       </c>
       <c r="U9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W9">
         <v>1</v>
@@ -1349,10 +1350,10 @@
         <v>34</v>
       </c>
       <c r="U10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W10">
         <v>3</v>
@@ -1421,10 +1422,10 @@
         <v>34</v>
       </c>
       <c r="U11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W11">
         <v>2</v>

--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5708588-1F7C-487E-BBFC-F65E3CE64756}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC973F43-8616-4701-8AF3-38BE95EAD6B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -604,7 +604,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" topLeftCell="T1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W4" sqref="W4"/>
+      <selection pane="topRight" activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -923,7 +923,7 @@
         <v>50</v>
       </c>
       <c r="W4">
-        <v>4</v>
+        <v>101</v>
       </c>
       <c r="Y4" s="1"/>
     </row>
@@ -995,7 +995,7 @@
         <v>47</v>
       </c>
       <c r="W5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y5" s="1"/>
     </row>
@@ -1067,7 +1067,7 @@
         <v>56</v>
       </c>
       <c r="W6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y6" s="1"/>
     </row>

--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC973F43-8616-4701-8AF3-38BE95EAD6B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6744D9-14FE-43F9-87A1-62BFEB4D0D16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="495" yWindow="2010" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="61">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,42 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>民房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>简易仓库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>集市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>麦田</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>稻田</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>养殖场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加工厂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伐木场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>拆除返还金钱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -271,6 +235,38 @@
   </si>
   <si>
     <t>L2_Northhouse011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MudRoad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warehouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Market</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Farmland</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LivestockFarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Factory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoggingCamps</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -314,12 +310,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -600,17 +599,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB11"/>
+  <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="T1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X10" sqref="X10"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.75" customWidth="1"/>
-    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="16.125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="16.125" customWidth="1"/>
@@ -641,7 +640,7 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -656,40 +655,40 @@
         <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M1" t="s">
         <v>4</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="O1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="P1" t="s">
         <v>8</v>
       </c>
       <c r="Q1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="R1" t="s">
         <v>19</v>
@@ -701,13 +700,13 @@
         <v>20</v>
       </c>
       <c r="U1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="V1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="W1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="Y1" s="1"/>
     </row>
@@ -752,16 +751,16 @@
         <v>5</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="O2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="P2" t="s">
         <v>9</v>
       </c>
       <c r="Q2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="R2" t="s">
         <v>11</v>
@@ -773,13 +772,13 @@
         <v>7</v>
       </c>
       <c r="U2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="V2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="W2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="Y2" s="1"/>
     </row>
@@ -788,7 +787,7 @@
         <v>20001</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -806,13 +805,13 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -839,16 +838,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="T3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="U3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="V3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -860,7 +859,7 @@
         <v>20002</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -878,13 +877,13 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -893,7 +892,7 @@
         <v>15</v>
       </c>
       <c r="M4" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="N4" s="1">
         <v>0</v>
@@ -911,16 +910,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="T4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="U4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="V4" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="W4">
         <v>101</v>
@@ -932,7 +931,7 @@
         <v>20003</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -950,13 +949,13 @@
         <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -965,7 +964,7 @@
         <v>150</v>
       </c>
       <c r="M5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="N5" s="1">
         <v>0</v>
@@ -983,16 +982,16 @@
         <v>50</v>
       </c>
       <c r="S5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="T5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="U5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="V5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="W5">
         <v>4</v>
@@ -1004,7 +1003,7 @@
         <v>20004</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -1022,13 +1021,13 @@
         <v>80</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1037,7 +1036,7 @@
         <v>250</v>
       </c>
       <c r="M6" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="N6" s="1">
         <v>0</v>
@@ -1055,16 +1054,16 @@
         <v>200</v>
       </c>
       <c r="S6" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="T6" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="U6" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="V6" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="W6">
         <v>4</v>
@@ -1075,8 +1074,8 @@
       <c r="A7">
         <v>20005</v>
       </c>
-      <c r="B7" t="s">
-        <v>25</v>
+      <c r="B7" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1094,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1127,16 +1126,16 @@
         <v>5</v>
       </c>
       <c r="S7" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="T7" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="U7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="V7" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="W7">
         <v>1</v>
@@ -1149,67 +1148,67 @@
         <v>20006</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>125</v>
+        <v>280</v>
       </c>
       <c r="F8">
         <v>10004</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="M8">
-        <v>10002</v>
+        <v>10005</v>
       </c>
       <c r="N8" s="1">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="O8" s="1">
-        <v>1.2</v>
+        <v>20</v>
       </c>
       <c r="P8">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="Q8">
         <v>100</v>
       </c>
       <c r="R8">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="S8" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="T8" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="U8" t="s">
+        <v>39</v>
+      </c>
+      <c r="V8" t="s">
         <v>48</v>
-      </c>
-      <c r="V8" t="s">
-        <v>60</v>
       </c>
       <c r="W8">
         <v>1</v>
@@ -1221,70 +1220,70 @@
         <v>20007</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E9">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="F9">
         <v>10004</v>
       </c>
       <c r="G9">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="M9">
-        <v>10005</v>
+        <v>10006</v>
       </c>
       <c r="N9" s="1">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="O9" s="1">
+        <v>10</v>
+      </c>
+      <c r="P9">
         <v>20</v>
-      </c>
-      <c r="P9">
-        <v>30</v>
       </c>
       <c r="Q9">
         <v>100</v>
       </c>
       <c r="R9">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="S9" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="T9" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="U9" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="V9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="W9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y9" s="1"/>
     </row>
@@ -1293,144 +1292,72 @@
         <v>20008</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F10">
         <v>10004</v>
       </c>
       <c r="G10">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="M10">
-        <v>10006</v>
+        <v>10003</v>
       </c>
       <c r="N10" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="O10" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="P10">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Q10">
         <v>100</v>
       </c>
       <c r="R10">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="S10" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="T10" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="U10" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="V10" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="W10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y10" s="1"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>20009</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11">
-        <v>7</v>
-      </c>
-      <c r="D11">
-        <v>8</v>
-      </c>
-      <c r="E11">
-        <v>200</v>
-      </c>
-      <c r="F11">
-        <v>10004</v>
-      </c>
-      <c r="G11">
-        <v>45</v>
-      </c>
-      <c r="H11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>50</v>
-      </c>
-      <c r="M11">
-        <v>10003</v>
-      </c>
-      <c r="N11" s="1">
-        <v>20</v>
-      </c>
-      <c r="O11" s="1">
-        <v>15</v>
-      </c>
-      <c r="P11">
-        <v>25</v>
-      </c>
-      <c r="Q11">
-        <v>100</v>
-      </c>
-      <c r="R11">
-        <v>60</v>
-      </c>
-      <c r="S11" t="s">
-        <v>34</v>
-      </c>
-      <c r="T11" t="s">
-        <v>34</v>
-      </c>
-      <c r="U11" t="s">
-        <v>48</v>
-      </c>
-      <c r="V11" t="s">
-        <v>59</v>
-      </c>
-      <c r="W11">
-        <v>2</v>
-      </c>
-      <c r="Y11" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6744D9-14FE-43F9-87A1-62BFEB4D0D16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20357D49-7979-4419-A3D8-B9B51B47CB04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="495" yWindow="2010" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="68">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ItemID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>前置建筑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -199,10 +195,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>产品数量（吨/单位面积）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Null</t>
   </si>
   <si>
@@ -267,6 +259,42 @@
   </si>
   <si>
     <t>LoggingCamps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Introduce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简介简介简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产消耗物品ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OutputItemID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InputItemID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗量/周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InputNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品数量（吨/周）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -602,8 +630,8 @@
   <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
+      <pane xSplit="2" topLeftCell="W1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -640,75 +668,83 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" t="s">
-        <v>29</v>
-      </c>
       <c r="L1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M1" t="s">
         <v>4</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O1" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="P1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="S1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T1" t="s">
-        <v>20</v>
-      </c>
       <c r="U1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V1" t="s">
         <v>32</v>
       </c>
-      <c r="V1" t="s">
-        <v>33</v>
-      </c>
       <c r="W1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y1" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="X1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -718,76 +754,84 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" t="s">
         <v>10</v>
       </c>
-      <c r="M2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" t="s">
-        <v>11</v>
-      </c>
       <c r="S2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2" t="s">
         <v>34</v>
       </c>
-      <c r="V2" t="s">
-        <v>35</v>
-      </c>
       <c r="W2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y2" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>20001</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -805,13 +849,13 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -838,28 +882,36 @@
         <v>0</v>
       </c>
       <c r="S3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
-      <c r="Y3" s="1"/>
+      <c r="X3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3">
+        <v>10001</v>
+      </c>
+      <c r="Z3">
+        <v>100</v>
+      </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>20002</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -877,13 +929,13 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -892,7 +944,7 @@
         <v>15</v>
       </c>
       <c r="M4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N4" s="1">
         <v>0</v>
@@ -910,28 +962,36 @@
         <v>0</v>
       </c>
       <c r="S4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U4" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" t="s">
         <v>40</v>
-      </c>
-      <c r="V4" t="s">
-        <v>41</v>
       </c>
       <c r="W4">
         <v>101</v>
       </c>
-      <c r="Y4" s="1"/>
+      <c r="X4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y4">
+        <v>10001</v>
+      </c>
+      <c r="Z4">
+        <v>100</v>
+      </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>20003</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -949,13 +1009,13 @@
         <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -964,7 +1024,7 @@
         <v>150</v>
       </c>
       <c r="M5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N5" s="1">
         <v>0</v>
@@ -982,28 +1042,36 @@
         <v>50</v>
       </c>
       <c r="S5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W5">
         <v>4</v>
       </c>
-      <c r="Y5" s="1"/>
+      <c r="X5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y5">
+        <v>10001</v>
+      </c>
+      <c r="Z5">
+        <v>100</v>
+      </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>20004</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -1021,13 +1089,13 @@
         <v>80</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1036,7 +1104,7 @@
         <v>250</v>
       </c>
       <c r="M6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N6" s="1">
         <v>0</v>
@@ -1054,28 +1122,36 @@
         <v>200</v>
       </c>
       <c r="S6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="W6">
         <v>4</v>
       </c>
-      <c r="Y6" s="1"/>
+      <c r="X6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y6">
+        <v>10001</v>
+      </c>
+      <c r="Z6">
+        <v>100</v>
+      </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>20005</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1093,13 +1169,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1126,21 +1202,29 @@
         <v>5</v>
       </c>
       <c r="S7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="W7">
         <v>1</v>
       </c>
-      <c r="Y7" s="1"/>
+      <c r="X7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y7">
+        <v>10001</v>
+      </c>
+      <c r="Z7">
+        <v>100</v>
+      </c>
       <c r="AB7" s="2"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
@@ -1148,7 +1232,7 @@
         <v>20006</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C8">
         <v>14</v>
@@ -1166,13 +1250,13 @@
         <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1199,28 +1283,36 @@
         <v>30</v>
       </c>
       <c r="S8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="W8">
         <v>1</v>
       </c>
-      <c r="Y8" s="1"/>
+      <c r="X8" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y8">
+        <v>10001</v>
+      </c>
+      <c r="Z8">
+        <v>100</v>
+      </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>20007</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -1238,13 +1330,13 @@
         <v>70</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1271,28 +1363,36 @@
         <v>45</v>
       </c>
       <c r="S9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="W9">
         <v>3</v>
       </c>
-      <c r="Y9" s="1"/>
+      <c r="X9" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y9">
+        <v>10001</v>
+      </c>
+      <c r="Z9">
+        <v>100</v>
+      </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>20008</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C10">
         <v>7</v>
@@ -1310,13 +1410,13 @@
         <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1343,21 +1443,29 @@
         <v>60</v>
       </c>
       <c r="S10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="W10">
         <v>2</v>
       </c>
-      <c r="Y10" s="1"/>
+      <c r="X10" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y10">
+        <v>10001</v>
+      </c>
+      <c r="Z10">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20357D49-7979-4419-A3D8-B9B51B47CB04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203F8900-FC53-4ABD-BEF2-F6A88AF60483}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="69">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -295,6 +295,10 @@
   </si>
   <si>
     <t>产品数量（吨/周）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是一个土房，可以提供劳动力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -630,8 +634,8 @@
   <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA7" sqref="AA7"/>
+      <pane xSplit="2" topLeftCell="X1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -659,8 +663,7 @@
     <col min="21" max="21" width="25.625" customWidth="1"/>
     <col min="22" max="22" width="18" customWidth="1"/>
     <col min="23" max="23" width="23.125" customWidth="1"/>
-    <col min="24" max="24" width="18.125" customWidth="1"/>
-    <col min="25" max="25" width="24.25" customWidth="1"/>
+    <col min="24" max="25" width="28.875" customWidth="1"/>
     <col min="26" max="26" width="15.25" customWidth="1"/>
     <col min="27" max="27" width="24.625" customWidth="1"/>
     <col min="28" max="28" width="29.625" customWidth="1"/>
@@ -843,7 +846,7 @@
         <v>100</v>
       </c>
       <c r="F3">
-        <v>10004</v>
+        <v>12003</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -864,7 +867,7 @@
         <v>50</v>
       </c>
       <c r="M3">
-        <v>10007</v>
+        <v>10000</v>
       </c>
       <c r="N3" s="1">
         <v>0</v>
@@ -897,13 +900,13 @@
         <v>0</v>
       </c>
       <c r="X3" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="Y3">
-        <v>10001</v>
+        <v>11002</v>
       </c>
       <c r="Z3">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
@@ -923,7 +926,7 @@
         <v>30</v>
       </c>
       <c r="F4">
-        <v>10004</v>
+        <v>12003</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -980,7 +983,7 @@
         <v>61</v>
       </c>
       <c r="Y4">
-        <v>10001</v>
+        <v>11000</v>
       </c>
       <c r="Z4">
         <v>100</v>
@@ -1003,7 +1006,7 @@
         <v>300</v>
       </c>
       <c r="F5">
-        <v>10004</v>
+        <v>12003</v>
       </c>
       <c r="G5">
         <v>30</v>
@@ -1060,7 +1063,7 @@
         <v>61</v>
       </c>
       <c r="Y5">
-        <v>10001</v>
+        <v>11000</v>
       </c>
       <c r="Z5">
         <v>100</v>
@@ -1083,7 +1086,7 @@
         <v>500</v>
       </c>
       <c r="F6">
-        <v>10004</v>
+        <v>12003</v>
       </c>
       <c r="G6">
         <v>80</v>
@@ -1140,7 +1143,7 @@
         <v>61</v>
       </c>
       <c r="Y6">
-        <v>10001</v>
+        <v>11000</v>
       </c>
       <c r="Z6">
         <v>100</v>
@@ -1163,7 +1166,7 @@
         <v>120</v>
       </c>
       <c r="F7">
-        <v>10004</v>
+        <v>12003</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1220,7 +1223,7 @@
         <v>61</v>
       </c>
       <c r="Y7">
-        <v>10001</v>
+        <v>11000</v>
       </c>
       <c r="Z7">
         <v>100</v>
@@ -1244,7 +1247,7 @@
         <v>280</v>
       </c>
       <c r="F8">
-        <v>10004</v>
+        <v>12003</v>
       </c>
       <c r="G8">
         <v>50</v>
@@ -1301,7 +1304,7 @@
         <v>61</v>
       </c>
       <c r="Y8">
-        <v>10001</v>
+        <v>11000</v>
       </c>
       <c r="Z8">
         <v>100</v>
@@ -1324,7 +1327,7 @@
         <v>400</v>
       </c>
       <c r="F9">
-        <v>10004</v>
+        <v>12003</v>
       </c>
       <c r="G9">
         <v>70</v>
@@ -1381,7 +1384,7 @@
         <v>61</v>
       </c>
       <c r="Y9">
-        <v>10001</v>
+        <v>11000</v>
       </c>
       <c r="Z9">
         <v>100</v>
@@ -1404,7 +1407,7 @@
         <v>200</v>
       </c>
       <c r="F10">
-        <v>10004</v>
+        <v>12003</v>
       </c>
       <c r="G10">
         <v>45</v>
@@ -1461,7 +1464,7 @@
         <v>61</v>
       </c>
       <c r="Y10">
-        <v>10001</v>
+        <v>11000</v>
       </c>
       <c r="Z10">
         <v>100</v>

--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203F8900-FC53-4ABD-BEF2-F6A88AF60483}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6B89C3-8794-4019-8652-8EE6A03C7073}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -634,8 +634,8 @@
   <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="X1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB5" sqref="AB5"/>
+      <pane xSplit="2" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -983,7 +983,7 @@
         <v>61</v>
       </c>
       <c r="Y4">
-        <v>11000</v>
+        <v>99999</v>
       </c>
       <c r="Z4">
         <v>100</v>
@@ -1063,7 +1063,7 @@
         <v>61</v>
       </c>
       <c r="Y5">
-        <v>11000</v>
+        <v>99999</v>
       </c>
       <c r="Z5">
         <v>100</v>
@@ -1143,7 +1143,7 @@
         <v>61</v>
       </c>
       <c r="Y6">
-        <v>11000</v>
+        <v>99999</v>
       </c>
       <c r="Z6">
         <v>100</v>
@@ -1163,13 +1163,13 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="F7">
         <v>12003</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H7" t="s">
         <v>24</v>
@@ -1187,13 +1187,13 @@
         <v>60</v>
       </c>
       <c r="M7">
-        <v>10001</v>
+        <v>11002</v>
       </c>
       <c r="N7" s="1">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P7">
         <v>5</v>
@@ -1223,7 +1223,7 @@
         <v>61</v>
       </c>
       <c r="Y7">
-        <v>11000</v>
+        <v>99999</v>
       </c>
       <c r="Z7">
         <v>100</v>
@@ -1304,7 +1304,7 @@
         <v>61</v>
       </c>
       <c r="Y8">
-        <v>11000</v>
+        <v>99999</v>
       </c>
       <c r="Z8">
         <v>100</v>
@@ -1384,7 +1384,7 @@
         <v>61</v>
       </c>
       <c r="Y9">
-        <v>11000</v>
+        <v>99999</v>
       </c>
       <c r="Z9">
         <v>100</v>
@@ -1464,7 +1464,7 @@
         <v>61</v>
       </c>
       <c r="Y10">
-        <v>11000</v>
+        <v>99999</v>
       </c>
       <c r="Z10">
         <v>100</v>

--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6B89C3-8794-4019-8652-8EE6A03C7073}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FB2C3E-7D6E-4262-8E31-78C1343BA404}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -634,8 +634,8 @@
   <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P7" sqref="P7"/>
+      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1268,10 +1268,10 @@
         <v>140</v>
       </c>
       <c r="M8">
-        <v>10005</v>
+        <v>11005</v>
       </c>
       <c r="N8" s="1">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="O8" s="1">
         <v>20</v>
@@ -1348,7 +1348,7 @@
         <v>200</v>
       </c>
       <c r="M9">
-        <v>10006</v>
+        <v>12006</v>
       </c>
       <c r="N9" s="1">
         <v>2</v>
@@ -1428,10 +1428,10 @@
         <v>50</v>
       </c>
       <c r="M10">
-        <v>10003</v>
+        <v>12003</v>
       </c>
       <c r="N10" s="1">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="O10" s="1">
         <v>15</v>

--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3D36A9-C8B9-47C1-95DA-08AC54A28161}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AB28FA-E374-4FDC-985C-716CAB7E05C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="6630" windowWidth="28740" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -664,7 +664,7 @@
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\毕业设计\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AB28FA-E374-4FDC-985C-716CAB7E05C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB93D2C-DF68-4438-9103-37E89D3A5748}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17805" yWindow="3075" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="98">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,10 +147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>简介简介简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>L1_Storehouse001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,157 +171,246 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20</t>
+    <t>12003,12009</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>30,35</t>
+  </si>
+  <si>
+    <t>12003</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Formula</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CostPerWeek</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品ID0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑名称1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文名称2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护费用/周3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产可用配方4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占用人口(负表示产出)5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑存储资源上限6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑影响范围7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置建筑8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后置建筑9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占地面积（长）10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占地面积11（宽）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造花费金钱12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造花费物品13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造花费数量14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在ab包名15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ab包内名称16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造页签种类17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50006,50007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50001,50002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50003,50004,50005,50008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>15</t>
-  </si>
-  <si>
-    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10</t>
-  </si>
-  <si>
-    <t>12003,12009</t>
-  </si>
-  <si>
-    <t>10,5</t>
-  </si>
-  <si>
-    <t>1,1</t>
-  </si>
-  <si>
-    <t>30,35</t>
-  </si>
-  <si>
-    <t>80,60</t>
-  </si>
-  <si>
-    <t>12003</t>
-  </si>
-  <si>
-    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>50,30</t>
-  </si>
-  <si>
-    <t>70,80</t>
-  </si>
-  <si>
-    <t>45,20</t>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Formula</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CostPerWeek</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物品ID0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建筑名称1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文名称2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>维护费用/周3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产可用配方4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>占用人口(负表示产出)5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建筑存储资源上限6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建筑影响范围7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前置建筑8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后置建筑9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>占地面积（长）10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>占地面积11（宽）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建造花费金钱12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建造花费物品13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建造花费数量14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所在ab包名15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ab包内名称16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建造页签种类17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50006,50007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50001,50002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50003,50004,50005,50008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最基础的公路，能提供基本的运输条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库，能够存储目前已知的所有资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家能够通过市场来进行贸易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粮食作物最主要的产出单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉类食品原料的基础产出单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能够进行原料加工，提升产品附加值的关键建筑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取木料的最主要的建筑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农田</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>养殖场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加工厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伐木场</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -664,7 +749,8 @@
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -688,61 +774,61 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -756,10 +842,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>16</v>
@@ -811,12 +897,14 @@
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="D3" s="3">
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F3" s="3">
         <v>-10</v>
@@ -840,13 +928,13 @@
         <v>3</v>
       </c>
       <c r="M3" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>25</v>
@@ -868,12 +956,14 @@
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="D4" s="3">
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
@@ -897,13 +987,13 @@
         <v>3</v>
       </c>
       <c r="M4" s="1">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>28</v>
@@ -915,7 +1005,7 @@
         <v>101</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
@@ -925,15 +1015,17 @@
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="D5" s="3" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="G5" s="1">
         <v>100</v>
@@ -954,25 +1046,25 @@
         <v>11</v>
       </c>
       <c r="M5" s="1">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R5" s="1">
         <v>4</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
@@ -982,15 +1074,17 @@
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="D6" s="3" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="G6" s="1">
         <v>100</v>
@@ -1011,25 +1105,25 @@
         <v>14</v>
       </c>
       <c r="M6" s="1">
-        <v>500</v>
+        <v>280</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R6" s="1">
         <v>4</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
@@ -1039,15 +1133,17 @@
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="D7" s="3" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="3">
-        <v>5</v>
+        <v>63</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="G7" s="1">
         <v>100</v>
@@ -1068,25 +1164,25 @@
         <v>3</v>
       </c>
       <c r="M7" s="1">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R7" s="1">
         <v>1</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
@@ -1096,15 +1192,17 @@
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="D8" s="3" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="3">
-        <v>30</v>
+        <v>64</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="G8" s="1">
         <v>100</v>
@@ -1125,25 +1223,25 @@
         <v>20</v>
       </c>
       <c r="M8" s="1">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R8" s="1">
         <v>1</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
@@ -1153,15 +1251,17 @@
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="D9" s="3" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="3">
-        <v>20</v>
+        <v>65</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="G9" s="1">
         <v>100</v>
@@ -1182,25 +1282,25 @@
         <v>6</v>
       </c>
       <c r="M9" s="1">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R9" s="1">
         <v>3</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
@@ -1210,15 +1310,17 @@
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="D10" s="3" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" s="3">
-        <v>25</v>
+        <v>66</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="G10" s="1">
         <v>100</v>
@@ -1239,25 +1341,25 @@
         <v>8</v>
       </c>
       <c r="M10" s="1">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R10" s="1">
         <v>2</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\毕业设计\BiShe\Assets\Resources\Data\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB93D2C-DF68-4438-9103-37E89D3A5748}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA58F6A-27DE-4816-8501-35C84BAAB6EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17805" yWindow="3075" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -749,8 +749,8 @@
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C11" sqref="C11"/>
+      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1002,7 +1002,7 @@
         <v>29</v>
       </c>
       <c r="R4" s="1">
-        <v>101</v>
+        <v>5</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>83</v>

--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA58F6A-27DE-4816-8501-35C84BAAB6EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B63BB36-419E-4E7C-A721-2E3E5D91FB43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="98">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,10 +131,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>L2_Northhouse011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>这是一个土房，可以提供劳动力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -411,6 +407,10 @@
   </si>
   <si>
     <t>伐木场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plain_Building_Residential_L1_01_Preb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -750,7 +750,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S5" sqref="S5"/>
+      <selection pane="topRight" activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -768,67 +768,68 @@
     <col min="14" max="14" width="15.375" style="4" customWidth="1"/>
     <col min="15" max="15" width="21.375" style="4" customWidth="1"/>
     <col min="16" max="16" width="15" customWidth="1"/>
-    <col min="17" max="18" width="17.625" customWidth="1"/>
+    <col min="17" max="17" width="33.875" customWidth="1"/>
+    <col min="18" max="18" width="17.625" customWidth="1"/>
     <col min="19" max="19" width="27.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -842,10 +843,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>16</v>
@@ -898,13 +899,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F3" s="3">
         <v>-10</v>
@@ -931,22 +932,22 @@
         <v>90</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>25</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="R3" s="1">
         <v>0</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -957,13 +958,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
@@ -990,22 +991,22 @@
         <v>5</v>
       </c>
       <c r="N4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="P4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="R4" s="1">
         <v>5</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
@@ -1016,16 +1017,16 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G5" s="1">
         <v>100</v>
@@ -1049,22 +1050,22 @@
         <v>150</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R5" s="1">
         <v>4</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
@@ -1075,16 +1076,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G6" s="1">
         <v>100</v>
@@ -1108,22 +1109,22 @@
         <v>280</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R6" s="1">
         <v>4</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
@@ -1134,16 +1135,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G7" s="1">
         <v>100</v>
@@ -1167,22 +1168,22 @@
         <v>15</v>
       </c>
       <c r="N7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R7" s="1">
         <v>1</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
@@ -1193,16 +1194,16 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G8" s="1">
         <v>100</v>
@@ -1226,22 +1227,22 @@
         <v>180</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R8" s="1">
         <v>1</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
@@ -1252,16 +1253,16 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="G9" s="1">
         <v>100</v>
@@ -1285,22 +1286,22 @@
         <v>200</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R9" s="1">
         <v>3</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
@@ -1311,16 +1312,16 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G10" s="1">
         <v>100</v>
@@ -1344,22 +1345,22 @@
         <v>160</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R10" s="1">
         <v>2</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\毕业设计\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B63BB36-419E-4E7C-A721-2E3E5D91FB43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A0AB3D-6DC4-47B7-950A-42E1F5E2849F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7155" yWindow="2910" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="121">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,14 +143,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>L1_Storehouse001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L1_Market001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>L1_Fieldedge001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -159,14 +151,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>L1_Factory001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L1_Sawmill001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12003,12009</t>
   </si>
   <si>
@@ -411,6 +395,104 @@
   </si>
   <si>
     <t>Plain_Building_Residential_L1_01_Preb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HutⅡ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土房二级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plain_Building_Residential_L1_02_Preb</t>
+  </si>
+  <si>
+    <t>FactoryⅡ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FactoryⅢ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加工厂二级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加工厂三级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Universal_Building_Factory_L2_01_Preb</t>
+  </si>
+  <si>
+    <t>Universal_Building_Factory_L3_01_Preb</t>
+  </si>
+  <si>
+    <t>MarketⅡ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MarketⅢ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场二级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场三级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Universal_Building_Market_L2_01_Preb</t>
+  </si>
+  <si>
+    <t>Universal_Building_Market_L3_01_Preb</t>
+  </si>
+  <si>
+    <t>Universal_Building_Market_L1_01_Preb</t>
+  </si>
+  <si>
+    <t>Universal_Building_Sawmill_L1_01_Preb</t>
+  </si>
+  <si>
+    <t>Universal_Building_Sawmill_L2_01_Preb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Universal_Building_Sawmill_L3_01_Preb</t>
+  </si>
+  <si>
+    <t>Universal_Building_Factory_L1_01_Preb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Universal_Building_Warehouse_L1_01_Preb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Universal_Building_Warehouse_L2_01_Preb</t>
+  </si>
+  <si>
+    <t>Universal_Building_Warehouse_L3_01_Preb</t>
+  </si>
+  <si>
+    <t>伐木场二级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伐木场三级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库二级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库三级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -746,11 +828,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q12" sqref="Q12"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -763,7 +845,7 @@
     <col min="7" max="7" width="23.25" customWidth="1"/>
     <col min="8" max="8" width="18.375" customWidth="1"/>
     <col min="11" max="11" width="17.875" customWidth="1"/>
-    <col min="12" max="12" width="12.375" customWidth="1"/>
+    <col min="12" max="12" width="15.75" customWidth="1"/>
     <col min="13" max="13" width="14.75" customWidth="1"/>
     <col min="14" max="14" width="15.375" style="4" customWidth="1"/>
     <col min="15" max="15" width="21.375" style="4" customWidth="1"/>
@@ -775,61 +857,61 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="R1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="S1" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -843,10 +925,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>16</v>
@@ -899,13 +981,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F3" s="3">
         <v>-10</v>
@@ -932,16 +1014,16 @@
         <v>90</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>25</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="R3" s="1">
         <v>0</v>
@@ -958,13 +1040,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
@@ -991,10 +1073,10 @@
         <v>5</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>27</v>
@@ -1006,7 +1088,7 @@
         <v>5</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
@@ -1017,16 +1099,16 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G5" s="1">
         <v>100</v>
@@ -1050,22 +1132,22 @@
         <v>150</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="R5" s="1">
         <v>4</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
@@ -1076,16 +1158,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G6" s="1">
         <v>100</v>
@@ -1109,22 +1191,22 @@
         <v>280</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="R6" s="1">
         <v>4</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
@@ -1135,16 +1217,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G7" s="1">
         <v>100</v>
@@ -1168,22 +1250,22 @@
         <v>15</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="R7" s="1">
         <v>1</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
@@ -1194,16 +1276,16 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="G8" s="1">
         <v>100</v>
@@ -1227,22 +1309,22 @@
         <v>180</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="R8" s="1">
         <v>1</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
@@ -1253,16 +1335,16 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="G9" s="1">
         <v>100</v>
@@ -1286,22 +1368,22 @@
         <v>200</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="R9" s="1">
         <v>3</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
@@ -1312,16 +1394,16 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="G10" s="1">
         <v>100</v>
@@ -1345,22 +1427,553 @@
         <v>160</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="R10" s="1">
         <v>2</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>20009</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="3">
+        <v>-10</v>
+      </c>
+      <c r="G11" s="1">
+        <v>100</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="1">
+        <v>5</v>
+      </c>
+      <c r="L11" s="1">
+        <v>3</v>
+      </c>
+      <c r="M11" s="1">
+        <v>90</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>20010</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="1">
+        <v>100</v>
+      </c>
+      <c r="H12" s="1">
+        <v>45</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="1">
+        <v>4</v>
+      </c>
+      <c r="L12" s="1">
+        <v>6</v>
+      </c>
+      <c r="M12" s="1">
+        <v>200</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="R12" s="1">
+        <v>3</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>20011</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="1">
+        <v>100</v>
+      </c>
+      <c r="H13" s="1">
+        <v>45</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="1">
+        <v>4</v>
+      </c>
+      <c r="L13" s="1">
+        <v>6</v>
+      </c>
+      <c r="M13" s="1">
+        <v>200</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R13" s="1">
+        <v>3</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>20012</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="1">
+        <v>100</v>
+      </c>
+      <c r="H14" s="1">
+        <v>200</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="1">
+        <v>12</v>
+      </c>
+      <c r="L14" s="1">
+        <v>14</v>
+      </c>
+      <c r="M14" s="1">
+        <v>280</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R14" s="1">
+        <v>4</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>20013</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="1">
+        <v>100</v>
+      </c>
+      <c r="H15" s="1">
+        <v>200</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="1">
+        <v>12</v>
+      </c>
+      <c r="L15" s="1">
+        <v>14</v>
+      </c>
+      <c r="M15" s="1">
+        <v>280</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="R15" s="1">
+        <v>4</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>20014</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="1">
+        <v>100</v>
+      </c>
+      <c r="H16" s="1">
+        <v>60</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="1">
+        <v>7</v>
+      </c>
+      <c r="L16" s="1">
+        <v>8</v>
+      </c>
+      <c r="M16" s="1">
+        <v>160</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="R16" s="1">
+        <v>2</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>20015</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="1">
+        <v>100</v>
+      </c>
+      <c r="H17" s="1">
+        <v>60</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="1">
+        <v>7</v>
+      </c>
+      <c r="L17" s="1">
+        <v>8</v>
+      </c>
+      <c r="M17" s="1">
+        <v>160</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="R17" s="1">
+        <v>2</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>20016</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="1">
+        <v>100</v>
+      </c>
+      <c r="H18" s="1">
+        <v>50</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="1">
+        <v>5</v>
+      </c>
+      <c r="L18" s="1">
+        <v>11</v>
+      </c>
+      <c r="M18" s="1">
+        <v>150</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R18" s="1">
+        <v>4</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>20017</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="1">
+        <v>100</v>
+      </c>
+      <c r="H19" s="1">
+        <v>50</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="1">
+        <v>5</v>
+      </c>
+      <c r="L19" s="1">
+        <v>11</v>
+      </c>
+      <c r="M19" s="1">
+        <v>150</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="R19" s="1">
+        <v>4</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\毕业设计\BiShe\Assets\Resources\Data\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A0AB3D-6DC4-47B7-950A-42E1F5E2849F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7646BF6C-8AEE-47AB-B322-2D79AA6BBE35}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7155" yWindow="2910" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="123">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -493,6 +493,14 @@
   </si>
   <si>
     <t>仓库三级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -536,7 +544,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -548,6 +556,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -828,11 +839,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F18" sqref="F18"/>
+      <pane xSplit="2" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -852,10 +863,11 @@
     <col min="16" max="16" width="15" customWidth="1"/>
     <col min="17" max="17" width="33.875" customWidth="1"/>
     <col min="18" max="18" width="17.625" customWidth="1"/>
-    <col min="19" max="19" width="27.875" customWidth="1"/>
+    <col min="19" max="19" width="41" customWidth="1"/>
+    <col min="20" max="20" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -913,8 +925,11 @@
       <c r="S1" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="T1" s="5" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -972,8 +987,11 @@
       <c r="S2" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="T2" s="5" t="s">
+        <v>122</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>20001</v>
       </c>
@@ -1031,8 +1049,11 @@
       <c r="S3" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="T3" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>20002</v>
       </c>
@@ -1090,8 +1111,11 @@
       <c r="S4" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="T4" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>20003</v>
       </c>
@@ -1149,8 +1173,11 @@
       <c r="S5" s="1" t="s">
         <v>79</v>
       </c>
+      <c r="T5" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>20004</v>
       </c>
@@ -1208,8 +1235,11 @@
       <c r="S6" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="T6" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>20005</v>
       </c>
@@ -1267,8 +1297,11 @@
       <c r="S7" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="T7" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>20006</v>
       </c>
@@ -1326,8 +1359,11 @@
       <c r="S8" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="T8" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>20007</v>
       </c>
@@ -1385,8 +1421,11 @@
       <c r="S9" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="T9" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>20008</v>
       </c>
@@ -1444,8 +1483,11 @@
       <c r="S10" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="T10" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>20009</v>
       </c>
@@ -1503,8 +1545,11 @@
       <c r="S11" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="T11" s="5">
+        <v>2</v>
+      </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>20010</v>
       </c>
@@ -1562,8 +1607,11 @@
       <c r="S12" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="T12" s="5">
+        <v>2</v>
+      </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>20011</v>
       </c>
@@ -1621,8 +1669,11 @@
       <c r="S13" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="T13" s="5">
+        <v>3</v>
+      </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>20012</v>
       </c>
@@ -1680,8 +1731,11 @@
       <c r="S14" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="T14" s="5">
+        <v>2</v>
+      </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>20013</v>
       </c>
@@ -1739,8 +1793,11 @@
       <c r="S15" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="T15" s="5">
+        <v>3</v>
+      </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>20014</v>
       </c>
@@ -1798,8 +1855,11 @@
       <c r="S16" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="T16" s="5">
+        <v>2</v>
+      </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>20015</v>
       </c>
@@ -1857,8 +1917,11 @@
       <c r="S17" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="T17" s="5">
+        <v>3</v>
+      </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>20016</v>
       </c>
@@ -1916,8 +1979,11 @@
       <c r="S18" s="1" t="s">
         <v>79</v>
       </c>
+      <c r="T18" s="5">
+        <v>2</v>
+      </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>20017</v>
       </c>
@@ -1974,6 +2040,9 @@
       </c>
       <c r="S19" s="1" t="s">
         <v>79</v>
+      </c>
+      <c r="T19" s="5">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7646BF6C-8AEE-47AB-B322-2D79AA6BBE35}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774E67F2-5B0F-41AC-8F61-B0766DD2E6EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="123">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -842,8 +842,8 @@
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T10" sqref="T10"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1019,8 +1019,8 @@
       <c r="I3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>17</v>
+      <c r="J3" s="1">
+        <v>20009</v>
       </c>
       <c r="K3" s="1">
         <v>5</v>

--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\毕业设计\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774E67F2-5B0F-41AC-8F61-B0766DD2E6EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55AA410-4EFC-4B4A-9DA4-A2A0DCF5863C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7155" yWindow="2910" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="128">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,472 +35,487 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hut</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MudRoad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Warehouse</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Farmland</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LivestockFarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Factory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoggingCamps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NameCN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Width</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemIDs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nums</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>People</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Influence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildingID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bundleName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pfbName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buildingTabType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Introduce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>building.ab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是一个土房，可以提供劳动力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>road.ab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1_Road001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1_Fieldedge001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1_Farm001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12003,12009</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>30,35</t>
+  </si>
+  <si>
+    <t>12003</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Formula</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CostPerWeek</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品ID0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑名称1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文名称2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护费用/周3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产可用配方4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占用人口(负表示产出)5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑存储资源上限6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑影响范围7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置建筑8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后置建筑9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占地面积（长）10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占地面积11（宽）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造花费金钱12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造花费物品13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造花费数量14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在ab包名15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ab包内名称16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造页签种类17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50006,50007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50001,50002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50003,50004,50005,50008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最基础的公路，能提供基本的运输条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库，能够存储目前已知的所有资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家能够通过市场来进行贸易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粮食作物最主要的产出单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉类食品原料的基础产出单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能够进行原料加工，提升产品附加值的关键建筑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取木料的最主要的建筑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农田</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>养殖场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加工厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伐木场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plain_Building_Residential_L1_01_Preb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plain_Building_Residential_L1_02_Preb</t>
+  </si>
+  <si>
+    <t>Universal_Building_Factory_L2_01_Preb</t>
+  </si>
+  <si>
+    <t>Universal_Building_Factory_L3_01_Preb</t>
+  </si>
+  <si>
+    <t>Universal_Building_Market_L2_01_Preb</t>
+  </si>
+  <si>
+    <t>Universal_Building_Market_L3_01_Preb</t>
+  </si>
+  <si>
+    <t>Universal_Building_Market_L1_01_Preb</t>
+  </si>
+  <si>
+    <t>Universal_Building_Sawmill_L1_01_Preb</t>
+  </si>
+  <si>
+    <t>Universal_Building_Sawmill_L2_01_Preb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Universal_Building_Sawmill_L3_01_Preb</t>
+  </si>
+  <si>
+    <t>Universal_Building_Factory_L1_01_Preb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Universal_Building_Warehouse_L1_01_Preb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Universal_Building_Warehouse_L2_01_Preb</t>
+  </si>
+  <si>
+    <t>Universal_Building_Warehouse_L3_01_Preb</t>
+  </si>
+  <si>
+    <t>伐木场二级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伐木场三级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库二级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库三级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warehouse Lv3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乡间小屋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cottage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乡间小道</t>
+  </si>
+  <si>
+    <t>Country road</t>
+  </si>
+  <si>
+    <t>大型住宅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Large residential</t>
+  </si>
+  <si>
+    <t>工坊</t>
+  </si>
+  <si>
+    <t>Workshop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合工厂</t>
+  </si>
+  <si>
+    <t>Integrated mill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bazaar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合市场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Market</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Farmland</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LivestockFarm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Factory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LoggingCamps</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NameCN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Length</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Width</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemIDs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nums</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>People</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Max</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Influence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuildingID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bundleName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pfbName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buildingTabType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Introduce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>building.ab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是一个土房，可以提供劳动力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>road.ab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L1_Road001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L1_Fieldedge001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L1_Farm001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12003,12009</t>
-  </si>
-  <si>
-    <t>1,1</t>
-  </si>
-  <si>
-    <t>30,35</t>
-  </si>
-  <si>
-    <t>12003</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Formula</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CostPerWeek</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物品ID0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建筑名称1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文名称2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>维护费用/周3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产可用配方4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>占用人口(负表示产出)5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建筑存储资源上限6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建筑影响范围7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前置建筑8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后置建筑9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>占地面积（长）10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>占地面积11（宽）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建造花费金钱12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建造花费物品13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建造花费数量14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所在ab包名15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ab包内名称16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建造页签种类17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50006,50007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50001,50002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50003,50004,50005,50008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40,35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35,20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最基础的公路，能提供基本的运输条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库，能够存储目前已知的所有资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家能够通过市场来进行贸易</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>粮食作物最主要的产出单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>肉类食品原料的基础产出单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能够进行原料加工，提升产品附加值的关键建筑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取木料的最主要的建筑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>市场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>农田</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>养殖场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加工厂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伐木场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plain_Building_Residential_L1_01_Preb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HutⅡ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土房二级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plain_Building_Residential_L1_02_Preb</t>
-  </si>
-  <si>
-    <t>FactoryⅡ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FactoryⅢ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加工厂二级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加工厂三级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Universal_Building_Factory_L2_01_Preb</t>
-  </si>
-  <si>
-    <t>Universal_Building_Factory_L3_01_Preb</t>
-  </si>
-  <si>
-    <t>MarketⅡ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MarketⅢ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>市场二级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>市场三级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Universal_Building_Market_L2_01_Preb</t>
-  </si>
-  <si>
-    <t>Universal_Building_Market_L3_01_Preb</t>
-  </si>
-  <si>
-    <t>Universal_Building_Market_L1_01_Preb</t>
-  </si>
-  <si>
-    <t>Universal_Building_Sawmill_L1_01_Preb</t>
-  </si>
-  <si>
-    <t>Universal_Building_Sawmill_L2_01_Preb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Universal_Building_Sawmill_L3_01_Preb</t>
-  </si>
-  <si>
-    <t>Universal_Building_Factory_L1_01_Preb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Universal_Building_Warehouse_L1_01_Preb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Universal_Building_Warehouse_L2_01_Preb</t>
-  </si>
-  <si>
-    <t>Universal_Building_Warehouse_L3_01_Preb</t>
-  </si>
-  <si>
-    <t>伐木场二级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伐木场三级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库二级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库三级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level</t>
+    <t>大型商城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shopping Mall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cement road</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asphalt road</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水泥路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柏油路</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -508,7 +523,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -522,6 +537,20 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2E3033"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -544,7 +573,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -558,6 +587,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -839,11 +873,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H10" sqref="H10"/>
+      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -869,64 +903,64 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="R1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="T1" s="5" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
@@ -937,75 +971,75 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="N2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="T2" s="5" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>20001</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>85</v>
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" t="s">
+        <v>108</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F3" s="3">
         <v>-10</v>
@@ -1017,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J3" s="1">
         <v>20009</v>
@@ -1032,22 +1066,22 @@
         <v>90</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="R3" s="1">
         <v>0</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="T3" s="5">
         <v>1</v>
@@ -1057,17 +1091,17 @@
       <c r="A4" s="1">
         <v>20002</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>86</v>
+      <c r="B4" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
@@ -1079,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="J4" s="1">
+        <v>20018</v>
       </c>
       <c r="K4" s="1">
         <v>3</v>
@@ -1094,22 +1128,22 @@
         <v>5</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R4" s="1">
         <v>5</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="T4" s="5">
         <v>0</v>
@@ -1120,19 +1154,19 @@
         <v>20003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G5" s="1">
         <v>100</v>
@@ -1141,10 +1175,10 @@
         <v>50</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="J5" s="1">
+        <v>20016</v>
       </c>
       <c r="K5" s="1">
         <v>5</v>
@@ -1156,22 +1190,22 @@
         <v>150</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="R5" s="1">
         <v>4</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="T5" s="5">
         <v>1</v>
@@ -1181,20 +1215,20 @@
       <c r="A6" s="1">
         <v>20004</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>88</v>
+      <c r="B6" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" t="s">
+        <v>118</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G6" s="1">
         <v>100</v>
@@ -1203,10 +1237,10 @@
         <v>200</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="J6" s="1">
+        <v>20012</v>
       </c>
       <c r="K6" s="1">
         <v>12</v>
@@ -1218,22 +1252,22 @@
         <v>280</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="R6" s="1">
         <v>4</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="T6" s="5">
         <v>1</v>
@@ -1244,19 +1278,19 @@
         <v>20005</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G7" s="1">
         <v>100</v>
@@ -1265,10 +1299,10 @@
         <v>5</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K7" s="1">
         <v>3</v>
@@ -1280,22 +1314,22 @@
         <v>15</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="R7" s="1">
         <v>1</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="T7" s="5">
         <v>1</v>
@@ -1306,19 +1340,19 @@
         <v>20006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G8" s="1">
         <v>100</v>
@@ -1327,10 +1361,10 @@
         <v>30</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K8" s="1">
         <v>14</v>
@@ -1342,22 +1376,22 @@
         <v>180</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R8" s="1">
         <v>1</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="T8" s="5">
         <v>1</v>
@@ -1367,20 +1401,20 @@
       <c r="A9" s="1">
         <v>20007</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>91</v>
+      <c r="B9" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" t="s">
+        <v>114</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G9" s="1">
         <v>100</v>
@@ -1389,10 +1423,10 @@
         <v>45</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="J9" s="1">
+        <v>20010</v>
       </c>
       <c r="K9" s="1">
         <v>4</v>
@@ -1404,22 +1438,22 @@
         <v>200</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="R9" s="1">
         <v>3</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="T9" s="5">
         <v>1</v>
@@ -1430,19 +1464,19 @@
         <v>20008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G10" s="1">
         <v>100</v>
@@ -1451,10 +1485,10 @@
         <v>60</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="J10" s="1">
+        <v>20014</v>
       </c>
       <c r="K10" s="1">
         <v>7</v>
@@ -1466,22 +1500,22 @@
         <v>160</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="R10" s="1">
         <v>2</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="T10" s="5">
         <v>1</v>
@@ -1491,17 +1525,17 @@
       <c r="A11" s="1">
         <v>20009</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>95</v>
+      <c r="B11" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" t="s">
+        <v>112</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F11" s="3">
         <v>-10</v>
@@ -1512,11 +1546,11 @@
       <c r="H11" s="1">
         <v>0</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>17</v>
+      <c r="I11" s="1">
+        <v>20001</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K11" s="1">
         <v>5</v>
@@ -1528,22 +1562,22 @@
         <v>90</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="R11" s="1">
         <v>0</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="T11" s="5">
         <v>2</v>
@@ -1554,19 +1588,19 @@
         <v>20010</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>97</v>
+        <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G12" s="1">
         <v>100</v>
@@ -1574,11 +1608,11 @@
       <c r="H12" s="1">
         <v>45</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>17</v>
+      <c r="I12" s="1">
+        <v>20007</v>
+      </c>
+      <c r="J12" s="1">
+        <v>20011</v>
       </c>
       <c r="K12" s="1">
         <v>4</v>
@@ -1590,22 +1624,22 @@
         <v>200</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="R12" s="1">
         <v>3</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="T12" s="5">
         <v>2</v>
@@ -1615,20 +1649,20 @@
       <c r="A13" s="1">
         <v>20011</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>100</v>
+      <c r="B13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>116</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G13" s="1">
         <v>100</v>
@@ -1636,11 +1670,11 @@
       <c r="H13" s="1">
         <v>45</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>17</v>
+      <c r="I13" s="1">
+        <v>20010</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K13" s="1">
         <v>4</v>
@@ -1652,22 +1686,22 @@
         <v>200</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="R13" s="1">
         <v>3</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="T13" s="5">
         <v>3</v>
@@ -1677,20 +1711,20 @@
       <c r="A14" s="1">
         <v>20012</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>105</v>
+      <c r="B14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" t="s">
+        <v>120</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G14" s="1">
         <v>100</v>
@@ -1698,11 +1732,11 @@
       <c r="H14" s="1">
         <v>200</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>17</v>
+      <c r="I14" s="1">
+        <v>20004</v>
+      </c>
+      <c r="J14" s="1">
+        <v>20013</v>
       </c>
       <c r="K14" s="1">
         <v>12</v>
@@ -1714,22 +1748,22 @@
         <v>280</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="R14" s="1">
         <v>4</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="T14" s="5">
         <v>2</v>
@@ -1739,20 +1773,20 @@
       <c r="A15" s="1">
         <v>20013</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>106</v>
+      <c r="B15" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" t="s">
+        <v>122</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G15" s="1">
         <v>100</v>
@@ -1760,11 +1794,11 @@
       <c r="H15" s="1">
         <v>200</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>17</v>
+      <c r="I15" s="1">
+        <v>20012</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K15" s="1">
         <v>12</v>
@@ -1776,22 +1810,22 @@
         <v>280</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="R15" s="1">
         <v>4</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="T15" s="5">
         <v>3</v>
@@ -1802,19 +1836,19 @@
         <v>20014</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G16" s="1">
         <v>100</v>
@@ -1822,11 +1856,11 @@
       <c r="H16" s="1">
         <v>60</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>17</v>
+      <c r="I16" s="1">
+        <v>20008</v>
+      </c>
+      <c r="J16" s="1">
+        <v>20015</v>
       </c>
       <c r="K16" s="1">
         <v>7</v>
@@ -1838,22 +1872,22 @@
         <v>160</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="R16" s="1">
         <v>2</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="T16" s="5">
         <v>2</v>
@@ -1864,19 +1898,19 @@
         <v>20015</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G17" s="1">
         <v>100</v>
@@ -1884,11 +1918,11 @@
       <c r="H17" s="1">
         <v>60</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>17</v>
+      <c r="I17" s="1">
+        <v>20014</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K17" s="1">
         <v>7</v>
@@ -1900,22 +1934,22 @@
         <v>160</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="R17" s="1">
         <v>2</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="T17" s="5">
         <v>3</v>
@@ -1926,19 +1960,19 @@
         <v>20016</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G18" s="1">
         <v>100</v>
@@ -1946,11 +1980,11 @@
       <c r="H18" s="1">
         <v>50</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>17</v>
+      <c r="I18" s="1">
+        <v>20003</v>
+      </c>
+      <c r="J18" s="1">
+        <v>20017</v>
       </c>
       <c r="K18" s="1">
         <v>5</v>
@@ -1962,22 +1996,22 @@
         <v>150</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="R18" s="1">
         <v>4</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="T18" s="5">
         <v>2</v>
@@ -1988,19 +2022,19 @@
         <v>20017</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G19" s="1">
         <v>100</v>
@@ -2008,11 +2042,11 @@
       <c r="H19" s="1">
         <v>50</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>17</v>
+      <c r="I19" s="1">
+        <v>20016</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K19" s="1">
         <v>5</v>
@@ -2024,25 +2058,149 @@
         <v>150</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="R19" s="1">
         <v>4</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="T19" s="5">
         <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>20018</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>100</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>20002</v>
+      </c>
+      <c r="J20" s="1">
+        <v>20019</v>
+      </c>
+      <c r="K20" s="1">
+        <v>3</v>
+      </c>
+      <c r="L20" s="1">
+        <v>3</v>
+      </c>
+      <c r="M20" s="1">
+        <v>5</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R20" s="1">
+        <v>5</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>20019</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>100</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>20018</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="1">
+        <v>3</v>
+      </c>
+      <c r="L21" s="1">
+        <v>3</v>
+      </c>
+      <c r="M21" s="1">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R21" s="1">
+        <v>5</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T21" s="5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\毕业设计\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55AA410-4EFC-4B4A-9DA4-A2A0DCF5863C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2089C173-CC04-4D11-87DB-705F92B62F2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7155" yWindow="2910" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -876,8 +876,8 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J21" sqref="J21"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1063,7 +1063,7 @@
         <v>3</v>
       </c>
       <c r="M3" s="1">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>28</v>
@@ -1187,7 +1187,7 @@
         <v>11</v>
       </c>
       <c r="M5" s="1">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>28</v>
@@ -1249,7 +1249,7 @@
         <v>14</v>
       </c>
       <c r="M6" s="1">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>28</v>
@@ -1311,7 +1311,7 @@
         <v>3</v>
       </c>
       <c r="M7" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>31</v>
@@ -1373,7 +1373,7 @@
         <v>20</v>
       </c>
       <c r="M8" s="1">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>28</v>
@@ -1435,7 +1435,7 @@
         <v>6</v>
       </c>
       <c r="M9" s="1">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>28</v>
@@ -1497,7 +1497,7 @@
         <v>8</v>
       </c>
       <c r="M10" s="1">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>28</v>
@@ -1621,7 +1621,7 @@
         <v>6</v>
       </c>
       <c r="M12" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>28</v>
@@ -1683,7 +1683,7 @@
         <v>6</v>
       </c>
       <c r="M13" s="1">
-        <v>200</v>
+        <v>380</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>28</v>
@@ -1745,7 +1745,7 @@
         <v>14</v>
       </c>
       <c r="M14" s="1">
-        <v>280</v>
+        <v>360</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>28</v>
@@ -1807,7 +1807,7 @@
         <v>14</v>
       </c>
       <c r="M15" s="1">
-        <v>280</v>
+        <v>480</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>28</v>
@@ -1931,7 +1931,7 @@
         <v>8</v>
       </c>
       <c r="M17" s="1">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>28</v>
@@ -1993,7 +1993,7 @@
         <v>11</v>
       </c>
       <c r="M18" s="1">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>28</v>
@@ -2055,7 +2055,7 @@
         <v>11</v>
       </c>
       <c r="M19" s="1">
-        <v>150</v>
+        <v>290</v>
       </c>
       <c r="N19" s="3" t="s">
         <v>28</v>
@@ -2117,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="M20" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>28</v>
@@ -2179,7 +2179,7 @@
         <v>3</v>
       </c>
       <c r="M21" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>28</v>

--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\毕业设计\BiShe\Assets\Resources\Data\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2089C173-CC04-4D11-87DB-705F92B62F2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA43050-73E5-45ED-94B4-48B4956D4E04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="129">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -455,9 +455,6 @@
     <t>乡间小道</t>
   </si>
   <si>
-    <t>Country road</t>
-  </si>
-  <si>
     <t>大型住宅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -516,6 +513,14 @@
   </si>
   <si>
     <t>柏油路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库，能够存储资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CountryRoad</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -877,7 +882,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M21" sqref="M21"/>
+      <selection pane="topRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1078,7 +1083,7 @@
         <v>87</v>
       </c>
       <c r="R3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>23</v>
@@ -1092,7 +1097,7 @@
         <v>20002</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>110</v>
@@ -1140,7 +1145,7 @@
         <v>25</v>
       </c>
       <c r="R4" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>75</v>
@@ -1205,7 +1210,7 @@
         <v>4</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="T5" s="5">
         <v>1</v>
@@ -1216,10 +1221,10 @@
         <v>20004</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>67</v>
@@ -1326,7 +1331,7 @@
         <v>26</v>
       </c>
       <c r="R7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>78</v>
@@ -1388,7 +1393,7 @@
         <v>27</v>
       </c>
       <c r="R8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>79</v>
@@ -1402,10 +1407,10 @@
         <v>20007</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>60</v>
@@ -1526,10 +1531,10 @@
         <v>20009</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
@@ -1574,7 +1579,7 @@
         <v>88</v>
       </c>
       <c r="R11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>23</v>
@@ -1650,10 +1655,10 @@
         <v>20011</v>
       </c>
       <c r="B13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>60</v>
@@ -1712,10 +1717,10 @@
         <v>20012</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>67</v>
@@ -1774,10 +1779,10 @@
         <v>20013</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>67</v>
@@ -2084,10 +2089,10 @@
         <v>20018</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
@@ -2132,7 +2137,7 @@
         <v>25</v>
       </c>
       <c r="R20" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S20" s="1" t="s">
         <v>75</v>
@@ -2146,10 +2151,10 @@
         <v>20019</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D21" s="3">
         <v>0</v>
@@ -2194,7 +2199,7 @@
         <v>25</v>
       </c>
       <c r="R21" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S21" s="1" t="s">
         <v>75</v>

--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA43050-73E5-45ED-94B4-48B4956D4E04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138E8704-B139-4880-9832-1525BC5C2CF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -881,8 +881,8 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D10" sqref="D10"/>
+      <pane xSplit="2" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1151,7 +1151,7 @@
         <v>75</v>
       </c>
       <c r="T4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
@@ -2143,7 +2143,7 @@
         <v>75</v>
       </c>
       <c r="T20" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
@@ -2205,7 +2205,7 @@
         <v>75</v>
       </c>
       <c r="T21" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138E8704-B139-4880-9832-1525BC5C2CF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55EFE88-0937-4E50-AF30-F142C72BFADD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="137">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -521,6 +521,36 @@
   </si>
   <si>
     <t>CountryRoad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12003,12010</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>政府中心，研究政策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Universal_Building_Government_L1_01_Perb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Government</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -878,11 +908,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T16" sqref="T16"/>
+      <selection pane="topRight" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -900,7 +930,7 @@
     <col min="14" max="14" width="15.375" style="4" customWidth="1"/>
     <col min="15" max="15" width="21.375" style="4" customWidth="1"/>
     <col min="16" max="16" width="15" customWidth="1"/>
-    <col min="17" max="17" width="33.875" customWidth="1"/>
+    <col min="17" max="17" width="42.25" customWidth="1"/>
     <col min="18" max="18" width="17.625" customWidth="1"/>
     <col min="19" max="19" width="41" customWidth="1"/>
     <col min="20" max="20" width="16" customWidth="1"/>
@@ -2208,6 +2238,68 @@
         <v>3</v>
       </c>
     </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>20020</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G22" s="1">
+        <v>100</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>131</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="1">
+        <v>8</v>
+      </c>
+      <c r="L22" s="1">
+        <v>8</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>135</v>
+      </c>
+      <c r="R22" s="1">
+        <v>5</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="T22" s="5">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55EFE88-0937-4E50-AF30-F142C72BFADD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56ADBC6-443D-4642-BF17-49ECB9A5E44B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -131,10 +131,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>L1_Fieldedge001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>L1_Farm001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -551,6 +547,10 @@
   </si>
   <si>
     <t>Government</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Universal_Building_Farmland_L1_01_Preb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -911,8 +911,8 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L19" sqref="L19"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -938,64 +938,64 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="T1" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
@@ -1009,10 +1009,10 @@
         <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>13</v>
@@ -1057,7 +1057,7 @@
         <v>21</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
@@ -1065,16 +1065,16 @@
         <v>20001</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F3" s="3">
         <v>-10</v>
@@ -1101,16 +1101,16 @@
         <v>60</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R3" s="1">
         <v>1</v>
@@ -1127,16 +1127,16 @@
         <v>20002</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
@@ -1163,10 +1163,10 @@
         <v>5</v>
       </c>
       <c r="N4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>24</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T4" s="5">
         <v>1</v>
@@ -1192,16 +1192,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G5" s="1">
         <v>100</v>
@@ -1225,22 +1225,22 @@
         <v>180</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R5" s="1">
         <v>4</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="T5" s="5">
         <v>1</v>
@@ -1251,19 +1251,19 @@
         <v>20004</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" s="1">
         <v>100</v>
@@ -1287,22 +1287,22 @@
         <v>300</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R6" s="1">
         <v>4</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T6" s="5">
         <v>1</v>
@@ -1316,16 +1316,16 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G7" s="1">
         <v>100</v>
@@ -1340,31 +1340,31 @@
         <v>14</v>
       </c>
       <c r="K7" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L7" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="M7" s="1">
         <v>12</v>
       </c>
       <c r="N7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>26</v>
+        <v>136</v>
       </c>
       <c r="R7" s="1">
         <v>2</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T7" s="5">
         <v>1</v>
@@ -1378,16 +1378,16 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G8" s="1">
         <v>100</v>
@@ -1411,22 +1411,22 @@
         <v>150</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R8" s="1">
         <v>2</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T8" s="5">
         <v>1</v>
@@ -1437,19 +1437,19 @@
         <v>20007</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="G9" s="1">
         <v>100</v>
@@ -1473,22 +1473,22 @@
         <v>240</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R9" s="1">
         <v>3</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T9" s="5">
         <v>1</v>
@@ -1502,16 +1502,16 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G10" s="1">
         <v>100</v>
@@ -1535,22 +1535,22 @@
         <v>120</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R10" s="1">
         <v>2</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T10" s="5">
         <v>1</v>
@@ -1561,16 +1561,16 @@
         <v>20009</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F11" s="3">
         <v>-10</v>
@@ -1597,16 +1597,16 @@
         <v>90</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R11" s="1">
         <v>1</v>
@@ -1626,16 +1626,16 @@
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="G12" s="1">
         <v>100</v>
@@ -1659,22 +1659,22 @@
         <v>300</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R12" s="1">
         <v>3</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T12" s="5">
         <v>2</v>
@@ -1685,19 +1685,19 @@
         <v>20011</v>
       </c>
       <c r="B13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="G13" s="1">
         <v>100</v>
@@ -1721,22 +1721,22 @@
         <v>380</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R13" s="1">
         <v>3</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T13" s="5">
         <v>3</v>
@@ -1747,19 +1747,19 @@
         <v>20012</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G14" s="1">
         <v>100</v>
@@ -1783,22 +1783,22 @@
         <v>360</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R14" s="1">
         <v>4</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T14" s="5">
         <v>2</v>
@@ -1809,19 +1809,19 @@
         <v>20013</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G15" s="1">
         <v>100</v>
@@ -1845,22 +1845,22 @@
         <v>480</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R15" s="1">
         <v>4</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T15" s="5">
         <v>3</v>
@@ -1874,16 +1874,16 @@
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G16" s="1">
         <v>100</v>
@@ -1907,22 +1907,22 @@
         <v>160</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R16" s="1">
         <v>2</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T16" s="5">
         <v>2</v>
@@ -1936,16 +1936,16 @@
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G17" s="1">
         <v>100</v>
@@ -1969,22 +1969,22 @@
         <v>190</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R17" s="1">
         <v>2</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T17" s="5">
         <v>3</v>
@@ -1995,19 +1995,19 @@
         <v>20016</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G18" s="1">
         <v>100</v>
@@ -2031,22 +2031,22 @@
         <v>240</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R18" s="1">
         <v>4</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="T18" s="5">
         <v>2</v>
@@ -2057,19 +2057,19 @@
         <v>20017</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G19" s="1">
         <v>100</v>
@@ -2093,22 +2093,22 @@
         <v>290</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R19" s="1">
         <v>4</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="T19" s="5">
         <v>3</v>
@@ -2119,10 +2119,10 @@
         <v>20018</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
@@ -2155,10 +2155,10 @@
         <v>6</v>
       </c>
       <c r="N20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O20" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>24</v>
@@ -2170,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T20" s="5">
         <v>2</v>
@@ -2181,10 +2181,10 @@
         <v>20019</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D21" s="3">
         <v>0</v>
@@ -2217,10 +2217,10 @@
         <v>8</v>
       </c>
       <c r="N21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O21" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>24</v>
@@ -2232,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T21" s="5">
         <v>3</v>
@@ -2243,19 +2243,19 @@
         <v>20020</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>130</v>
-      </c>
       <c r="E22" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G22" s="1">
         <v>100</v>
@@ -2264,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>14</v>
@@ -2279,22 +2279,22 @@
         <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="O22" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R22" s="1">
         <v>5</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T22" s="5">
         <v>1</v>

--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56ADBC6-443D-4642-BF17-49ECB9A5E44B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E78AC8-E954-4B7B-A5B2-2FAC9BDA28C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -912,7 +912,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S7" sqref="S7"/>
+      <selection pane="topRight" activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1340,10 +1340,10 @@
         <v>14</v>
       </c>
       <c r="K7" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L7" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="M7" s="1">
         <v>12</v>

--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E78AC8-E954-4B7B-A5B2-2FAC9BDA28C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B098D474-42BA-4BBD-B595-DA8D13735765}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22365" yWindow="855" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="159">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -551,6 +551,89 @@
   </si>
   <si>
     <t>Universal_Building_Farmland_L1_01_Preb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WareHouseL1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MarketL1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SawmillL1</t>
+  </si>
+  <si>
+    <t>MarketL2</t>
+  </si>
+  <si>
+    <t>SawmillL2</t>
+  </si>
+  <si>
+    <t>FarmL1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FactoryL1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FactoryL2</t>
+  </si>
+  <si>
+    <t>FactoryL3</t>
+  </si>
+  <si>
+    <t>MarketL3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SawmillL3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WareHouseL2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WareHouseL3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResidentialL1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResidentialL2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wheat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoadL1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoadL2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoadL3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -908,11 +991,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L22" sqref="L22"/>
+      <pane xSplit="2" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -934,9 +1017,10 @@
     <col min="18" max="18" width="17.625" customWidth="1"/>
     <col min="19" max="19" width="41" customWidth="1"/>
     <col min="20" max="20" width="16" customWidth="1"/>
+    <col min="21" max="21" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -997,8 +1081,11 @@
       <c r="T1" s="5" t="s">
         <v>104</v>
       </c>
+      <c r="U1" s="1" t="s">
+        <v>137</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1059,8 +1146,11 @@
       <c r="T2" s="5" t="s">
         <v>105</v>
       </c>
+      <c r="U2" s="1" t="s">
+        <v>138</v>
+      </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>20001</v>
       </c>
@@ -1121,8 +1211,11 @@
       <c r="T3" s="5">
         <v>1</v>
       </c>
+      <c r="U3" s="1" t="s">
+        <v>153</v>
+      </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>20002</v>
       </c>
@@ -1183,8 +1276,11 @@
       <c r="T4" s="5">
         <v>1</v>
       </c>
+      <c r="U4" s="1" t="s">
+        <v>156</v>
+      </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>20003</v>
       </c>
@@ -1245,8 +1341,11 @@
       <c r="T5" s="5">
         <v>1</v>
       </c>
+      <c r="U5" s="1" t="s">
+        <v>140</v>
+      </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>20004</v>
       </c>
@@ -1307,8 +1406,11 @@
       <c r="T6" s="5">
         <v>1</v>
       </c>
+      <c r="U6" s="1" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>20005</v>
       </c>
@@ -1369,8 +1471,11 @@
       <c r="T7" s="5">
         <v>1</v>
       </c>
+      <c r="U7" s="1" t="s">
+        <v>155</v>
+      </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>20006</v>
       </c>
@@ -1431,8 +1536,11 @@
       <c r="T8" s="5">
         <v>1</v>
       </c>
+      <c r="U8" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>20007</v>
       </c>
@@ -1493,8 +1601,11 @@
       <c r="T9" s="5">
         <v>1</v>
       </c>
+      <c r="U9" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>20008</v>
       </c>
@@ -1555,8 +1666,11 @@
       <c r="T10" s="5">
         <v>1</v>
       </c>
+      <c r="U10" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>20009</v>
       </c>
@@ -1617,8 +1731,11 @@
       <c r="T11" s="5">
         <v>2</v>
       </c>
+      <c r="U11" s="1" t="s">
+        <v>154</v>
+      </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>20010</v>
       </c>
@@ -1679,8 +1796,11 @@
       <c r="T12" s="5">
         <v>2</v>
       </c>
+      <c r="U12" s="1" t="s">
+        <v>147</v>
+      </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>20011</v>
       </c>
@@ -1741,8 +1861,11 @@
       <c r="T13" s="5">
         <v>3</v>
       </c>
+      <c r="U13" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>20012</v>
       </c>
@@ -1803,8 +1926,11 @@
       <c r="T14" s="5">
         <v>2</v>
       </c>
+      <c r="U14" s="1" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>20013</v>
       </c>
@@ -1865,8 +1991,11 @@
       <c r="T15" s="5">
         <v>3</v>
       </c>
+      <c r="U15" s="1" t="s">
+        <v>149</v>
+      </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>20014</v>
       </c>
@@ -1927,8 +2056,11 @@
       <c r="T16" s="5">
         <v>2</v>
       </c>
+      <c r="U16" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>20015</v>
       </c>
@@ -1989,8 +2121,11 @@
       <c r="T17" s="5">
         <v>3</v>
       </c>
+      <c r="U17" s="1" t="s">
+        <v>150</v>
+      </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>20016</v>
       </c>
@@ -2051,8 +2186,11 @@
       <c r="T18" s="5">
         <v>2</v>
       </c>
+      <c r="U18" s="1" t="s">
+        <v>151</v>
+      </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>20017</v>
       </c>
@@ -2113,8 +2251,11 @@
       <c r="T19" s="5">
         <v>3</v>
       </c>
+      <c r="U19" s="1" t="s">
+        <v>152</v>
+      </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>20018</v>
       </c>
@@ -2175,8 +2316,11 @@
       <c r="T20" s="5">
         <v>2</v>
       </c>
+      <c r="U20" s="1" t="s">
+        <v>157</v>
+      </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20019</v>
       </c>
@@ -2237,8 +2381,11 @@
       <c r="T21" s="5">
         <v>3</v>
       </c>
+      <c r="U21" s="1" t="s">
+        <v>158</v>
+      </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20020</v>
       </c>
@@ -2298,6 +2445,9 @@
       </c>
       <c r="T22" s="5">
         <v>1</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B098D474-42BA-4BBD-B595-DA8D13735765}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F650CDC-FC58-4A4E-BCBD-3A2E418446B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22365" yWindow="855" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -366,10 +366,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Plain_Building_Residential_L1_01_Preb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Plain_Building_Residential_L1_02_Preb</t>
   </si>
   <si>
@@ -634,6 +630,10 @@
   </si>
   <si>
     <t>RoadL3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plain_Building_Residential_L1_03_Preb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -994,8 +994,8 @@
   <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W16" sqref="W16"/>
+      <pane xSplit="2" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1079,10 +1079,10 @@
         <v>53</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -1144,10 +1144,10 @@
         <v>21</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -1155,10 +1155,10 @@
         <v>20001</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>22</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>86</v>
+        <v>158</v>
       </c>
       <c r="R3" s="1">
         <v>1</v>
@@ -1212,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
@@ -1220,10 +1220,10 @@
         <v>20002</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
@@ -1277,7 +1277,7 @@
         <v>1</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
@@ -1330,19 +1330,19 @@
         <v>22</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R5" s="1">
         <v>4</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T5" s="5">
         <v>1</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
@@ -1350,10 +1350,10 @@
         <v>20004</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>66</v>
@@ -1395,7 +1395,7 @@
         <v>22</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R6" s="1">
         <v>4</v>
@@ -1407,7 +1407,7 @@
         <v>1</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
@@ -1460,7 +1460,7 @@
         <v>22</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R7" s="1">
         <v>2</v>
@@ -1472,7 +1472,7 @@
         <v>1</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
@@ -1537,7 +1537,7 @@
         <v>1</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
@@ -1545,10 +1545,10 @@
         <v>20007</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>59</v>
@@ -1590,7 +1590,7 @@
         <v>22</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R9" s="1">
         <v>3</v>
@@ -1602,7 +1602,7 @@
         <v>1</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
@@ -1655,7 +1655,7 @@
         <v>22</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R10" s="1">
         <v>2</v>
@@ -1667,7 +1667,7 @@
         <v>1</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
@@ -1675,10 +1675,10 @@
         <v>20009</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
@@ -1720,7 +1720,7 @@
         <v>22</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R11" s="1">
         <v>1</v>
@@ -1732,7 +1732,7 @@
         <v>2</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
@@ -1785,7 +1785,7 @@
         <v>22</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R12" s="1">
         <v>3</v>
@@ -1797,7 +1797,7 @@
         <v>2</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
@@ -1805,10 +1805,10 @@
         <v>20011</v>
       </c>
       <c r="B13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>59</v>
@@ -1850,7 +1850,7 @@
         <v>22</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R13" s="1">
         <v>3</v>
@@ -1862,7 +1862,7 @@
         <v>3</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
@@ -1870,10 +1870,10 @@
         <v>20012</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>66</v>
@@ -1915,7 +1915,7 @@
         <v>22</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R14" s="1">
         <v>4</v>
@@ -1927,7 +1927,7 @@
         <v>2</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
@@ -1935,10 +1935,10 @@
         <v>20013</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>66</v>
@@ -1980,7 +1980,7 @@
         <v>22</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R15" s="1">
         <v>4</v>
@@ -1992,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
@@ -2003,7 +2003,7 @@
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>68</v>
@@ -2045,7 +2045,7 @@
         <v>22</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R16" s="1">
         <v>2</v>
@@ -2057,7 +2057,7 @@
         <v>2</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
@@ -2068,7 +2068,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>68</v>
@@ -2110,7 +2110,7 @@
         <v>22</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R17" s="1">
         <v>2</v>
@@ -2122,7 +2122,7 @@
         <v>3</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
@@ -2130,10 +2130,10 @@
         <v>20016</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>65</v>
@@ -2175,7 +2175,7 @@
         <v>22</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R18" s="1">
         <v>4</v>
@@ -2187,7 +2187,7 @@
         <v>2</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
@@ -2195,10 +2195,10 @@
         <v>20017</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>65</v>
@@ -2240,7 +2240,7 @@
         <v>22</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R19" s="1">
         <v>4</v>
@@ -2252,7 +2252,7 @@
         <v>3</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
@@ -2260,10 +2260,10 @@
         <v>20018</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         <v>2</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
@@ -2325,10 +2325,10 @@
         <v>20019</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D21" s="3">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>3</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
@@ -2390,19 +2390,19 @@
         <v>20020</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>129</v>
-      </c>
       <c r="E22" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G22" s="1">
         <v>100</v>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>14</v>
@@ -2426,28 +2426,28 @@
         <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="O22" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R22" s="1">
         <v>5</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="T22" s="5">
         <v>1</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F650CDC-FC58-4A4E-BCBD-3A2E418446B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5A3F1E-AAB8-4BCD-8950-345A4111A07A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -131,10 +131,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>L1_Farm001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12003,12009</t>
   </si>
   <si>
@@ -635,6 +631,9 @@
   <si>
     <t>Plain_Building_Residential_L1_03_Preb</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Universal_Building_Farm_L1_01_Preb</t>
   </si>
 </sst>
 </file>
@@ -995,7 +994,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q9" sqref="Q9"/>
+      <selection pane="topRight" activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1022,67 +1021,67 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="T1" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -1096,10 +1095,10 @@
         <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>13</v>
@@ -1144,10 +1143,10 @@
         <v>21</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -1155,16 +1154,16 @@
         <v>20001</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F3" s="3">
         <v>-10</v>
@@ -1191,16 +1190,16 @@
         <v>60</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R3" s="1">
         <v>1</v>
@@ -1212,7 +1211,7 @@
         <v>1</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
@@ -1220,16 +1219,16 @@
         <v>20002</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
@@ -1256,10 +1255,10 @@
         <v>5</v>
       </c>
       <c r="N4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>24</v>
@@ -1271,13 +1270,13 @@
         <v>0</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T4" s="5">
         <v>1</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
@@ -1288,16 +1287,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G5" s="1">
         <v>100</v>
@@ -1321,28 +1320,28 @@
         <v>180</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R5" s="1">
         <v>4</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="T5" s="5">
         <v>1</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
@@ -1350,19 +1349,19 @@
         <v>20004</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G6" s="1">
         <v>100</v>
@@ -1386,28 +1385,28 @@
         <v>300</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R6" s="1">
         <v>4</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="T6" s="5">
         <v>1</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
@@ -1418,16 +1417,16 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G7" s="1">
         <v>100</v>
@@ -1451,28 +1450,28 @@
         <v>12</v>
       </c>
       <c r="N7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R7" s="1">
         <v>2</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T7" s="5">
         <v>1</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
@@ -1483,16 +1482,16 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G8" s="1">
         <v>100</v>
@@ -1516,28 +1515,28 @@
         <v>150</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>26</v>
+        <v>158</v>
       </c>
       <c r="R8" s="1">
         <v>2</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T8" s="5">
         <v>1</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
@@ -1545,19 +1544,19 @@
         <v>20007</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="G9" s="1">
         <v>100</v>
@@ -1581,28 +1580,28 @@
         <v>240</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R9" s="1">
         <v>3</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T9" s="5">
         <v>1</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
@@ -1613,16 +1612,16 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G10" s="1">
         <v>100</v>
@@ -1646,28 +1645,28 @@
         <v>120</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R10" s="1">
         <v>2</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T10" s="5">
         <v>1</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
@@ -1675,16 +1674,16 @@
         <v>20009</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F11" s="3">
         <v>-10</v>
@@ -1711,16 +1710,16 @@
         <v>90</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R11" s="1">
         <v>1</v>
@@ -1732,7 +1731,7 @@
         <v>2</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
@@ -1743,16 +1742,16 @@
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="G12" s="1">
         <v>100</v>
@@ -1776,28 +1775,28 @@
         <v>300</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R12" s="1">
         <v>3</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T12" s="5">
         <v>2</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
@@ -1805,19 +1804,19 @@
         <v>20011</v>
       </c>
       <c r="B13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="G13" s="1">
         <v>100</v>
@@ -1841,28 +1840,28 @@
         <v>380</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R13" s="1">
         <v>3</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T13" s="5">
         <v>3</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
@@ -1870,19 +1869,19 @@
         <v>20012</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G14" s="1">
         <v>100</v>
@@ -1906,28 +1905,28 @@
         <v>360</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R14" s="1">
         <v>4</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="T14" s="5">
         <v>2</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
@@ -1935,19 +1934,19 @@
         <v>20013</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G15" s="1">
         <v>100</v>
@@ -1971,28 +1970,28 @@
         <v>480</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R15" s="1">
         <v>4</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="T15" s="5">
         <v>3</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
@@ -2003,16 +2002,16 @@
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G16" s="1">
         <v>100</v>
@@ -2036,28 +2035,28 @@
         <v>160</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R16" s="1">
         <v>2</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T16" s="5">
         <v>2</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
@@ -2068,16 +2067,16 @@
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G17" s="1">
         <v>100</v>
@@ -2101,28 +2100,28 @@
         <v>190</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R17" s="1">
         <v>2</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T17" s="5">
         <v>3</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
@@ -2130,19 +2129,19 @@
         <v>20016</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G18" s="1">
         <v>100</v>
@@ -2166,28 +2165,28 @@
         <v>240</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R18" s="1">
         <v>4</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T18" s="5">
         <v>2</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
@@ -2195,19 +2194,19 @@
         <v>20017</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G19" s="1">
         <v>100</v>
@@ -2231,28 +2230,28 @@
         <v>290</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R19" s="1">
         <v>4</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T19" s="5">
         <v>3</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
@@ -2260,10 +2259,10 @@
         <v>20018</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
@@ -2296,10 +2295,10 @@
         <v>6</v>
       </c>
       <c r="N20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O20" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>24</v>
@@ -2311,13 +2310,13 @@
         <v>0</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T20" s="5">
         <v>2</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
@@ -2325,10 +2324,10 @@
         <v>20019</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D21" s="3">
         <v>0</v>
@@ -2361,10 +2360,10 @@
         <v>8</v>
       </c>
       <c r="N21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O21" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>24</v>
@@ -2376,13 +2375,13 @@
         <v>0</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T21" s="5">
         <v>3</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
@@ -2390,19 +2389,19 @@
         <v>20020</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>128</v>
-      </c>
       <c r="E22" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G22" s="1">
         <v>100</v>
@@ -2411,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>14</v>
@@ -2426,28 +2425,28 @@
         <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="O22" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R22" s="1">
         <v>5</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T22" s="5">
         <v>1</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\毕业设计\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5A3F1E-AAB8-4BCD-8950-345A4111A07A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B272168E-5D84-43E2-8A1E-FDF79593238F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2040" yWindow="3330" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="165">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,10 +143,361 @@
     <t>12003</t>
   </si>
   <si>
+    <t>Formula</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CostPerWeek</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品ID0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑名称1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文名称2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护费用/周3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产可用配方4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占用人口(负表示产出)5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑存储资源上限6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑影响范围7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置建筑8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后置建筑9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占地面积（长）10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占地面积11（宽）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造花费金钱12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造花费物品13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造花费数量14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在ab包名15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ab包内名称16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造页签种类17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50006,50007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50001,50002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50003,50004,50005,50008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>5</t>
-  </si>
-  <si>
-    <t>Formula</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最基础的公路，能提供基本的运输条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库，能够存储目前已知的所有资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家能够通过市场来进行贸易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粮食作物最主要的产出单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉类食品原料的基础产出单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能够进行原料加工，提升产品附加值的关键建筑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取木料的最主要的建筑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农田</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>养殖场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加工厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伐木场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plain_Building_Residential_L1_02_Preb</t>
+  </si>
+  <si>
+    <t>Universal_Building_Factory_L2_01_Preb</t>
+  </si>
+  <si>
+    <t>Universal_Building_Factory_L3_01_Preb</t>
+  </si>
+  <si>
+    <t>Universal_Building_Market_L2_01_Preb</t>
+  </si>
+  <si>
+    <t>Universal_Building_Market_L3_01_Preb</t>
+  </si>
+  <si>
+    <t>Universal_Building_Market_L1_01_Preb</t>
+  </si>
+  <si>
+    <t>Universal_Building_Sawmill_L1_01_Preb</t>
+  </si>
+  <si>
+    <t>Universal_Building_Sawmill_L2_01_Preb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Universal_Building_Sawmill_L3_01_Preb</t>
+  </si>
+  <si>
+    <t>Universal_Building_Factory_L1_01_Preb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Universal_Building_Warehouse_L1_01_Preb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Universal_Building_Warehouse_L2_01_Preb</t>
+  </si>
+  <si>
+    <t>Universal_Building_Warehouse_L3_01_Preb</t>
+  </si>
+  <si>
+    <t>伐木场二级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伐木场三级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库二级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库三级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warehouse Lv3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乡间小屋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cottage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乡间小道</t>
+  </si>
+  <si>
+    <t>大型住宅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Large residential</t>
+  </si>
+  <si>
+    <t>工坊</t>
+  </si>
+  <si>
+    <t>Workshop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合工厂</t>
+  </si>
+  <si>
+    <t>Integrated mill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bazaar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合市场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Market</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大型商城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shopping Mall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cement road</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asphalt road</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水泥路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柏油路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库，能够存储资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CountryRoad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -154,369 +505,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CostPerWeek</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物品ID0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建筑名称1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文名称2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>维护费用/周3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产可用配方4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>占用人口(负表示产出)5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建筑存储资源上限6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建筑影响范围7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前置建筑8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后置建筑9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>占地面积（长）10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>占地面积11（宽）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建造花费金钱12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建造花费物品13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建造花费数量14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所在ab包名15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ab包内名称16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建造页签种类17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50006,50007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50001,50002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50003,50004,50005,50008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40,35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35,20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最基础的公路，能提供基本的运输条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库，能够存储目前已知的所有资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家能够通过市场来进行贸易</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>粮食作物最主要的产出单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>肉类食品原料的基础产出单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能够进行原料加工，提升产品附加值的关键建筑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取木料的最主要的建筑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>农田</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>养殖场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加工厂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伐木场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plain_Building_Residential_L1_02_Preb</t>
-  </si>
-  <si>
-    <t>Universal_Building_Factory_L2_01_Preb</t>
-  </si>
-  <si>
-    <t>Universal_Building_Factory_L3_01_Preb</t>
-  </si>
-  <si>
-    <t>Universal_Building_Market_L2_01_Preb</t>
-  </si>
-  <si>
-    <t>Universal_Building_Market_L3_01_Preb</t>
-  </si>
-  <si>
-    <t>Universal_Building_Market_L1_01_Preb</t>
-  </si>
-  <si>
-    <t>Universal_Building_Sawmill_L1_01_Preb</t>
-  </si>
-  <si>
-    <t>Universal_Building_Sawmill_L2_01_Preb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Universal_Building_Sawmill_L3_01_Preb</t>
-  </si>
-  <si>
-    <t>Universal_Building_Factory_L1_01_Preb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Universal_Building_Warehouse_L1_01_Preb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Universal_Building_Warehouse_L2_01_Preb</t>
-  </si>
-  <si>
-    <t>Universal_Building_Warehouse_L3_01_Preb</t>
-  </si>
-  <si>
-    <t>伐木场二级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伐木场三级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库二级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库三级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Warehouse Lv3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乡间小屋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cottage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乡间小道</t>
-  </si>
-  <si>
-    <t>大型住宅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Large residential</t>
-  </si>
-  <si>
-    <t>工坊</t>
-  </si>
-  <si>
-    <t>Workshop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>综合工厂</t>
-  </si>
-  <si>
-    <t>Integrated mill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>集市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bazaar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>综合市场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Market</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大型商城</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shopping Mall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cement road</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Asphalt road</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水泥路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>柏油路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库，能够存储资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CountryRoad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>政府</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
+    <t>12003,12010</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>政府中心，研究政策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Universal_Building_Government_L1_01_Perb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Government</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Universal_Building_Farmland_L1_01_Preb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -524,40 +539,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12003,12010</t>
-  </si>
-  <si>
-    <t>1,2</t>
-  </si>
-  <si>
-    <t>政府中心，研究政策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Universal_Building_Government_L1_01_Perb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Government</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Universal_Building_Farmland_L1_01_Preb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图标20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IconName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>WareHouseL1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -634,6 +615,50 @@
   </si>
   <si>
     <t>Universal_Building_Farm_L1_01_Preb</t>
+  </si>
+  <si>
+    <t>-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35,35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -993,8 +1018,8 @@
   <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R5" sqref="R5"/>
+      <pane xSplit="3" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1021,67 +1046,67 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="T1" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -1095,10 +1120,10 @@
         <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>13</v>
@@ -1143,10 +1168,10 @@
         <v>21</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -1154,16 +1179,16 @@
         <v>20001</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F3" s="3">
         <v>-10</v>
@@ -1193,13 +1218,13 @@
         <v>26</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>68</v>
+        <v>160</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="R3" s="1">
         <v>1</v>
@@ -1211,7 +1236,7 @@
         <v>1</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
@@ -1219,16 +1244,16 @@
         <v>20002</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
@@ -1252,7 +1277,7 @@
         <v>3</v>
       </c>
       <c r="M4" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>26</v>
@@ -1270,13 +1295,13 @@
         <v>0</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="T4" s="5">
         <v>1</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
@@ -1287,16 +1312,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G5" s="1">
         <v>100</v>
@@ -1329,19 +1354,19 @@
         <v>22</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R5" s="1">
         <v>4</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="T5" s="5">
         <v>1</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
@@ -1349,19 +1374,19 @@
         <v>20004</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G6" s="1">
         <v>100</v>
@@ -1382,31 +1407,31 @@
         <v>14</v>
       </c>
       <c r="M6" s="1">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R6" s="1">
         <v>4</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="T6" s="5">
         <v>1</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
@@ -1417,16 +1442,16 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G7" s="1">
         <v>100</v>
@@ -1453,25 +1478,25 @@
         <v>29</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="R7" s="1">
         <v>2</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="T7" s="5">
         <v>1</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
@@ -1482,16 +1507,16 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G8" s="1">
         <v>100</v>
@@ -1518,25 +1543,25 @@
         <v>26</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>70</v>
+        <v>162</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="R8" s="1">
         <v>2</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="T8" s="5">
         <v>1</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
@@ -1544,19 +1569,19 @@
         <v>20007</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="1">
         <v>100</v>
@@ -1577,31 +1602,31 @@
         <v>6</v>
       </c>
       <c r="M9" s="1">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>26</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R9" s="1">
         <v>3</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="T9" s="5">
         <v>1</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
@@ -1612,16 +1637,16 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G10" s="1">
         <v>100</v>
@@ -1648,25 +1673,25 @@
         <v>26</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>72</v>
+        <v>163</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R10" s="1">
         <v>2</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="T10" s="5">
         <v>1</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
@@ -1674,19 +1699,19 @@
         <v>20009</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="3">
-        <v>-10</v>
+        <v>56</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="G11" s="1">
         <v>100</v>
@@ -1713,13 +1738,13 @@
         <v>26</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>68</v>
+        <v>164</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R11" s="1">
         <v>1</v>
@@ -1731,7 +1756,7 @@
         <v>2</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
@@ -1742,16 +1767,16 @@
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="G12" s="1">
         <v>100</v>
@@ -1778,25 +1803,25 @@
         <v>26</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R12" s="1">
         <v>3</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="T12" s="5">
         <v>2</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
@@ -1804,19 +1829,19 @@
         <v>20011</v>
       </c>
       <c r="B13" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>59</v>
+        <v>156</v>
       </c>
       <c r="G13" s="1">
         <v>100</v>
@@ -1843,25 +1868,25 @@
         <v>26</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R13" s="1">
         <v>3</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="T13" s="5">
         <v>3</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
@@ -1869,19 +1894,19 @@
         <v>20012</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C14" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>62</v>
+        <v>157</v>
       </c>
       <c r="G14" s="1">
         <v>100</v>
@@ -1908,25 +1933,25 @@
         <v>26</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R14" s="1">
         <v>4</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="T14" s="5">
         <v>2</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
@@ -1934,19 +1959,19 @@
         <v>20013</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C15" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>62</v>
+        <v>158</v>
       </c>
       <c r="G15" s="1">
         <v>100</v>
@@ -1973,25 +1998,25 @@
         <v>26</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R15" s="1">
         <v>4</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="T15" s="5">
         <v>3</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
@@ -2002,16 +2027,16 @@
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G16" s="1">
         <v>100</v>
@@ -2038,25 +2063,25 @@
         <v>26</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R16" s="1">
         <v>2</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="T16" s="5">
         <v>2</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
@@ -2067,16 +2092,16 @@
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="G17" s="1">
         <v>100</v>
@@ -2103,25 +2128,25 @@
         <v>26</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R17" s="1">
         <v>2</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="T17" s="5">
         <v>3</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
@@ -2129,19 +2154,19 @@
         <v>20016</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G18" s="1">
         <v>100</v>
@@ -2174,19 +2199,19 @@
         <v>22</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R18" s="1">
         <v>4</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="T18" s="5">
         <v>2</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
@@ -2194,19 +2219,19 @@
         <v>20017</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G19" s="1">
         <v>100</v>
@@ -2239,19 +2264,19 @@
         <v>22</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R19" s="1">
         <v>4</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="T19" s="5">
         <v>3</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
@@ -2259,10 +2284,10 @@
         <v>20018</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C20" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
@@ -2310,13 +2335,13 @@
         <v>0</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="T20" s="5">
         <v>2</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
@@ -2324,10 +2349,10 @@
         <v>20019</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C21" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D21" s="3">
         <v>0</v>
@@ -2375,13 +2400,13 @@
         <v>0</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="T21" s="5">
         <v>3</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
@@ -2389,19 +2414,19 @@
         <v>20020</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G22" s="1">
         <v>100</v>
@@ -2410,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>14</v>
@@ -2425,28 +2450,28 @@
         <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q22" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="R22" s="1">
         <v>5</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="T22" s="5">
         <v>1</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\毕业设计\BiShe\Assets\Resources\Data\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B272168E-5D84-43E2-8A1E-FDF79593238F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A705FBDB-D536-49ED-AB5C-0ED9F8AC07C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="3330" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -343,48 +343,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Plain_Building_Residential_L1_02_Preb</t>
-  </si>
-  <si>
-    <t>Universal_Building_Factory_L2_01_Preb</t>
-  </si>
-  <si>
-    <t>Universal_Building_Factory_L3_01_Preb</t>
-  </si>
-  <si>
-    <t>Universal_Building_Market_L2_01_Preb</t>
-  </si>
-  <si>
-    <t>Universal_Building_Market_L3_01_Preb</t>
-  </si>
-  <si>
-    <t>Universal_Building_Market_L1_01_Preb</t>
-  </si>
-  <si>
-    <t>Universal_Building_Sawmill_L1_01_Preb</t>
-  </si>
-  <si>
-    <t>Universal_Building_Sawmill_L2_01_Preb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Universal_Building_Sawmill_L3_01_Preb</t>
-  </si>
-  <si>
-    <t>Universal_Building_Factory_L1_01_Preb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Universal_Building_Warehouse_L1_01_Preb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Universal_Building_Warehouse_L2_01_Preb</t>
-  </si>
-  <si>
-    <t>Universal_Building_Warehouse_L3_01_Preb</t>
-  </si>
-  <si>
     <t>伐木场二级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -515,18 +473,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Universal_Building_Government_L1_01_Perb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Government</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Universal_Building_Farmland_L1_01_Preb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>图标20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -610,13 +560,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Plain_Building_Residential_L1_03_Preb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Universal_Building_Farm_L1_01_Preb</t>
-  </si>
-  <si>
     <t>-15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -658,6 +601,74 @@
   </si>
   <si>
     <t>12,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plain_Building_Residential_L1_0X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Universal_Building_Warehouse_L1_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Universal_Building_Market_L1_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Universal_Building_Farmland_L1_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Universal_Building_Farm_L1_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Universal_Building_Factory_L1_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Universal_Building_Sawmill_L1_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plain_Building_Residential_L1_0X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Universal_Building_Factory_L2_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Universal_Building_Factory_L3_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Universal_Building_Market_L2_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Universal_Building_Market_L3_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Universal_Building_Sawmill_L2_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Universal_Building_Sawmill_L3_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Universal_Building_Warehouse_L2_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Universal_Building_Warehouse_L3_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Universal_Building_Government_L1_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1019,7 +1030,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O12" sqref="O12"/>
+      <selection pane="topRight" activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1103,10 +1114,10 @@
         <v>51</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -1168,10 +1179,10 @@
         <v>21</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -1179,10 +1190,10 @@
         <v>20001</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
@@ -1218,13 +1229,13 @@
         <v>26</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="R3" s="1">
         <v>1</v>
@@ -1236,7 +1247,7 @@
         <v>1</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
@@ -1244,10 +1255,10 @@
         <v>20002</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
@@ -1301,7 +1312,7 @@
         <v>1</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
@@ -1354,19 +1365,19 @@
         <v>22</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>90</v>
+        <v>149</v>
       </c>
       <c r="R5" s="1">
         <v>4</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="T5" s="5">
         <v>1</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
@@ -1374,10 +1385,10 @@
         <v>20004</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>62</v>
@@ -1413,13 +1424,13 @@
         <v>26</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="R6" s="1">
         <v>4</v>
@@ -1431,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
@@ -1484,7 +1495,7 @@
         <v>22</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="R7" s="1">
         <v>2</v>
@@ -1496,7 +1507,7 @@
         <v>1</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
@@ -1543,13 +1554,13 @@
         <v>26</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R8" s="1">
         <v>2</v>
@@ -1561,7 +1572,7 @@
         <v>1</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
@@ -1569,10 +1580,10 @@
         <v>20007</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>57</v>
@@ -1614,7 +1625,7 @@
         <v>22</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>89</v>
+        <v>153</v>
       </c>
       <c r="R9" s="1">
         <v>3</v>
@@ -1626,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
@@ -1673,13 +1684,13 @@
         <v>26</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>86</v>
+        <v>154</v>
       </c>
       <c r="R10" s="1">
         <v>2</v>
@@ -1691,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
@@ -1699,10 +1710,10 @@
         <v>20009</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
@@ -1711,7 +1722,7 @@
         <v>56</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="G11" s="1">
         <v>100</v>
@@ -1738,13 +1749,13 @@
         <v>26</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="R11" s="1">
         <v>1</v>
@@ -1756,7 +1767,7 @@
         <v>2</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
@@ -1776,7 +1787,7 @@
         <v>54</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="G12" s="1">
         <v>100</v>
@@ -1809,7 +1820,7 @@
         <v>22</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>81</v>
+        <v>156</v>
       </c>
       <c r="R12" s="1">
         <v>3</v>
@@ -1821,7 +1832,7 @@
         <v>2</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
@@ -1829,10 +1840,10 @@
         <v>20011</v>
       </c>
       <c r="B13" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>57</v>
@@ -1841,7 +1852,7 @@
         <v>54</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="G13" s="1">
         <v>100</v>
@@ -1874,7 +1885,7 @@
         <v>22</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="R13" s="1">
         <v>3</v>
@@ -1886,7 +1897,7 @@
         <v>3</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
@@ -1894,10 +1905,10 @@
         <v>20012</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>62</v>
@@ -1906,7 +1917,7 @@
         <v>14</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="G14" s="1">
         <v>100</v>
@@ -1939,7 +1950,7 @@
         <v>22</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="R14" s="1">
         <v>4</v>
@@ -1951,7 +1962,7 @@
         <v>2</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
@@ -1959,10 +1970,10 @@
         <v>20013</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C15" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>62</v>
@@ -1971,7 +1982,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="G15" s="1">
         <v>100</v>
@@ -2004,7 +2015,7 @@
         <v>22</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>84</v>
+        <v>159</v>
       </c>
       <c r="R15" s="1">
         <v>4</v>
@@ -2016,7 +2027,7 @@
         <v>3</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
@@ -2027,7 +2038,7 @@
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>64</v>
@@ -2069,7 +2080,7 @@
         <v>22</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="R16" s="1">
         <v>2</v>
@@ -2081,7 +2092,7 @@
         <v>2</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
@@ -2092,7 +2103,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>64</v>
@@ -2101,7 +2112,7 @@
         <v>55</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="G17" s="1">
         <v>100</v>
@@ -2134,7 +2145,7 @@
         <v>22</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>88</v>
+        <v>161</v>
       </c>
       <c r="R17" s="1">
         <v>2</v>
@@ -2146,7 +2157,7 @@
         <v>3</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
@@ -2154,10 +2165,10 @@
         <v>20016</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>61</v>
@@ -2199,7 +2210,7 @@
         <v>22</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="R18" s="1">
         <v>4</v>
@@ -2211,7 +2222,7 @@
         <v>2</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
@@ -2219,10 +2230,10 @@
         <v>20017</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>61</v>
@@ -2264,7 +2275,7 @@
         <v>22</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="R19" s="1">
         <v>4</v>
@@ -2276,7 +2287,7 @@
         <v>3</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
@@ -2284,10 +2295,10 @@
         <v>20018</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="C20" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
@@ -2341,7 +2352,7 @@
         <v>2</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
@@ -2349,10 +2360,10 @@
         <v>20019</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C21" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D21" s="3">
         <v>0</v>
@@ -2406,7 +2417,7 @@
         <v>3</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
@@ -2414,19 +2425,19 @@
         <v>20020</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="G22" s="1">
         <v>100</v>
@@ -2435,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>14</v>
@@ -2450,28 +2461,28 @@
         <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q22" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="R22" s="1">
         <v>5</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="T22" s="5">
         <v>1</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A705FBDB-D536-49ED-AB5C-0ED9F8AC07C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7901BD3F-38E8-4553-8CF9-B2EE8AE7BAFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="211">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -375,10 +375,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Cottage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>乡间小道</t>
   </si>
   <si>
@@ -386,9 +382,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Large residential</t>
-  </si>
-  <si>
     <t>工坊</t>
   </si>
   <si>
@@ -451,10 +444,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>政府</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -669,6 +658,197 @@
   </si>
   <si>
     <t>Universal_Building_Government_L1_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府一级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warehouse Lv2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GovernmentLv2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GovernmentLv3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Universal_Building_Government_L2_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Universal_Building_Government_L3_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlainResidentialLv1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoggingCampsLv2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoggingCampsLv3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoachResidential</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoachResidentialLv2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoachResidentialLv3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海岸公寓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coach_Building_Residential_L1_0X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coach_Building_Residential_L2_0X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coach_Building_Residential_L3_0X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HuiResidential</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HuiResidentialLv2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HuiResidentialLv3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徽式民宅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hui_Building_Residential_L1_0X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hui_Building_Residential_L2_0X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hui_Building_Residential_L3_0X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoachLv1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoachLv2</t>
+  </si>
+  <si>
+    <t>CoachLv3</t>
+  </si>
+  <si>
+    <t>HuiLv1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HuiLv2</t>
+  </si>
+  <si>
+    <t>HuiLv3</t>
+  </si>
+  <si>
+    <t>PlainResidentialLv2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿井</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产矿物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MineLv1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MineLv2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MineLv3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20029</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70,70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Universal_Building_Mine_L1</t>
+  </si>
+  <si>
+    <t>Universal_Building_Mine_L2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Universal_Building_Mine_L3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1026,16 +1206,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P13" sqref="P13"/>
+      <pane xSplit="3" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
     <col min="3" max="3" width="10.375" customWidth="1"/>
     <col min="4" max="4" width="18.25" style="4" customWidth="1"/>
     <col min="5" max="5" width="24.375" style="4" customWidth="1"/>
@@ -1117,7 +1297,7 @@
         <v>84</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -1182,7 +1362,7 @@
         <v>85</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -1190,7 +1370,7 @@
         <v>20001</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>168</v>
       </c>
       <c r="C3" t="s">
         <v>87</v>
@@ -1217,7 +1397,7 @@
         <v>20009</v>
       </c>
       <c r="K3" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L3" s="1">
         <v>3</v>
@@ -1229,13 +1409,13 @@
         <v>26</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="R3" s="1">
         <v>1</v>
@@ -1247,7 +1427,7 @@
         <v>1</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
@@ -1255,10 +1435,10 @@
         <v>20002</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
@@ -1312,7 +1492,7 @@
         <v>1</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
@@ -1365,19 +1545,19 @@
         <v>22</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="R5" s="1">
         <v>4</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="T5" s="5">
         <v>1</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
@@ -1385,10 +1565,10 @@
         <v>20004</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>62</v>
@@ -1424,13 +1604,13 @@
         <v>26</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="R6" s="1">
         <v>4</v>
@@ -1442,7 +1622,7 @@
         <v>1</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
@@ -1495,7 +1675,7 @@
         <v>22</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="R7" s="1">
         <v>2</v>
@@ -1507,7 +1687,7 @@
         <v>1</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
@@ -1554,13 +1734,13 @@
         <v>26</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="R8" s="1">
         <v>2</v>
@@ -1572,7 +1752,7 @@
         <v>1</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
@@ -1580,10 +1760,10 @@
         <v>20007</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>57</v>
@@ -1625,7 +1805,7 @@
         <v>22</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="R9" s="1">
         <v>3</v>
@@ -1637,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
@@ -1684,13 +1864,13 @@
         <v>26</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R10" s="1">
         <v>2</v>
@@ -1702,18 +1882,18 @@
         <v>1</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>20009</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>91</v>
+      <c r="B11" t="s">
+        <v>195</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
@@ -1722,7 +1902,7 @@
         <v>56</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G11" s="1">
         <v>100</v>
@@ -1749,13 +1929,13 @@
         <v>26</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="R11" s="1">
         <v>1</v>
@@ -1767,7 +1947,7 @@
         <v>2</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
@@ -1787,7 +1967,7 @@
         <v>54</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G12" s="1">
         <v>100</v>
@@ -1820,7 +2000,7 @@
         <v>22</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="R12" s="1">
         <v>3</v>
@@ -1832,7 +2012,7 @@
         <v>2</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
@@ -1840,10 +2020,10 @@
         <v>20011</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>57</v>
@@ -1852,7 +2032,7 @@
         <v>54</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G13" s="1">
         <v>100</v>
@@ -1885,7 +2065,7 @@
         <v>22</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="R13" s="1">
         <v>3</v>
@@ -1897,7 +2077,7 @@
         <v>3</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
@@ -1905,10 +2085,10 @@
         <v>20012</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>62</v>
@@ -1917,7 +2097,7 @@
         <v>14</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G14" s="1">
         <v>100</v>
@@ -1950,7 +2130,7 @@
         <v>22</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="R14" s="1">
         <v>4</v>
@@ -1962,7 +2142,7 @@
         <v>2</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
@@ -1970,10 +2150,10 @@
         <v>20013</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>62</v>
@@ -1982,7 +2162,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G15" s="1">
         <v>100</v>
@@ -2015,7 +2195,7 @@
         <v>22</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="R15" s="1">
         <v>4</v>
@@ -2027,7 +2207,7 @@
         <v>3</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
@@ -2035,7 +2215,7 @@
         <v>20014</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>80</v>
@@ -2080,7 +2260,7 @@
         <v>22</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="R16" s="1">
         <v>2</v>
@@ -2092,7 +2272,7 @@
         <v>2</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
@@ -2100,7 +2280,7 @@
         <v>20015</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>6</v>
+        <v>170</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>81</v>
@@ -2112,7 +2292,7 @@
         <v>55</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G17" s="1">
         <v>100</v>
@@ -2145,7 +2325,7 @@
         <v>22</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="R17" s="1">
         <v>2</v>
@@ -2157,7 +2337,7 @@
         <v>3</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
@@ -2165,7 +2345,7 @@
         <v>20016</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>86</v>
+        <v>163</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>82</v>
@@ -2210,7 +2390,7 @@
         <v>22</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="R18" s="1">
         <v>4</v>
@@ -2222,7 +2402,7 @@
         <v>2</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
@@ -2275,7 +2455,7 @@
         <v>22</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="R19" s="1">
         <v>4</v>
@@ -2287,7 +2467,7 @@
         <v>3</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
@@ -2295,10 +2475,10 @@
         <v>20018</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" t="s">
         <v>102</v>
-      </c>
-      <c r="C20" t="s">
-        <v>104</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
@@ -2352,7 +2532,7 @@
         <v>2</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
@@ -2360,10 +2540,10 @@
         <v>20019</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" t="s">
         <v>103</v>
-      </c>
-      <c r="C21" t="s">
-        <v>105</v>
       </c>
       <c r="D21" s="3">
         <v>0</v>
@@ -2417,7 +2597,7 @@
         <v>3</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
@@ -2425,19 +2605,19 @@
         <v>20020</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G22" s="1">
         <v>100</v>
@@ -2446,10 +2626,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>110</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>14</v>
+        <v>107</v>
+      </c>
+      <c r="J22" s="1">
+        <v>20021</v>
       </c>
       <c r="K22" s="1">
         <v>8</v>
@@ -2461,28 +2641,743 @@
         <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q22" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="R22" s="1">
         <v>5</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="T22" s="5">
         <v>1</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>20021</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G23" s="1">
+        <v>100</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>20020</v>
+      </c>
+      <c r="J23" s="1">
+        <v>20022</v>
+      </c>
+      <c r="K23" s="1">
+        <v>8</v>
+      </c>
+      <c r="L23" s="1">
+        <v>8</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>166</v>
+      </c>
+      <c r="R23" s="1">
+        <v>5</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="T23" s="5">
+        <v>2</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>20022</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G24" s="1">
+        <v>100</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>20021</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" s="1">
+        <v>8</v>
+      </c>
+      <c r="L24" s="1">
+        <v>8</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>167</v>
+      </c>
+      <c r="R24" s="1">
+        <v>5</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="T24" s="5">
+        <v>3</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>20023</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G25" s="1">
+        <v>100</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>178</v>
+      </c>
+      <c r="J25" s="1">
+        <v>20024</v>
+      </c>
+      <c r="K25" s="1">
+        <v>4</v>
+      </c>
+      <c r="L25" s="1">
+        <v>4</v>
+      </c>
+      <c r="M25" s="1">
+        <v>60</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="R25" s="1">
+        <v>1</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="T25" s="5">
+        <v>1</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>20024</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G26" s="1">
+        <v>100</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>20023</v>
+      </c>
+      <c r="J26" s="1">
+        <v>20025</v>
+      </c>
+      <c r="K26" s="1">
+        <v>4</v>
+      </c>
+      <c r="L26" s="1">
+        <v>4</v>
+      </c>
+      <c r="M26" s="1">
+        <v>90</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>180</v>
+      </c>
+      <c r="R26" s="1">
+        <v>1</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="T26" s="5">
+        <v>2</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>20025</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G27" s="1">
+        <v>100</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>20024</v>
+      </c>
+      <c r="J27" t="s">
+        <v>178</v>
+      </c>
+      <c r="K27" s="1">
+        <v>4</v>
+      </c>
+      <c r="L27" s="1">
+        <v>4</v>
+      </c>
+      <c r="M27" s="1">
+        <v>90</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>181</v>
+      </c>
+      <c r="R27" s="1">
+        <v>1</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="T27" s="5">
+        <v>3</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>20026</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G28" s="1">
+        <v>100</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J28" s="1">
+        <v>20027</v>
+      </c>
+      <c r="K28" s="1">
+        <v>4</v>
+      </c>
+      <c r="L28" s="1">
+        <v>4</v>
+      </c>
+      <c r="M28" s="1">
+        <v>60</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="R28" s="1">
+        <v>1</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="T28" s="5">
+        <v>1</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>20027</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G29" s="1">
+        <v>100</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>20026</v>
+      </c>
+      <c r="J29" s="1">
+        <v>20028</v>
+      </c>
+      <c r="K29" s="1">
+        <v>4</v>
+      </c>
+      <c r="L29" s="1">
+        <v>4</v>
+      </c>
+      <c r="M29" s="1">
+        <v>90</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>187</v>
+      </c>
+      <c r="R29" s="1">
+        <v>1</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="T29" s="5">
+        <v>2</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>20028</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G30" s="1">
+        <v>100</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>20027</v>
+      </c>
+      <c r="J30" t="s">
+        <v>178</v>
+      </c>
+      <c r="K30" s="1">
+        <v>4</v>
+      </c>
+      <c r="L30" s="1">
+        <v>4</v>
+      </c>
+      <c r="M30" s="1">
+        <v>90</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>188</v>
+      </c>
+      <c r="R30" s="1">
+        <v>1</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="T30" s="5">
+        <v>3</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>20029</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G31" s="1">
+        <v>100</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" s="1">
+        <v>20030</v>
+      </c>
+      <c r="K31" s="1">
+        <v>10</v>
+      </c>
+      <c r="L31" s="1">
+        <v>20</v>
+      </c>
+      <c r="M31" s="1">
+        <v>300</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>208</v>
+      </c>
+      <c r="R31" s="1">
+        <v>3</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="T31" s="5">
+        <v>1</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>20030</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G32" s="1">
+        <v>100</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="J32" s="1">
+        <v>20031</v>
+      </c>
+      <c r="K32" s="1">
+        <v>10</v>
+      </c>
+      <c r="L32" s="1">
+        <v>20</v>
+      </c>
+      <c r="M32" s="1">
+        <v>300</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>209</v>
+      </c>
+      <c r="R32" s="1">
+        <v>3</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="T32" s="5">
+        <v>2</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>20031</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G33" s="1">
+        <v>100</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>20030</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33" s="1">
+        <v>10</v>
+      </c>
+      <c r="L33" s="1">
+        <v>20</v>
+      </c>
+      <c r="M33" s="1">
+        <v>300</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>210</v>
+      </c>
+      <c r="R33" s="1">
+        <v>3</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="T33" s="5">
+        <v>3</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7901BD3F-38E8-4553-8CF9-B2EE8AE7BAFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BBA884-F9BD-4160-92EA-5BC81FA2AF83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="219">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -621,10 +621,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Plain_Building_Residential_L1_0X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Universal_Building_Factory_L2_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -849,6 +845,42 @@
   </si>
   <si>
     <t>Universal_Building_Mine_L3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plain_Building_Residential_L2_0X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渔港</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕捞鱼类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PierL1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coach_Building_Pier_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1206,11 +1238,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U33"/>
+  <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q27" sqref="Q27"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1370,7 +1402,7 @@
         <v>20001</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C3" t="s">
         <v>87</v>
@@ -1890,7 +1922,7 @@
         <v>20009</v>
       </c>
       <c r="B11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C11" t="s">
         <v>89</v>
@@ -1935,7 +1967,7 @@
         <v>22</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="R11" s="1">
         <v>1</v>
@@ -2000,7 +2032,7 @@
         <v>22</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R12" s="1">
         <v>3</v>
@@ -2065,7 +2097,7 @@
         <v>22</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R13" s="1">
         <v>3</v>
@@ -2130,7 +2162,7 @@
         <v>22</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R14" s="1">
         <v>4</v>
@@ -2195,7 +2227,7 @@
         <v>22</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R15" s="1">
         <v>4</v>
@@ -2215,7 +2247,7 @@
         <v>20014</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>80</v>
@@ -2260,7 +2292,7 @@
         <v>22</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R16" s="1">
         <v>2</v>
@@ -2280,7 +2312,7 @@
         <v>20015</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>81</v>
@@ -2325,7 +2357,7 @@
         <v>22</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R17" s="1">
         <v>2</v>
@@ -2345,7 +2377,7 @@
         <v>20016</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>82</v>
@@ -2390,7 +2422,7 @@
         <v>22</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R18" s="1">
         <v>4</v>
@@ -2455,7 +2487,7 @@
         <v>22</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R19" s="1">
         <v>4</v>
@@ -2608,7 +2640,7 @@
         <v>111</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>106</v>
@@ -2650,7 +2682,7 @@
         <v>22</v>
       </c>
       <c r="Q22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R22" s="1">
         <v>5</v>
@@ -2670,10 +2702,10 @@
         <v>20021</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>106</v>
@@ -2715,7 +2747,7 @@
         <v>22</v>
       </c>
       <c r="Q23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R23" s="1">
         <v>5</v>
@@ -2735,10 +2767,10 @@
         <v>20022</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>106</v>
@@ -2780,7 +2812,7 @@
         <v>22</v>
       </c>
       <c r="Q24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="R24" s="1">
         <v>5</v>
@@ -2800,19 +2832,19 @@
         <v>20023</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>56</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G25" s="1">
         <v>100</v>
@@ -2821,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J25" s="1">
         <v>20024</v>
@@ -2845,19 +2877,19 @@
         <v>22</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R25" s="1">
         <v>1</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T25" s="5">
         <v>1</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
@@ -2865,19 +2897,19 @@
         <v>20024</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>56</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G26" s="1">
         <v>100</v>
@@ -2910,19 +2942,19 @@
         <v>22</v>
       </c>
       <c r="Q26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R26" s="1">
         <v>1</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T26" s="5">
         <v>2</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
@@ -2930,19 +2962,19 @@
         <v>20025</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>56</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G27" s="1">
         <v>100</v>
@@ -2954,7 +2986,7 @@
         <v>20024</v>
       </c>
       <c r="J27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K27" s="1">
         <v>4</v>
@@ -2975,19 +3007,19 @@
         <v>22</v>
       </c>
       <c r="Q27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R27" s="1">
         <v>1</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T27" s="5">
         <v>3</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
@@ -2995,19 +3027,19 @@
         <v>20026</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>56</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G28" s="1">
         <v>100</v>
@@ -3016,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J28" s="1">
         <v>20027</v>
@@ -3040,19 +3072,19 @@
         <v>22</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="R28" s="1">
         <v>1</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T28" s="5">
         <v>1</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
@@ -3060,19 +3092,19 @@
         <v>20027</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>56</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G29" s="1">
         <v>100</v>
@@ -3105,19 +3137,19 @@
         <v>22</v>
       </c>
       <c r="Q29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R29" s="1">
         <v>1</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T29" s="5">
         <v>2</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
@@ -3125,19 +3157,19 @@
         <v>20028</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="D30" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>56</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G30" s="1">
         <v>100</v>
@@ -3149,7 +3181,7 @@
         <v>20027</v>
       </c>
       <c r="J30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K30" s="1">
         <v>4</v>
@@ -3170,19 +3202,19 @@
         <v>22</v>
       </c>
       <c r="Q30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="R30" s="1">
         <v>1</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T30" s="5">
         <v>3</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
@@ -3190,19 +3222,19 @@
         <v>20029</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="E31" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="F31" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>200</v>
       </c>
       <c r="G31" s="1">
         <v>100</v>
@@ -3217,10 +3249,10 @@
         <v>20030</v>
       </c>
       <c r="K31" s="1">
+        <v>20</v>
+      </c>
+      <c r="L31" s="1">
         <v>10</v>
-      </c>
-      <c r="L31" s="1">
-        <v>20</v>
       </c>
       <c r="M31" s="1">
         <v>300</v>
@@ -3235,19 +3267,19 @@
         <v>22</v>
       </c>
       <c r="Q31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="R31" s="1">
         <v>3</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="T31" s="5">
         <v>1</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
@@ -3255,19 +3287,19 @@
         <v>20030</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="E32" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="F32" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>200</v>
       </c>
       <c r="G32" s="1">
         <v>100</v>
@@ -3276,16 +3308,16 @@
         <v>0</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J32" s="1">
         <v>20031</v>
       </c>
       <c r="K32" s="1">
+        <v>20</v>
+      </c>
+      <c r="L32" s="1">
         <v>10</v>
-      </c>
-      <c r="L32" s="1">
-        <v>20</v>
       </c>
       <c r="M32" s="1">
         <v>300</v>
@@ -3294,25 +3326,25 @@
         <v>26</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P32" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q32" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="R32" s="1">
         <v>3</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="T32" s="5">
         <v>2</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
@@ -3320,19 +3352,19 @@
         <v>20031</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="E33" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="F33" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>200</v>
       </c>
       <c r="G33" s="1">
         <v>100</v>
@@ -3347,10 +3379,10 @@
         <v>14</v>
       </c>
       <c r="K33" s="1">
+        <v>20</v>
+      </c>
+      <c r="L33" s="1">
         <v>10</v>
-      </c>
-      <c r="L33" s="1">
-        <v>20</v>
       </c>
       <c r="M33" s="1">
         <v>300</v>
@@ -3359,25 +3391,90 @@
         <v>26</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="R33" s="1">
         <v>3</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="T33" s="5">
         <v>3</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>20032</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="G34" s="1">
+        <v>100</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34" s="1">
+        <v>10</v>
+      </c>
+      <c r="L34" s="1">
+        <v>10</v>
+      </c>
+      <c r="M34" s="1">
+        <v>250</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>218</v>
+      </c>
+      <c r="R34" s="1">
+        <v>3</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="T34" s="5">
+        <v>1</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BBA884-F9BD-4160-92EA-5BC81FA2AF83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3269E1D4-43DF-4651-8859-1591AC0A0EE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="221">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -765,26 +765,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CoachLv1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CoachLv2</t>
-  </si>
-  <si>
-    <t>CoachLv3</t>
-  </si>
-  <si>
-    <t>HuiLv1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HuiLv2</t>
-  </si>
-  <si>
-    <t>HuiLv3</t>
-  </si>
-  <si>
     <t>PlainResidentialLv2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -813,10 +793,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MineLv1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MineLv2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -876,11 +852,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PierL1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Coach_Building_Pier_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HookerL1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MineL3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MineL2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MineL1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HuiL3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HuiL2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HuiL1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoachL3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoachL2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoachL1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1240,9 +1252,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q31" sqref="Q31"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V32" sqref="V32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1922,7 +1934,7 @@
         <v>20009</v>
       </c>
       <c r="B11" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C11" t="s">
         <v>89</v>
@@ -1967,7 +1979,7 @@
         <v>22</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="R11" s="1">
         <v>1</v>
@@ -2889,7 +2901,7 @@
         <v>1</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
@@ -2954,7 +2966,7 @@
         <v>2</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
@@ -3019,7 +3031,7 @@
         <v>3</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
@@ -3084,7 +3096,7 @@
         <v>1</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
@@ -3149,7 +3161,7 @@
         <v>2</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
@@ -3214,7 +3226,7 @@
         <v>3</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
@@ -3222,19 +3234,19 @@
         <v>20029</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G31" s="1">
         <v>100</v>
@@ -3267,19 +3279,19 @@
         <v>22</v>
       </c>
       <c r="Q31" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="R31" s="1">
         <v>3</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="T31" s="5">
         <v>1</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
@@ -3287,19 +3299,19 @@
         <v>20030</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G32" s="1">
         <v>100</v>
@@ -3308,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="J32" s="1">
         <v>20031</v>
@@ -3326,25 +3338,25 @@
         <v>26</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="P32" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q32" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="R32" s="1">
         <v>3</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="T32" s="5">
         <v>2</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
@@ -3352,19 +3364,19 @@
         <v>20031</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G33" s="1">
         <v>100</v>
@@ -3391,25 +3403,25 @@
         <v>26</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q33" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="R33" s="1">
         <v>3</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="T33" s="5">
         <v>3</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
@@ -3417,19 +3429,19 @@
         <v>20032</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G34" s="1">
         <v>100</v>
@@ -3456,25 +3468,25 @@
         <v>26</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="P34" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q34" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="R34" s="1">
         <v>3</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="T34" s="5">
         <v>1</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bishe\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3269E1D4-43DF-4651-8859-1591AC0A0EE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C38F97-C3FB-4250-A731-45E719D34FD3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="232">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -239,10 +239,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>50003,50004,50005,50008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>50009</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -709,10 +705,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -773,14 +765,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>矿井</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>50011</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -836,10 +820,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>50012</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -893,6 +873,70 @@
   </si>
   <si>
     <t>CoachL1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府二级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府三级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海岸公寓一级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海岸公寓二级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海岸公寓三级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徽式民宅一级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徽式民宅二级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徽式民宅三级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿井一级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿井二级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿井三级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50003,50004,50008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础民房，可以提供劳动力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1252,9 +1296,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V32" sqref="V32"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1266,6 +1310,7 @@
     <col min="6" max="6" width="23.125" style="4" customWidth="1"/>
     <col min="7" max="7" width="23.25" customWidth="1"/>
     <col min="8" max="8" width="18.375" customWidth="1"/>
+    <col min="9" max="9" width="9" style="4"/>
     <col min="11" max="11" width="17.875" customWidth="1"/>
     <col min="12" max="12" width="15.75" customWidth="1"/>
     <col min="13" max="13" width="14.75" customWidth="1"/>
@@ -1304,7 +1349,7 @@
       <c r="H1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>41</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -1338,10 +1383,10 @@
         <v>51</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -1369,7 +1414,7 @@
       <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -1403,10 +1448,10 @@
         <v>21</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -1414,16 +1459,16 @@
         <v>20001</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>228</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F3" s="3">
         <v>-10</v>
@@ -1434,7 +1479,7 @@
       <c r="H3" s="1">
         <v>0</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J3" s="1">
@@ -1453,25 +1498,25 @@
         <v>26</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R3" s="1">
         <v>1</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>23</v>
+        <v>231</v>
       </c>
       <c r="T3" s="5">
         <v>1</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
@@ -1479,10 +1524,10 @@
         <v>20002</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
@@ -1499,7 +1544,7 @@
       <c r="H4" s="1">
         <v>0</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J4" s="1">
@@ -1530,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T4" s="5">
         <v>1</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
@@ -1547,16 +1592,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G5" s="1">
         <v>100</v>
@@ -1564,7 +1609,7 @@
       <c r="H5" s="1">
         <v>50</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J5" s="1">
@@ -1589,19 +1634,19 @@
         <v>22</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R5" s="1">
         <v>4</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="T5" s="5">
         <v>1</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
@@ -1609,19 +1654,19 @@
         <v>20004</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>62</v>
+        <v>229</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G6" s="1">
         <v>100</v>
@@ -1629,7 +1674,7 @@
       <c r="H6" s="1">
         <v>200</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J6" s="1">
@@ -1648,25 +1693,25 @@
         <v>26</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R6" s="1">
         <v>4</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T6" s="5">
         <v>1</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
@@ -1677,16 +1722,16 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>52</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G7" s="1">
         <v>100</v>
@@ -1694,7 +1739,7 @@
       <c r="H7" s="1">
         <v>5</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -1713,25 +1758,25 @@
         <v>29</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R7" s="1">
         <v>2</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T7" s="5">
         <v>1</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
@@ -1742,16 +1787,16 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G8" s="1">
         <v>100</v>
@@ -1759,7 +1804,7 @@
       <c r="H8" s="1">
         <v>30</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -1778,25 +1823,25 @@
         <v>26</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R8" s="1">
         <v>2</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T8" s="5">
         <v>1</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
@@ -1804,19 +1849,19 @@
         <v>20007</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>54</v>
+        <v>230</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="1">
         <v>100</v>
@@ -1824,7 +1869,7 @@
       <c r="H9" s="1">
         <v>45</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J9" s="1">
@@ -1843,25 +1888,25 @@
         <v>26</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R9" s="1">
         <v>3</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T9" s="5">
         <v>1</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
@@ -1872,16 +1917,16 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G10" s="1">
         <v>100</v>
@@ -1889,7 +1934,7 @@
       <c r="H10" s="1">
         <v>60</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J10" s="1">
@@ -1908,25 +1953,25 @@
         <v>26</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="R10" s="1">
         <v>2</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T10" s="5">
         <v>1</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
@@ -1934,19 +1979,19 @@
         <v>20009</v>
       </c>
       <c r="B11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G11" s="1">
         <v>100</v>
@@ -1954,7 +1999,7 @@
       <c r="H11" s="1">
         <v>0</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="3">
         <v>20001</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -1973,13 +2018,13 @@
         <v>26</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="R11" s="1">
         <v>1</v>
@@ -1991,7 +2036,7 @@
         <v>2</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
@@ -2002,16 +2047,16 @@
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>54</v>
+        <v>230</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G12" s="1">
         <v>100</v>
@@ -2019,7 +2064,7 @@
       <c r="H12" s="1">
         <v>45</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="3">
         <v>20007</v>
       </c>
       <c r="J12" s="1">
@@ -2038,25 +2083,25 @@
         <v>26</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R12" s="1">
         <v>3</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T12" s="5">
         <v>2</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
@@ -2064,19 +2109,19 @@
         <v>20011</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>54</v>
+        <v>230</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G13" s="1">
         <v>100</v>
@@ -2084,7 +2129,7 @@
       <c r="H13" s="1">
         <v>45</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="3">
         <v>20010</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -2103,25 +2148,25 @@
         <v>26</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R13" s="1">
         <v>3</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T13" s="5">
         <v>3</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
@@ -2129,19 +2174,19 @@
         <v>20012</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G14" s="1">
         <v>100</v>
@@ -2149,7 +2194,7 @@
       <c r="H14" s="1">
         <v>200</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="3">
         <v>20004</v>
       </c>
       <c r="J14" s="1">
@@ -2168,25 +2213,25 @@
         <v>26</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R14" s="1">
         <v>4</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T14" s="5">
         <v>2</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
@@ -2194,19 +2239,19 @@
         <v>20013</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>62</v>
+        <v>136</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G15" s="1">
         <v>100</v>
@@ -2214,7 +2259,7 @@
       <c r="H15" s="1">
         <v>200</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="3">
         <v>20012</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -2233,25 +2278,25 @@
         <v>26</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R15" s="1">
         <v>4</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T15" s="5">
         <v>3</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
@@ -2259,19 +2304,19 @@
         <v>20014</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>64</v>
+        <v>227</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G16" s="1">
         <v>100</v>
@@ -2279,7 +2324,7 @@
       <c r="H16" s="1">
         <v>60</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="3">
         <v>20008</v>
       </c>
       <c r="J16" s="1">
@@ -2298,25 +2343,25 @@
         <v>26</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R16" s="1">
         <v>2</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T16" s="5">
         <v>2</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
@@ -2324,19 +2369,19 @@
         <v>20015</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>64</v>
+        <v>229</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G17" s="1">
         <v>100</v>
@@ -2344,7 +2389,7 @@
       <c r="H17" s="1">
         <v>60</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="3">
         <v>20014</v>
       </c>
       <c r="J17" s="1" t="s">
@@ -2363,25 +2408,25 @@
         <v>26</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R17" s="1">
         <v>2</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T17" s="5">
         <v>3</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
@@ -2389,19 +2434,19 @@
         <v>20016</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G18" s="1">
         <v>100</v>
@@ -2409,7 +2454,7 @@
       <c r="H18" s="1">
         <v>50</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="3">
         <v>20003</v>
       </c>
       <c r="J18" s="1">
@@ -2434,19 +2479,19 @@
         <v>22</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R18" s="1">
         <v>4</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T18" s="5">
         <v>2</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
@@ -2454,19 +2499,19 @@
         <v>20017</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>61</v>
+        <v>138</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G19" s="1">
         <v>100</v>
@@ -2474,7 +2519,7 @@
       <c r="H19" s="1">
         <v>50</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="3">
         <v>20016</v>
       </c>
       <c r="J19" s="1" t="s">
@@ -2499,19 +2544,19 @@
         <v>22</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R19" s="1">
         <v>4</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T19" s="5">
         <v>3</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
@@ -2519,10 +2564,10 @@
         <v>20018</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
@@ -2539,7 +2584,7 @@
       <c r="H20" s="1">
         <v>0</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="3">
         <v>20002</v>
       </c>
       <c r="J20" s="1">
@@ -2570,13 +2615,13 @@
         <v>0</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T20" s="5">
         <v>2</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
@@ -2584,10 +2629,10 @@
         <v>20019</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D21" s="3">
         <v>0</v>
@@ -2604,7 +2649,7 @@
       <c r="H21" s="1">
         <v>0</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="3">
         <v>20018</v>
       </c>
       <c r="J21" s="1" t="s">
@@ -2635,13 +2680,13 @@
         <v>0</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T21" s="5">
         <v>3</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
@@ -2649,19 +2694,19 @@
         <v>20020</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G22" s="1">
         <v>100</v>
@@ -2669,8 +2714,8 @@
       <c r="H22" s="1">
         <v>0</v>
       </c>
-      <c r="I22" t="s">
-        <v>107</v>
+      <c r="I22" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="J22" s="1">
         <v>20021</v>
@@ -2685,28 +2730,28 @@
         <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="O22" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R22" s="1">
         <v>5</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="T22" s="5">
         <v>1</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
@@ -2714,19 +2759,19 @@
         <v>20021</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>161</v>
+        <v>216</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G23" s="1">
         <v>100</v>
@@ -2734,7 +2779,7 @@
       <c r="H23" s="1">
         <v>0</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="4">
         <v>20020</v>
       </c>
       <c r="J23" s="1">
@@ -2750,22 +2795,22 @@
         <v>0</v>
       </c>
       <c r="N23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="O23" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R23" s="1">
         <v>5</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="T23" s="5">
         <v>2</v>
@@ -2779,19 +2824,19 @@
         <v>20022</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>161</v>
+        <v>217</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G24" s="1">
         <v>100</v>
@@ -2799,7 +2844,7 @@
       <c r="H24" s="1">
         <v>0</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="4">
         <v>20021</v>
       </c>
       <c r="J24" s="1" t="s">
@@ -2815,22 +2860,22 @@
         <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="O24" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R24" s="1">
         <v>5</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="T24" s="5">
         <v>3</v>
@@ -2844,19 +2889,19 @@
         <v>20023</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="G25" s="1">
         <v>100</v>
@@ -2864,8 +2909,8 @@
       <c r="H25" s="1">
         <v>0</v>
       </c>
-      <c r="I25" t="s">
-        <v>177</v>
+      <c r="I25" s="4" t="s">
+        <v>175</v>
       </c>
       <c r="J25" s="1">
         <v>20024</v>
@@ -2883,25 +2928,25 @@
         <v>26</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="R25" s="1">
         <v>1</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="T25" s="5">
         <v>1</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
@@ -2909,19 +2954,19 @@
         <v>20024</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="D26" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="G26" s="1">
         <v>100</v>
@@ -2929,7 +2974,7 @@
       <c r="H26" s="1">
         <v>0</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="4">
         <v>20023</v>
       </c>
       <c r="J26" s="1">
@@ -2948,25 +2993,25 @@
         <v>26</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q26" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="R26" s="1">
         <v>1</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="T26" s="5">
         <v>2</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
@@ -2974,19 +3019,19 @@
         <v>20025</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>173</v>
+        <v>220</v>
       </c>
       <c r="D27" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="G27" s="1">
         <v>100</v>
@@ -2994,11 +3039,11 @@
       <c r="H27" s="1">
         <v>0</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="4">
         <v>20024</v>
       </c>
       <c r="J27" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K27" s="1">
         <v>4</v>
@@ -3013,25 +3058,25 @@
         <v>26</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q27" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="R27" s="1">
         <v>1</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="T27" s="5">
         <v>3</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
@@ -3039,19 +3084,19 @@
         <v>20026</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>184</v>
+        <v>221</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>174</v>
+        <v>228</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G28" s="1">
         <v>100</v>
@@ -3059,8 +3104,8 @@
       <c r="H28" s="1">
         <v>0</v>
       </c>
-      <c r="I28" t="s">
-        <v>177</v>
+      <c r="I28" s="4" t="s">
+        <v>175</v>
       </c>
       <c r="J28" s="1">
         <v>20027</v>
@@ -3078,25 +3123,25 @@
         <v>26</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P28" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="R28" s="1">
         <v>1</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="T28" s="5">
         <v>1</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
@@ -3104,19 +3149,19 @@
         <v>20027</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>184</v>
+        <v>222</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>174</v>
+        <v>62</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G29" s="1">
         <v>100</v>
@@ -3124,7 +3169,7 @@
       <c r="H29" s="1">
         <v>0</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="4">
         <v>20026</v>
       </c>
       <c r="J29" s="1">
@@ -3143,25 +3188,25 @@
         <v>26</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q29" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="R29" s="1">
         <v>1</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="T29" s="5">
         <v>2</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
@@ -3169,19 +3214,19 @@
         <v>20028</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>184</v>
+        <v>223</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>174</v>
+        <v>60</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G30" s="1">
         <v>100</v>
@@ -3189,11 +3234,11 @@
       <c r="H30" s="1">
         <v>0</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="4">
         <v>20027</v>
       </c>
       <c r="J30" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K30" s="1">
         <v>4</v>
@@ -3208,25 +3253,25 @@
         <v>26</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P30" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q30" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="R30" s="1">
         <v>1</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="T30" s="5">
         <v>3</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
@@ -3234,19 +3279,19 @@
         <v>20029</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="G31" s="1">
         <v>100</v>
@@ -3273,25 +3318,25 @@
         <v>26</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q31" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="R31" s="1">
         <v>3</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="T31" s="5">
         <v>1</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
@@ -3299,19 +3344,19 @@
         <v>20030</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>191</v>
+        <v>56</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G32" s="1">
         <v>100</v>
@@ -3320,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J32" s="1">
         <v>20031</v>
@@ -3338,25 +3383,25 @@
         <v>26</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="P32" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q32" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="R32" s="1">
         <v>3</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="T32" s="5">
         <v>2</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
@@ -3364,19 +3409,19 @@
         <v>20031</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>191</v>
+        <v>61</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G33" s="1">
         <v>100</v>
@@ -3384,7 +3429,7 @@
       <c r="H33" s="1">
         <v>0</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I33" s="3">
         <v>20030</v>
       </c>
       <c r="J33" s="4" t="s">
@@ -3403,25 +3448,25 @@
         <v>26</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q33" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="R33" s="1">
         <v>3</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="T33" s="5">
         <v>3</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
@@ -3429,19 +3474,19 @@
         <v>20032</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>206</v>
+        <v>56</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G34" s="1">
         <v>100</v>
@@ -3468,25 +3513,25 @@
         <v>26</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="P34" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q34" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="R34" s="1">
         <v>3</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="T34" s="5">
         <v>1</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bishe\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C38F97-C3FB-4250-A731-45E719D34FD3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86289473-F6F3-47BE-AEEC-1A5D726D45F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="232">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -924,10 +924,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -937,6 +933,10 @@
   </si>
   <si>
     <t>基础民房，可以提供劳动力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1298,7 +1298,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G8" sqref="G8"/>
+      <selection pane="topRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1465,7 +1465,7 @@
         <v>86</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>228</v>
+        <v>105</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>55</v>
@@ -1510,7 +1510,7 @@
         <v>1</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="T3" s="5">
         <v>1</v>
@@ -1529,8 +1529,8 @@
       <c r="C4" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="3">
-        <v>0</v>
+      <c r="D4" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>31</v>
@@ -1660,7 +1660,7 @@
         <v>93</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>31</v>
@@ -1858,7 +1858,7 @@
         <v>56</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>59</v>
@@ -1985,7 +1985,7 @@
         <v>88</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>55</v>
@@ -2053,7 +2053,7 @@
         <v>61</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>134</v>
@@ -2118,7 +2118,7 @@
         <v>59</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>135</v>
@@ -2375,7 +2375,7 @@
         <v>80</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>54</v>
@@ -2700,7 +2700,7 @@
         <v>160</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>105</v>
+        <v>231</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>14</v>
@@ -2895,7 +2895,7 @@
         <v>218</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>228</v>
+        <v>105</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>55</v>
@@ -2960,7 +2960,7 @@
         <v>219</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>55</v>
@@ -3025,7 +3025,7 @@
         <v>220</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>55</v>
@@ -3090,7 +3090,7 @@
         <v>221</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>228</v>
+        <v>105</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>55</v>
@@ -3155,7 +3155,7 @@
         <v>222</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>55</v>
@@ -3220,7 +3220,7 @@
         <v>223</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>55</v>

--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bishe\BiShe\Assets\Resources\Data\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\毕业设计\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86289473-F6F3-47BE-AEEC-1A5D726D45F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D306C2AA-31A5-4E5B-8314-F2593E25C92D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3945" yWindow="2160" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -231,10 +231,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>50006,50007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>50001,50002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -765,10 +761,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>50011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -928,15 +920,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>50003,50004,50008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>基础民房，可以提供劳动力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>-200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50011,50017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50003,50004,50008,50013,50014,50015,50016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50006,50007,50018</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1298,7 +1298,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E13" sqref="E13"/>
+      <selection pane="topRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1383,10 +1383,10 @@
         <v>51</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -1448,10 +1448,10 @@
         <v>21</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -1459,16 +1459,16 @@
         <v>20001</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F3" s="3">
         <v>-10</v>
@@ -1498,25 +1498,25 @@
         <v>26</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R3" s="1">
         <v>1</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="T3" s="5">
         <v>1</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
@@ -1524,13 +1524,13 @@
         <v>20002</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>31</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T4" s="5">
         <v>1</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
@@ -1592,16 +1592,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G5" s="1">
         <v>100</v>
@@ -1634,19 +1634,19 @@
         <v>22</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R5" s="1">
         <v>4</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="T5" s="5">
         <v>1</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
@@ -1654,19 +1654,19 @@
         <v>20004</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G6" s="1">
         <v>100</v>
@@ -1693,25 +1693,25 @@
         <v>26</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R6" s="1">
         <v>4</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T6" s="5">
         <v>1</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
@@ -1722,16 +1722,16 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>52</v>
+        <v>231</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G7" s="1">
         <v>100</v>
@@ -1758,25 +1758,25 @@
         <v>29</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R7" s="1">
         <v>2</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T7" s="5">
         <v>1</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
@@ -1787,16 +1787,16 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G8" s="1">
         <v>100</v>
@@ -1823,25 +1823,25 @@
         <v>26</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R8" s="1">
         <v>2</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T8" s="5">
         <v>1</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
@@ -1849,19 +1849,19 @@
         <v>20007</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G9" s="1">
         <v>100</v>
@@ -1888,25 +1888,25 @@
         <v>26</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R9" s="1">
         <v>3</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T9" s="5">
         <v>1</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
@@ -1917,16 +1917,16 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G10" s="1">
         <v>100</v>
@@ -1953,25 +1953,25 @@
         <v>26</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R10" s="1">
         <v>2</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T10" s="5">
         <v>1</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
@@ -1979,19 +1979,19 @@
         <v>20009</v>
       </c>
       <c r="B11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G11" s="1">
         <v>100</v>
@@ -2018,13 +2018,13 @@
         <v>26</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="R11" s="1">
         <v>1</v>
@@ -2036,7 +2036,7 @@
         <v>2</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
@@ -2047,16 +2047,16 @@
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G12" s="1">
         <v>100</v>
@@ -2083,25 +2083,25 @@
         <v>26</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="R12" s="1">
         <v>3</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T12" s="5">
         <v>2</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
@@ -2109,19 +2109,19 @@
         <v>20011</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G13" s="1">
         <v>100</v>
@@ -2148,25 +2148,25 @@
         <v>26</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R13" s="1">
         <v>3</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T13" s="5">
         <v>3</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
@@ -2174,19 +2174,19 @@
         <v>20012</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G14" s="1">
         <v>100</v>
@@ -2213,25 +2213,25 @@
         <v>26</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R14" s="1">
         <v>4</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T14" s="5">
         <v>2</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
@@ -2239,19 +2239,19 @@
         <v>20013</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G15" s="1">
         <v>100</v>
@@ -2278,25 +2278,25 @@
         <v>26</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R15" s="1">
         <v>4</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T15" s="5">
         <v>3</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
@@ -2304,19 +2304,19 @@
         <v>20014</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G16" s="1">
         <v>100</v>
@@ -2343,25 +2343,25 @@
         <v>26</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R16" s="1">
         <v>2</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T16" s="5">
         <v>2</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
@@ -2369,19 +2369,19 @@
         <v>20015</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G17" s="1">
         <v>100</v>
@@ -2408,25 +2408,25 @@
         <v>26</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R17" s="1">
         <v>2</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T17" s="5">
         <v>3</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
@@ -2434,19 +2434,19 @@
         <v>20016</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G18" s="1">
         <v>100</v>
@@ -2479,19 +2479,19 @@
         <v>22</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R18" s="1">
         <v>4</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T18" s="5">
         <v>2</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
@@ -2499,19 +2499,19 @@
         <v>20017</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G19" s="1">
         <v>100</v>
@@ -2544,19 +2544,19 @@
         <v>22</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R19" s="1">
         <v>4</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T19" s="5">
         <v>3</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
@@ -2564,10 +2564,10 @@
         <v>20018</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
@@ -2615,13 +2615,13 @@
         <v>0</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T20" s="5">
         <v>2</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
@@ -2629,10 +2629,10 @@
         <v>20019</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D21" s="3">
         <v>0</v>
@@ -2680,13 +2680,13 @@
         <v>0</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T21" s="5">
         <v>3</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
@@ -2694,19 +2694,19 @@
         <v>20020</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G22" s="1">
         <v>100</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J22" s="1">
         <v>20021</v>
@@ -2730,28 +2730,28 @@
         <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="O22" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R22" s="1">
         <v>5</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T22" s="5">
         <v>1</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
@@ -2759,19 +2759,19 @@
         <v>20021</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G23" s="1">
         <v>100</v>
@@ -2795,22 +2795,22 @@
         <v>0</v>
       </c>
       <c r="N23" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="O23" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R23" s="1">
         <v>5</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T23" s="5">
         <v>2</v>
@@ -2824,19 +2824,19 @@
         <v>20022</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G24" s="1">
         <v>100</v>
@@ -2860,22 +2860,22 @@
         <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="O24" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R24" s="1">
         <v>5</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T24" s="5">
         <v>3</v>
@@ -2889,19 +2889,19 @@
         <v>20023</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G25" s="1">
         <v>100</v>
@@ -2910,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J25" s="1">
         <v>20024</v>
@@ -2928,25 +2928,25 @@
         <v>26</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="R25" s="1">
         <v>1</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T25" s="5">
         <v>1</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
@@ -2954,19 +2954,19 @@
         <v>20024</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G26" s="1">
         <v>100</v>
@@ -2993,25 +2993,25 @@
         <v>26</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R26" s="1">
         <v>1</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T26" s="5">
         <v>2</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
@@ -3019,19 +3019,19 @@
         <v>20025</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G27" s="1">
         <v>100</v>
@@ -3043,7 +3043,7 @@
         <v>20024</v>
       </c>
       <c r="J27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K27" s="1">
         <v>4</v>
@@ -3058,25 +3058,25 @@
         <v>26</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R27" s="1">
         <v>1</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T27" s="5">
         <v>3</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
@@ -3084,19 +3084,19 @@
         <v>20026</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G28" s="1">
         <v>100</v>
@@ -3105,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J28" s="1">
         <v>20027</v>
@@ -3123,25 +3123,25 @@
         <v>26</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P28" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="R28" s="1">
         <v>1</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T28" s="5">
         <v>1</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
@@ -3149,19 +3149,19 @@
         <v>20027</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G29" s="1">
         <v>100</v>
@@ -3188,25 +3188,25 @@
         <v>26</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="R29" s="1">
         <v>1</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T29" s="5">
         <v>2</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
@@ -3214,19 +3214,19 @@
         <v>20028</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G30" s="1">
         <v>100</v>
@@ -3238,7 +3238,7 @@
         <v>20027</v>
       </c>
       <c r="J30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K30" s="1">
         <v>4</v>
@@ -3253,25 +3253,25 @@
         <v>26</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P30" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="R30" s="1">
         <v>1</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T30" s="5">
         <v>3</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
@@ -3279,19 +3279,19 @@
         <v>20029</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="G31" s="1">
         <v>100</v>
@@ -3318,25 +3318,25 @@
         <v>26</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q31" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="R31" s="1">
         <v>3</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="T31" s="5">
         <v>1</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
@@ -3344,19 +3344,19 @@
         <v>20030</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>188</v>
+        <v>229</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G32" s="1">
         <v>100</v>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J32" s="1">
         <v>20031</v>
@@ -3383,25 +3383,25 @@
         <v>26</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P32" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q32" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="R32" s="1">
         <v>3</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="T32" s="5">
         <v>2</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
@@ -3409,19 +3409,19 @@
         <v>20031</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>188</v>
+        <v>229</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G33" s="1">
         <v>100</v>
@@ -3448,25 +3448,25 @@
         <v>26</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q33" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="R33" s="1">
         <v>3</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="T33" s="5">
         <v>3</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
@@ -3474,19 +3474,19 @@
         <v>20032</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="F34" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>203</v>
       </c>
       <c r="G34" s="1">
         <v>100</v>
@@ -3513,25 +3513,25 @@
         <v>26</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="P34" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q34" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="R34" s="1">
         <v>3</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="T34" s="5">
         <v>1</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\毕业设计\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D306C2AA-31A5-4E5B-8314-F2593E25C92D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D038756E-2513-4D28-BB4A-0DFFCF63C313}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3945" yWindow="2160" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1620" yWindow="3885" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -932,11 +932,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>50003,50004,50008,50013,50014,50015,50016</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>50006,50007,50018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50003,50004,50008,50013,50014,50015,50016,50019</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1296,9 +1296,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F15" sqref="F15"/>
+      <selection pane="topRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1728,7 +1728,7 @@
         <v>57</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>57</v>
@@ -1858,7 +1858,7 @@
         <v>55</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>58</v>
@@ -2053,7 +2053,7 @@
         <v>60</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>133</v>
@@ -2118,7 +2118,7 @@
         <v>58</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>134</v>

--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA9DBF1-CD07-466B-9A0C-7570026B9FEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C0E4B4-D2EB-44D8-868C-710AD32010F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6510" yWindow="1740" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="251">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -444,9 +444,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12003,12010</t>
-  </si>
-  <si>
     <t>1,2</t>
   </si>
   <si>
@@ -997,6 +994,26 @@
   </si>
   <si>
     <t>Universal_Building_Farm_L3_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12003,12009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1356,9 +1373,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q30" sqref="Q30"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1446,7 +1463,7 @@
         <v>82</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -1511,7 +1528,7 @@
         <v>83</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -1519,7 +1536,7 @@
         <v>20001</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C3" t="s">
         <v>85</v>
@@ -1558,25 +1575,25 @@
         <v>26</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R3" s="1">
         <v>1</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="T3" s="5">
         <v>1</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
@@ -1641,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
@@ -1694,7 +1711,7 @@
         <v>22</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R5" s="1">
         <v>4</v>
@@ -1706,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
@@ -1720,7 +1737,7 @@
         <v>92</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>31</v>
@@ -1753,13 +1770,13 @@
         <v>26</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R6" s="1">
         <v>4</v>
@@ -1771,7 +1788,7 @@
         <v>1</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
@@ -1788,7 +1805,7 @@
         <v>57</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>57</v>
@@ -1818,13 +1835,13 @@
         <v>29</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R7" s="1">
         <v>2</v>
@@ -1836,7 +1853,7 @@
         <v>1</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
@@ -1883,13 +1900,13 @@
         <v>26</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R8" s="1">
         <v>2</v>
@@ -1901,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
@@ -1918,7 +1935,7 @@
         <v>55</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>58</v>
@@ -1954,7 +1971,7 @@
         <v>22</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R9" s="1">
         <v>3</v>
@@ -1966,7 +1983,7 @@
         <v>1</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
@@ -2013,13 +2030,13 @@
         <v>26</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R10" s="1">
         <v>2</v>
@@ -2031,7 +2048,7 @@
         <v>1</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
@@ -2039,7 +2056,7 @@
         <v>20009</v>
       </c>
       <c r="B11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C11" t="s">
         <v>87</v>
@@ -2051,7 +2068,7 @@
         <v>54</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G11" s="1">
         <v>100</v>
@@ -2078,13 +2095,13 @@
         <v>26</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R11" s="1">
         <v>1</v>
@@ -2096,7 +2113,7 @@
         <v>2</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
@@ -2113,10 +2130,10 @@
         <v>60</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G12" s="1">
         <v>100</v>
@@ -2149,7 +2166,7 @@
         <v>22</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R12" s="1">
         <v>3</v>
@@ -2161,7 +2178,7 @@
         <v>2</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
@@ -2178,10 +2195,10 @@
         <v>58</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G13" s="1">
         <v>100</v>
@@ -2214,7 +2231,7 @@
         <v>22</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="R13" s="1">
         <v>3</v>
@@ -2226,7 +2243,7 @@
         <v>3</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
@@ -2246,7 +2263,7 @@
         <v>14</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G14" s="1">
         <v>100</v>
@@ -2279,7 +2296,7 @@
         <v>22</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R14" s="1">
         <v>4</v>
@@ -2291,7 +2308,7 @@
         <v>2</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
@@ -2305,13 +2322,13 @@
         <v>96</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G15" s="1">
         <v>100</v>
@@ -2344,7 +2361,7 @@
         <v>22</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R15" s="1">
         <v>4</v>
@@ -2356,7 +2373,7 @@
         <v>3</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
@@ -2364,13 +2381,13 @@
         <v>20014</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>53</v>
@@ -2409,7 +2426,7 @@
         <v>22</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R16" s="1">
         <v>2</v>
@@ -2421,7 +2438,7 @@
         <v>2</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
@@ -2429,19 +2446,19 @@
         <v>20015</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G17" s="1">
         <v>100</v>
@@ -2474,7 +2491,7 @@
         <v>22</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R17" s="1">
         <v>2</v>
@@ -2486,7 +2503,7 @@
         <v>3</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
@@ -2494,7 +2511,7 @@
         <v>20016</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>80</v>
@@ -2539,7 +2556,7 @@
         <v>22</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R18" s="1">
         <v>4</v>
@@ -2551,7 +2568,7 @@
         <v>2</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
@@ -2565,7 +2582,7 @@
         <v>81</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>14</v>
@@ -2604,7 +2621,7 @@
         <v>22</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R19" s="1">
         <v>4</v>
@@ -2616,7 +2633,7 @@
         <v>3</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
@@ -2663,7 +2680,7 @@
         <v>26</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>27</v>
+        <v>249</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>24</v>
@@ -2681,7 +2698,7 @@
         <v>2</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
@@ -2728,7 +2745,7 @@
         <v>26</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>27</v>
+        <v>250</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>24</v>
@@ -2746,7 +2763,7 @@
         <v>3</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
@@ -2754,13 +2771,13 @@
         <v>20020</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>14</v>
@@ -2790,28 +2807,28 @@
         <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="O22" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R22" s="1">
         <v>5</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T22" s="5">
         <v>1</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
@@ -2819,10 +2836,10 @@
         <v>20021</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>104</v>
@@ -2855,22 +2872,22 @@
         <v>0</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>106</v>
+        <v>246</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>107</v>
+        <v>247</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R23" s="1">
         <v>5</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T23" s="5">
         <v>2</v>
@@ -2884,10 +2901,10 @@
         <v>20022</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>104</v>
@@ -2920,22 +2937,22 @@
         <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>106</v>
+        <v>246</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>107</v>
+        <v>248</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R24" s="1">
         <v>5</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T24" s="5">
         <v>3</v>
@@ -2949,10 +2966,10 @@
         <v>20023</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>104</v>
@@ -2961,7 +2978,7 @@
         <v>54</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G25" s="1">
         <v>100</v>
@@ -2970,7 +2987,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J25" s="1">
         <v>20024</v>
@@ -2988,25 +3005,25 @@
         <v>26</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R25" s="1">
         <v>1</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T25" s="5">
         <v>1</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
@@ -3014,10 +3031,10 @@
         <v>20024</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>104</v>
@@ -3026,7 +3043,7 @@
         <v>54</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G26" s="1">
         <v>100</v>
@@ -3053,25 +3070,25 @@
         <v>26</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="R26" s="1">
         <v>1</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T26" s="5">
         <v>2</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
@@ -3079,10 +3096,10 @@
         <v>20025</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>104</v>
@@ -3091,7 +3108,7 @@
         <v>54</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G27" s="1">
         <v>100</v>
@@ -3103,7 +3120,7 @@
         <v>20024</v>
       </c>
       <c r="J27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K27" s="1">
         <v>4</v>
@@ -3118,25 +3135,25 @@
         <v>26</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R27" s="1">
         <v>1</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T27" s="5">
         <v>3</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
@@ -3144,10 +3161,10 @@
         <v>20026</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>104</v>
@@ -3156,7 +3173,7 @@
         <v>54</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G28" s="1">
         <v>100</v>
@@ -3165,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J28" s="1">
         <v>20027</v>
@@ -3183,25 +3200,25 @@
         <v>26</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P28" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R28" s="1">
         <v>1</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T28" s="5">
         <v>1</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
@@ -3209,10 +3226,10 @@
         <v>20027</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>104</v>
@@ -3221,7 +3238,7 @@
         <v>54</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G29" s="1">
         <v>100</v>
@@ -3248,25 +3265,25 @@
         <v>26</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="R29" s="1">
         <v>1</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T29" s="5">
         <v>2</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
@@ -3274,10 +3291,10 @@
         <v>20028</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>104</v>
@@ -3286,7 +3303,7 @@
         <v>54</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G30" s="1">
         <v>100</v>
@@ -3298,7 +3315,7 @@
         <v>20027</v>
       </c>
       <c r="J30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K30" s="1">
         <v>4</v>
@@ -3313,25 +3330,25 @@
         <v>26</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P30" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="R30" s="1">
         <v>1</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T30" s="5">
         <v>3</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
@@ -3339,19 +3356,19 @@
         <v>20029</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>187</v>
       </c>
       <c r="G31" s="1">
         <v>100</v>
@@ -3384,19 +3401,19 @@
         <v>22</v>
       </c>
       <c r="Q31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R31" s="1">
         <v>3</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="T31" s="5">
         <v>1</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
@@ -3404,19 +3421,19 @@
         <v>20030</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>55</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G32" s="1">
         <v>100</v>
@@ -3425,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J32" s="1">
         <v>20031</v>
@@ -3443,25 +3460,25 @@
         <v>26</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P32" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R32" s="1">
         <v>3</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="T32" s="5">
         <v>2</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
@@ -3469,19 +3486,19 @@
         <v>20031</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>60</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G33" s="1">
         <v>100</v>
@@ -3508,25 +3525,25 @@
         <v>26</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="R33" s="1">
         <v>3</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="T33" s="5">
         <v>3</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
@@ -3534,19 +3551,19 @@
         <v>20032</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>55</v>
       </c>
       <c r="E34" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>201</v>
       </c>
       <c r="G34" s="1">
         <v>100</v>
@@ -3573,25 +3590,25 @@
         <v>26</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P34" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R34" s="1">
         <v>3</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="T34" s="5">
         <v>1</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
@@ -3599,10 +3616,10 @@
         <v>20033</v>
       </c>
       <c r="B35" t="s">
+        <v>231</v>
+      </c>
+      <c r="C35" t="s">
         <v>232</v>
-      </c>
-      <c r="C35" t="s">
-        <v>233</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>104</v>
@@ -3611,7 +3628,7 @@
         <v>54</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G35" s="1">
         <v>100</v>
@@ -3620,7 +3637,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>14</v>
@@ -3638,13 +3655,13 @@
         <v>26</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P35" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R35" s="1">
         <v>1</v>
@@ -3656,7 +3673,7 @@
         <v>3</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
@@ -3664,10 +3681,10 @@
         <v>20034</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>61</v>
@@ -3685,7 +3702,7 @@
         <v>30</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J36" s="1">
         <v>20035</v>
@@ -3703,13 +3720,13 @@
         <v>26</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P36" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="R36" s="1">
         <v>2</v>
@@ -3721,7 +3738,7 @@
         <v>2</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
@@ -3729,10 +3746,10 @@
         <v>20035</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>61</v>
@@ -3750,7 +3767,7 @@
         <v>30</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>14</v>
@@ -3768,13 +3785,13 @@
         <v>26</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P37" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="R37" s="1">
         <v>2</v>
@@ -3786,7 +3803,7 @@
         <v>3</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C0E4B4-D2EB-44D8-868C-710AD32010F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75428BAE-0A8D-41E8-A756-11DF9568ED6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6510" yWindow="1740" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -921,10 +921,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>50011,50017</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1014,6 +1010,10 @@
   </si>
   <si>
     <t>3,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1373,9 +1373,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1542,7 +1542,7 @@
         <v>85</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>104</v>
+        <v>250</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>54</v>
@@ -1743,7 +1743,7 @@
         <v>31</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G6" s="1">
         <v>100</v>
@@ -1805,7 +1805,7 @@
         <v>57</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>57</v>
@@ -1935,7 +1935,7 @@
         <v>55</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>58</v>
@@ -2062,7 +2062,7 @@
         <v>87</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>104</v>
+        <v>171</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>54</v>
@@ -2130,7 +2130,7 @@
         <v>60</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>132</v>
@@ -2195,7 +2195,7 @@
         <v>58</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>133</v>
@@ -2680,7 +2680,7 @@
         <v>26</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>24</v>
@@ -2745,7 +2745,7 @@
         <v>26</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>24</v>
@@ -2777,7 +2777,7 @@
         <v>158</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>227</v>
+        <v>104</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>14</v>
@@ -2807,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>106</v>
@@ -2872,10 +2872,10 @@
         <v>0</v>
       </c>
       <c r="N23" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="O23" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>247</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>22</v>
@@ -2937,10 +2937,10 @@
         <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>22</v>
@@ -3365,7 +3365,7 @@
         <v>224</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>186</v>
@@ -3430,7 +3430,7 @@
         <v>55</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>186</v>
@@ -3495,7 +3495,7 @@
         <v>60</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>186</v>
@@ -3616,13 +3616,13 @@
         <v>20033</v>
       </c>
       <c r="B35" t="s">
+        <v>230</v>
+      </c>
+      <c r="C35" t="s">
         <v>231</v>
       </c>
-      <c r="C35" t="s">
-        <v>232</v>
-      </c>
       <c r="D35" s="3" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>54</v>
@@ -3637,7 +3637,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>14</v>
@@ -3661,7 +3661,7 @@
         <v>22</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="R35" s="1">
         <v>1</v>
@@ -3673,7 +3673,7 @@
         <v>3</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
@@ -3681,10 +3681,10 @@
         <v>20034</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>61</v>
@@ -3702,7 +3702,7 @@
         <v>30</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J36" s="1">
         <v>20035</v>
@@ -3726,7 +3726,7 @@
         <v>22</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="R36" s="1">
         <v>2</v>
@@ -3738,7 +3738,7 @@
         <v>2</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
@@ -3746,10 +3746,10 @@
         <v>20035</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>61</v>
@@ -3767,7 +3767,7 @@
         <v>30</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>14</v>
@@ -3791,7 +3791,7 @@
         <v>22</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="R37" s="1">
         <v>2</v>
@@ -3803,7 +3803,7 @@
         <v>3</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75428BAE-0A8D-41E8-A756-11DF9568ED6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A55DD73-5AC3-4360-9355-2C0804CBBEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="248">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,10 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>这是一个土房，可以提供劳动力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>road.ab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -287,34 +283,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最基础的公路，能提供基本的运输条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库，能够存储目前已知的所有资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家能够通过市场来进行贸易</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>粮食作物最主要的产出单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>肉类食品原料的基础产出单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能够进行原料加工，提升产品附加值的关键建筑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取木料的最主要的建筑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>仓库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -428,10 +396,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>仓库，能够存储资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CountryRoad</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -694,10 +658,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>海岸公寓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -734,10 +694,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>徽式民宅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Hui_Building_Residential_L1_0X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -917,10 +873,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>基础民房，可以提供劳动力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>50011,50017</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1014,6 +966,41 @@
   </si>
   <si>
     <t>-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入或卖出产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产出作物产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产出养殖产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产出木料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对原料进行加工，产出附加值更高的产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公路是经济发展的动脉</t>
+  </si>
+  <si>
+    <t>公路是经济发展的动脉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗食物，提供劳动力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1021,7 +1008,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1050,6 +1037,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1071,7 +1064,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1091,6 +1084,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1373,9 +1367,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1403,67 +1397,67 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="T1" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -1477,10 +1471,10 @@
         <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>13</v>
@@ -1525,10 +1519,10 @@
         <v>21</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -1536,16 +1530,16 @@
         <v>20001</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F3" s="3">
         <v>-10</v>
@@ -1572,28 +1566,28 @@
         <v>60</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="R3" s="1">
         <v>1</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="T3" s="5">
         <v>1</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
@@ -1601,16 +1595,16 @@
         <v>20002</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
@@ -1637,28 +1631,28 @@
         <v>2</v>
       </c>
       <c r="N4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="P4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="R4" s="1">
         <v>0</v>
       </c>
-      <c r="S4" s="1" t="s">
-        <v>66</v>
+      <c r="S4" s="9" t="s">
+        <v>245</v>
       </c>
       <c r="T4" s="5">
         <v>1</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
@@ -1669,16 +1663,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="G5" s="1">
         <v>100</v>
@@ -1702,28 +1696,28 @@
         <v>180</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="R5" s="1">
         <v>4</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>102</v>
+        <v>239</v>
       </c>
       <c r="T5" s="5">
         <v>1</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
@@ -1731,19 +1725,19 @@
         <v>20004</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G6" s="1">
         <v>100</v>
@@ -1767,28 +1761,28 @@
         <v>210</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="R6" s="1">
         <v>4</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>68</v>
+        <v>240</v>
       </c>
       <c r="T6" s="5">
         <v>1</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
@@ -1799,16 +1793,16 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G7" s="1">
         <v>100</v>
@@ -1832,28 +1826,28 @@
         <v>12</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="R7" s="1">
         <v>2</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>69</v>
+        <v>241</v>
       </c>
       <c r="T7" s="5">
         <v>1</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
@@ -1864,16 +1858,16 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G8" s="1">
         <v>100</v>
@@ -1897,28 +1891,28 @@
         <v>150</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="R8" s="1">
         <v>2</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>70</v>
+        <v>242</v>
       </c>
       <c r="T8" s="5">
         <v>1</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
@@ -1926,19 +1920,19 @@
         <v>20007</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G9" s="1">
         <v>100</v>
@@ -1962,28 +1956,28 @@
         <v>300</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="R9" s="1">
         <v>3</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>71</v>
+        <v>244</v>
       </c>
       <c r="T9" s="5">
         <v>1</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
@@ -1994,16 +1988,16 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G10" s="1">
         <v>100</v>
@@ -2027,28 +2021,28 @@
         <v>120</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="R10" s="1">
         <v>2</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>72</v>
+        <v>243</v>
       </c>
       <c r="T10" s="5">
         <v>1</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
@@ -2056,19 +2050,19 @@
         <v>20009</v>
       </c>
       <c r="B11" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G11" s="1">
         <v>100</v>
@@ -2092,28 +2086,28 @@
         <v>90</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="R11" s="1">
         <v>1</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>23</v>
+        <v>247</v>
       </c>
       <c r="T11" s="5">
         <v>2</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
@@ -2124,16 +2118,16 @@
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="G12" s="1">
         <v>100</v>
@@ -2157,28 +2151,28 @@
         <v>300</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="R12" s="1">
         <v>3</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>71</v>
+        <v>244</v>
       </c>
       <c r="T12" s="5">
         <v>2</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
@@ -2186,19 +2180,19 @@
         <v>20011</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="G13" s="1">
         <v>100</v>
@@ -2222,28 +2216,28 @@
         <v>380</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="R13" s="1">
         <v>3</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>71</v>
+        <v>244</v>
       </c>
       <c r="T13" s="5">
         <v>3</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
@@ -2251,19 +2245,19 @@
         <v>20012</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="G14" s="1">
         <v>100</v>
@@ -2287,28 +2281,28 @@
         <v>360</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="R14" s="1">
         <v>4</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>68</v>
+        <v>240</v>
       </c>
       <c r="T14" s="5">
         <v>2</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
@@ -2316,19 +2310,19 @@
         <v>20013</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="G15" s="1">
         <v>100</v>
@@ -2352,28 +2346,28 @@
         <v>480</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="R15" s="1">
         <v>4</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>68</v>
+        <v>240</v>
       </c>
       <c r="T15" s="5">
         <v>3</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
@@ -2381,19 +2375,19 @@
         <v>20014</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G16" s="1">
         <v>100</v>
@@ -2417,28 +2411,28 @@
         <v>160</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="R16" s="1">
         <v>2</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>72</v>
+        <v>243</v>
       </c>
       <c r="T16" s="5">
         <v>2</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
@@ -2446,19 +2440,19 @@
         <v>20015</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="G17" s="1">
         <v>100</v>
@@ -2482,28 +2476,28 @@
         <v>190</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="R17" s="1">
         <v>2</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>72</v>
+        <v>243</v>
       </c>
       <c r="T17" s="5">
         <v>3</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
@@ -2511,19 +2505,19 @@
         <v>20016</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G18" s="1">
         <v>100</v>
@@ -2547,28 +2541,28 @@
         <v>240</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="R18" s="1">
         <v>4</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>67</v>
+        <v>239</v>
       </c>
       <c r="T18" s="5">
         <v>2</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
@@ -2576,19 +2570,19 @@
         <v>20017</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G19" s="1">
         <v>100</v>
@@ -2612,28 +2606,28 @@
         <v>290</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="R19" s="1">
         <v>4</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>67</v>
+        <v>239</v>
       </c>
       <c r="T19" s="5">
         <v>3</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
@@ -2641,10 +2635,10 @@
         <v>20018</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
@@ -2677,28 +2671,28 @@
         <v>6</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="P20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q20" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="R20" s="1">
         <v>0</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>66</v>
+        <v>246</v>
       </c>
       <c r="T20" s="5">
         <v>2</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
@@ -2706,10 +2700,10 @@
         <v>20019</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C21" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D21" s="3">
         <v>0</v>
@@ -2742,28 +2736,28 @@
         <v>8</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="P21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q21" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="R21" s="1">
         <v>0</v>
       </c>
-      <c r="S21" s="1" t="s">
-        <v>66</v>
+      <c r="S21" s="9" t="s">
+        <v>245</v>
       </c>
       <c r="T21" s="5">
         <v>3</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
@@ -2771,19 +2765,19 @@
         <v>20020</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="G22" s="1">
         <v>100</v>
@@ -2792,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J22" s="1">
         <v>20021</v>
@@ -2807,28 +2801,28 @@
         <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q22" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="R22" s="1">
         <v>5</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="T22" s="5">
         <v>1</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
@@ -2836,19 +2830,19 @@
         <v>20021</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="G23" s="1">
         <v>100</v>
@@ -2872,22 +2866,22 @@
         <v>0</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q23" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="R23" s="1">
         <v>5</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="T23" s="5">
         <v>2</v>
@@ -2901,19 +2895,19 @@
         <v>20022</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="G24" s="1">
         <v>100</v>
@@ -2937,22 +2931,22 @@
         <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q24" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="R24" s="1">
         <v>5</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="T24" s="5">
         <v>3</v>
@@ -2966,19 +2960,19 @@
         <v>20023</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="G25" s="1">
         <v>100</v>
@@ -2987,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="J25" s="1">
         <v>20024</v>
@@ -3002,28 +2996,28 @@
         <v>60</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="R25" s="1">
         <v>1</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="T25" s="5">
         <v>1</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
@@ -3031,19 +3025,19 @@
         <v>20024</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G26" s="1">
         <v>100</v>
@@ -3067,28 +3061,28 @@
         <v>90</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q26" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="R26" s="1">
         <v>1</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="T26" s="5">
         <v>2</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
@@ -3096,19 +3090,19 @@
         <v>20025</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G27" s="1">
         <v>100</v>
@@ -3120,7 +3114,7 @@
         <v>20024</v>
       </c>
       <c r="J27" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="K27" s="1">
         <v>4</v>
@@ -3132,28 +3126,28 @@
         <v>90</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q27" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="R27" s="1">
         <v>1</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="T27" s="5">
         <v>3</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
@@ -3161,19 +3155,19 @@
         <v>20026</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="G28" s="1">
         <v>100</v>
@@ -3182,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="J28" s="1">
         <v>20027</v>
@@ -3197,28 +3191,28 @@
         <v>60</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="P28" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="R28" s="1">
         <v>1</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>180</v>
+        <v>247</v>
       </c>
       <c r="T28" s="5">
         <v>1</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
@@ -3226,19 +3220,19 @@
         <v>20027</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="G29" s="1">
         <v>100</v>
@@ -3262,28 +3256,28 @@
         <v>90</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q29" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="R29" s="1">
         <v>1</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>180</v>
+        <v>247</v>
       </c>
       <c r="T29" s="5">
         <v>2</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
@@ -3291,19 +3285,19 @@
         <v>20028</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="G30" s="1">
         <v>100</v>
@@ -3315,7 +3309,7 @@
         <v>20027</v>
       </c>
       <c r="J30" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="K30" s="1">
         <v>4</v>
@@ -3327,28 +3321,28 @@
         <v>90</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="P30" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q30" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="R30" s="1">
         <v>1</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>180</v>
+        <v>247</v>
       </c>
       <c r="T30" s="5">
         <v>3</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
@@ -3356,19 +3350,19 @@
         <v>20029</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="G31" s="1">
         <v>100</v>
@@ -3392,28 +3386,28 @@
         <v>300</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q31" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="R31" s="1">
         <v>3</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="T31" s="5">
         <v>1</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
@@ -3421,19 +3415,19 @@
         <v>20030</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="G32" s="1">
         <v>100</v>
@@ -3442,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="J32" s="1">
         <v>20031</v>
@@ -3457,28 +3451,28 @@
         <v>300</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="P32" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q32" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="R32" s="1">
         <v>3</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="T32" s="5">
         <v>2</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
@@ -3486,19 +3480,19 @@
         <v>20031</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="G33" s="1">
         <v>100</v>
@@ -3522,28 +3516,28 @@
         <v>300</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q33" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="R33" s="1">
         <v>3</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="T33" s="5">
         <v>3</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
@@ -3551,19 +3545,19 @@
         <v>20032</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="G34" s="1">
         <v>100</v>
@@ -3587,28 +3581,28 @@
         <v>250</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="P34" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q34" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="R34" s="1">
         <v>3</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="T34" s="5">
         <v>1</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
@@ -3616,19 +3610,19 @@
         <v>20033</v>
       </c>
       <c r="B35" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="C35" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G35" s="1">
         <v>100</v>
@@ -3637,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>14</v>
@@ -3652,28 +3646,28 @@
         <v>90</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="P35" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="R35" s="1">
         <v>1</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>23</v>
+        <v>247</v>
       </c>
       <c r="T35" s="5">
         <v>3</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
@@ -3681,19 +3675,19 @@
         <v>20034</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G36" s="1">
         <v>100</v>
@@ -3702,7 +3696,7 @@
         <v>30</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="J36" s="1">
         <v>20035</v>
@@ -3717,28 +3711,28 @@
         <v>150</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="P36" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="R36" s="1">
         <v>2</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>70</v>
+        <v>242</v>
       </c>
       <c r="T36" s="5">
         <v>2</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
@@ -3746,19 +3740,19 @@
         <v>20035</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G37" s="1">
         <v>100</v>
@@ -3767,7 +3761,7 @@
         <v>30</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>14</v>
@@ -3782,28 +3776,28 @@
         <v>150</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="P37" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="R37" s="1">
         <v>2</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>70</v>
+        <v>242</v>
       </c>
       <c r="T37" s="5">
         <v>3</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A55DD73-5AC3-4360-9355-2C0804CBBEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8515573A-0D43-44D4-B73D-F0125805CBC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="253">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1001,6 +1001,26 @@
   </si>
   <si>
     <t>消耗食物，提供劳动力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bridge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桥梁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是一座桥梁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1365,11 +1385,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U37"/>
+  <dimension ref="A1:U38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S32" sqref="S32"/>
+      <pane xSplit="3" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R36" sqref="R36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3398,7 +3418,7 @@
         <v>182</v>
       </c>
       <c r="R31" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S31" s="1" t="s">
         <v>176</v>
@@ -3463,7 +3483,7 @@
         <v>183</v>
       </c>
       <c r="R32" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S32" s="1" t="s">
         <v>176</v>
@@ -3528,7 +3548,7 @@
         <v>184</v>
       </c>
       <c r="R33" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S33" s="1" t="s">
         <v>176</v>
@@ -3593,7 +3613,7 @@
         <v>191</v>
       </c>
       <c r="R34" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S34" s="1" t="s">
         <v>190</v>
@@ -3798,6 +3818,71 @@
       </c>
       <c r="U37" s="1" t="s">
         <v>230</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>20036</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="R38" s="1">
+        <v>6</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="T38" s="5">
+        <v>1</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F1C8FF-7E27-43BC-86A6-8C333CD4A09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C575208-1A57-478A-804B-C11C9DE4716E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="259">
   <si>
     <t>物品ID0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1044,6 +1044,10 @@
   </si>
   <si>
     <t>-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12003,12009</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1411,12 +1415,14 @@
   <dimension ref="A1:V40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="24.25" customWidth="1"/>
     <col min="4" max="4" width="15.75" customWidth="1"/>
+    <col min="14" max="14" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
@@ -1936,7 +1942,7 @@
         <v>75</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>72</v>
+        <v>258</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>91</v>
@@ -2072,10 +2078,10 @@
         <v>60</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>47</v>
+        <v>158</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>49</v>
@@ -2140,10 +2146,10 @@
         <v>60</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>49</v>
@@ -2480,7 +2486,7 @@
         <v>80</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>83</v>
@@ -2891,7 +2897,7 @@
         <v>47</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>49</v>
@@ -2953,7 +2959,7 @@
         <v>8</v>
       </c>
       <c r="M23" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>170</v>
@@ -3021,7 +3027,7 @@
         <v>8</v>
       </c>
       <c r="M24" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>170</v>
@@ -4003,7 +4009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>20037</v>
       </c>
@@ -4071,7 +4077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>20038</v>
       </c>

--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C575208-1A57-478A-804B-C11C9DE4716E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9493CFE-CC39-494A-9EDE-F6C88FEF0A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -840,10 +840,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Universal_Building_Mine_L1</t>
   </si>
   <si>
@@ -867,10 +863,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100,50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Universal_Building_Mine_L2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1039,15 +1031,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>12003,12009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-40</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1415,13 +1415,16 @@
   <dimension ref="A1:V40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="24.25" customWidth="1"/>
     <col min="4" max="4" width="15.75" customWidth="1"/>
+    <col min="5" max="5" width="29.125" customWidth="1"/>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
+    <col min="13" max="13" width="19.625" customWidth="1"/>
     <col min="14" max="14" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1572,7 +1575,7 @@
         <v>44</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>256</v>
+        <v>111</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>45</v>
@@ -1942,7 +1945,7 @@
         <v>75</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>91</v>
@@ -2007,7 +2010,7 @@
         <v>6</v>
       </c>
       <c r="M9" s="1">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>47</v>
@@ -2116,13 +2119,13 @@
         <v>110</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>111</v>
+        <v>257</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G11" s="1">
         <v>100</v>
@@ -2146,10 +2149,10 @@
         <v>60</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>49</v>
@@ -2211,10 +2214,10 @@
         <v>6</v>
       </c>
       <c r="M12" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>83</v>
@@ -2279,10 +2282,10 @@
         <v>6</v>
       </c>
       <c r="M13" s="1">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>83</v>
@@ -2347,7 +2350,7 @@
         <v>14</v>
       </c>
       <c r="M14" s="1">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>120</v>
@@ -2415,7 +2418,7 @@
         <v>14</v>
       </c>
       <c r="M15" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>126</v>
@@ -2619,7 +2622,7 @@
         <v>11</v>
       </c>
       <c r="M18" s="1">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>120</v>
@@ -2687,7 +2690,7 @@
         <v>11</v>
       </c>
       <c r="M19" s="1">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>126</v>
@@ -3068,7 +3071,7 @@
         <v>178</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>256</v>
+        <v>111</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>45</v>
@@ -3135,14 +3138,14 @@
       <c r="C26" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>111</v>
+      <c r="D26" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G26" s="1">
         <v>100</v>
@@ -3203,8 +3206,8 @@
       <c r="C27" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>112</v>
+      <c r="D27" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>45</v>
@@ -3272,7 +3275,7 @@
         <v>192</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>256</v>
+        <v>111</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>45</v>
@@ -3339,14 +3342,14 @@
       <c r="C29" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>111</v>
+      <c r="D29" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G29" s="1">
         <v>100</v>
@@ -3407,8 +3410,8 @@
       <c r="C30" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>112</v>
+      <c r="D30" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>45</v>
@@ -3509,25 +3512,25 @@
         <v>47</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>206</v>
+        <v>99</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>49</v>
       </c>
       <c r="Q31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R31" s="1">
         <v>2</v>
       </c>
       <c r="S31" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="T31" s="3">
+        <v>1</v>
+      </c>
+      <c r="U31" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="T31" s="3">
-        <v>1</v>
-      </c>
-      <c r="U31" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="V31">
         <v>1</v>
@@ -3538,10 +3541,10 @@
         <v>20030</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>81</v>
@@ -3559,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J32" s="1">
         <v>20031</v>
@@ -3577,25 +3580,25 @@
         <v>72</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>213</v>
+        <v>256</v>
       </c>
       <c r="P32" s="1" t="s">
         <v>49</v>
       </c>
       <c r="Q32" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="R32" s="1">
         <v>2</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="T32" s="3">
         <v>2</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="V32">
         <v>1.5</v>
@@ -3606,10 +3609,10 @@
         <v>20031</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>48</v>
@@ -3642,28 +3645,28 @@
         <v>150</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>49</v>
       </c>
       <c r="Q33" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="R33" s="1">
         <v>2</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="T33" s="3">
         <v>3</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="V33">
         <v>2</v>
@@ -3674,16 +3677,16 @@
         <v>20032</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>81</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F34" s="9" t="s">
         <v>48</v>
@@ -3713,25 +3716,25 @@
         <v>158</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>206</v>
+        <v>83</v>
       </c>
       <c r="P34" s="1" t="s">
         <v>49</v>
       </c>
       <c r="Q34" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="R34" s="1">
         <v>2</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="T34" s="3">
         <v>1</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="V34">
         <v>1</v>
@@ -3742,13 +3745,13 @@
         <v>20033</v>
       </c>
       <c r="B35" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C35" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>112</v>
+        <v>258</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>45</v>
@@ -3763,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>46</v>
@@ -3787,7 +3790,7 @@
         <v>49</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="R35" s="1">
         <v>1</v>
@@ -3799,7 +3802,7 @@
         <v>3</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="V35">
         <v>1</v>
@@ -3810,16 +3813,16 @@
         <v>20034</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>63</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>48</v>
@@ -3831,7 +3834,7 @@
         <v>30</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J36" s="1">
         <v>20035</v>
@@ -3843,7 +3846,7 @@
         <v>20</v>
       </c>
       <c r="M36" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N36" s="2" t="s">
         <v>120</v>
@@ -3855,7 +3858,7 @@
         <v>49</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="R36" s="1">
         <v>2</v>
@@ -3867,7 +3870,7 @@
         <v>2</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="V36">
         <v>1.5</v>
@@ -3878,16 +3881,16 @@
         <v>20035</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>48</v>
@@ -3899,7 +3902,7 @@
         <v>30</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>46</v>
@@ -3911,7 +3914,7 @@
         <v>20</v>
       </c>
       <c r="M37" s="1">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>126</v>
@@ -3923,7 +3926,7 @@
         <v>49</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="R37" s="1">
         <v>2</v>
@@ -3935,7 +3938,7 @@
         <v>3</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="V37">
         <v>2</v>
@@ -3946,10 +3949,10 @@
         <v>20036</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>55</v>
@@ -3997,13 +4000,13 @@
         <v>6</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="T38" s="3">
         <v>1</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="V38">
         <v>1</v>
@@ -4014,10 +4017,10 @@
         <v>20037</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>89</v>
@@ -4047,19 +4050,19 @@
         <v>8</v>
       </c>
       <c r="M39" s="1">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="N39" s="2" t="s">
         <v>82</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="P39" s="1" t="s">
         <v>49</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="R39" s="1">
         <v>2</v>
@@ -4082,10 +4085,10 @@
         <v>20038</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>63</v>
@@ -4094,7 +4097,7 @@
         <v>80</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G40" s="1">
         <v>100</v>
@@ -4115,19 +4118,19 @@
         <v>16</v>
       </c>
       <c r="M40" s="1">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="N40" s="2" t="s">
         <v>82</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="P40" s="1" t="s">
         <v>49</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="R40" s="1">
         <v>2</v>

--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9493CFE-CC39-494A-9EDE-F6C88FEF0A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF05BB5-F9D7-4215-A33A-EA8DE1ABFB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1426,6 +1426,7 @@
     <col min="6" max="6" width="17.25" customWidth="1"/>
     <col min="13" max="13" width="19.625" customWidth="1"/>
     <col min="14" max="14" width="22.125" customWidth="1"/>
+    <col min="17" max="17" width="32.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">

--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF05BB5-F9D7-4215-A33A-EA8DE1ABFB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455059ED-42B4-4E79-8407-97FA74C78F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11715" yWindow="3720" windowWidth="21735" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1415,7 +1415,7 @@
   <dimension ref="A1:V40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2874,7 +2874,7 @@
         <v>46</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G22" s="1">
         <v>100</v>
@@ -2942,7 +2942,7 @@
         <v>46</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G23" s="1">
         <v>100</v>
@@ -3010,7 +3010,7 @@
         <v>46</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G24" s="1">
         <v>100</v>

--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455059ED-42B4-4E79-8407-97FA74C78F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD455DD-44B9-4734-ADA1-E4C05E2EB2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11715" yWindow="3720" windowWidth="21735" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="260">
   <si>
     <t>物品ID0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1043,11 +1043,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-40</t>
+    <t>-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12003,12009</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1414,8 +1418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1576,7 +1580,7 @@
         <v>44</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>111</v>
+        <v>257</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>45</v>
@@ -2120,7 +2124,7 @@
         <v>110</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>45</v>
@@ -3072,7 +3076,7 @@
         <v>178</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>111</v>
+        <v>257</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>45</v>
@@ -3140,7 +3144,7 @@
         <v>182</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>45</v>
@@ -3208,7 +3212,7 @@
         <v>186</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>45</v>
@@ -3276,7 +3280,7 @@
         <v>192</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>111</v>
+        <v>257</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>45</v>
@@ -3344,7 +3348,7 @@
         <v>196</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>45</v>
@@ -3377,7 +3381,7 @@
         <v>113</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>188</v>
+        <v>114</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>49</v>
@@ -3412,7 +3416,7 @@
         <v>200</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>45</v>
@@ -3445,7 +3449,7 @@
         <v>187</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>65</v>
+        <v>188</v>
       </c>
       <c r="P30" s="1" t="s">
         <v>49</v>
@@ -3578,7 +3582,7 @@
         <v>150</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>72</v>
+        <v>259</v>
       </c>
       <c r="O32" s="2" t="s">
         <v>256</v>
@@ -3752,7 +3756,7 @@
         <v>227</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>45</v>

--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD455DD-44B9-4734-ADA1-E4C05E2EB2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126969F0-6070-4222-A927-B67270D8A0A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="262">
   <si>
     <t>物品ID0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -293,10 +293,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>存储资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>WareHouseL1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1052,6 +1048,18 @@
   </si>
   <si>
     <t>12003,12009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储资源+1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储资源+4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储资源+10000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1418,8 +1426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1431,6 +1439,7 @@
     <col min="13" max="13" width="19.625" customWidth="1"/>
     <col min="14" max="14" width="22.125" customWidth="1"/>
     <col min="17" max="17" width="32.375" customWidth="1"/>
+    <col min="19" max="19" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
@@ -1580,7 +1589,7 @@
         <v>44</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>45</v>
@@ -1725,7 +1734,7 @@
         <v>48</v>
       </c>
       <c r="G5" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H5" s="1">
         <v>50</v>
@@ -1761,13 +1770,13 @@
         <v>4</v>
       </c>
       <c r="S5" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="T5" s="3">
+        <v>1</v>
+      </c>
+      <c r="U5" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="T5" s="3">
-        <v>1</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="V5">
         <v>1</v>
@@ -1778,13 +1787,13 @@
         <v>20004</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" t="s">
         <v>69</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>46</v>
@@ -1814,28 +1823,28 @@
         <v>60</v>
       </c>
       <c r="N6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>49</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R6" s="1">
         <v>4</v>
       </c>
       <c r="S6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T6" s="3">
+        <v>1</v>
+      </c>
+      <c r="U6" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="T6" s="3">
-        <v>1</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="V6">
         <v>1</v>
@@ -1846,16 +1855,16 @@
         <v>20005</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>63</v>
@@ -1882,28 +1891,28 @@
         <v>45</v>
       </c>
       <c r="N7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>49</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R7" s="1">
         <v>2</v>
       </c>
       <c r="S7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="T7" s="3">
+        <v>1</v>
+      </c>
+      <c r="U7" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="T7" s="3">
-        <v>1</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="V7">
         <v>1</v>
@@ -1914,16 +1923,16 @@
         <v>20006</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>48</v>
@@ -1950,28 +1959,28 @@
         <v>75</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>49</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R8" s="1">
         <v>2</v>
       </c>
       <c r="S8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="T8" s="3">
+        <v>1</v>
+      </c>
+      <c r="U8" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="T8" s="3">
-        <v>1</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="V8">
         <v>1</v>
@@ -1982,19 +1991,19 @@
         <v>20007</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" t="s">
         <v>95</v>
-      </c>
-      <c r="C9" t="s">
-        <v>96</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>63</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="G9" s="1">
         <v>100</v>
@@ -2021,25 +2030,25 @@
         <v>47</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>49</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R9" s="1">
         <v>3</v>
       </c>
       <c r="S9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T9" s="3">
+        <v>1</v>
+      </c>
+      <c r="U9" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="T9" s="3">
-        <v>1</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="V9">
         <v>1</v>
@@ -2050,19 +2059,19 @@
         <v>20008</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G10" s="1">
         <v>100</v>
@@ -2086,7 +2095,7 @@
         <v>60</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>63</v>
@@ -2095,19 +2104,19 @@
         <v>49</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R10" s="1">
         <v>2</v>
       </c>
       <c r="S10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="T10" s="3">
+        <v>1</v>
+      </c>
+      <c r="U10" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="T10" s="3">
-        <v>1</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="V10">
         <v>1</v>
@@ -2118,19 +2127,19 @@
         <v>20009</v>
       </c>
       <c r="B11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" t="s">
         <v>109</v>
       </c>
-      <c r="C11" t="s">
-        <v>110</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G11" s="1">
         <v>100</v>
@@ -2154,16 +2163,16 @@
         <v>60</v>
       </c>
       <c r="N11" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="O11" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>49</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R11" s="1">
         <v>1</v>
@@ -2175,7 +2184,7 @@
         <v>2</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="V11">
         <v>1</v>
@@ -2186,19 +2195,19 @@
         <v>20010</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G12" s="1">
         <v>100</v>
@@ -2222,28 +2231,28 @@
         <v>100</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>49</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R12" s="1">
         <v>3</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T12" s="3">
         <v>2</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="V12">
         <v>1.5</v>
@@ -2254,19 +2263,19 @@
         <v>20011</v>
       </c>
       <c r="B13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="D13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G13" s="1">
         <v>100</v>
@@ -2290,28 +2299,28 @@
         <v>120</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>49</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R13" s="1">
         <v>3</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T13" s="3">
         <v>3</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V13">
         <v>2</v>
@@ -2322,19 +2331,19 @@
         <v>20012</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" t="s">
         <v>129</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="G14" s="1">
         <v>100</v>
@@ -2358,28 +2367,28 @@
         <v>100</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>49</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R14" s="1">
         <v>4</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T14" s="3">
         <v>2</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="V14">
         <v>1</v>
@@ -2390,19 +2399,19 @@
         <v>20013</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" t="s">
         <v>135</v>
       </c>
-      <c r="C15" t="s">
-        <v>136</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G15" s="1">
         <v>100</v>
@@ -2426,28 +2435,28 @@
         <v>100</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>49</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="R15" s="1">
         <v>4</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T15" s="3">
         <v>3</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V15">
         <v>1</v>
@@ -2458,16 +2467,16 @@
         <v>20014</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>48</v>
@@ -2494,28 +2503,28 @@
         <v>80</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>49</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R16" s="1">
         <v>2</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T16" s="3">
         <v>2</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="V16">
         <v>1.5</v>
@@ -2526,16 +2535,16 @@
         <v>20015</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="D17" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>48</v>
@@ -2562,28 +2571,28 @@
         <v>100</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>49</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R17" s="1">
         <v>2</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T17" s="3">
         <v>3</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="V17">
         <v>2</v>
@@ -2594,13 +2603,13 @@
         <v>20016</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>46</v>
@@ -2609,7 +2618,7 @@
         <v>48</v>
       </c>
       <c r="G18" s="1">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="H18" s="1">
         <v>50</v>
@@ -2630,7 +2639,7 @@
         <v>100</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>48</v>
@@ -2639,19 +2648,19 @@
         <v>49</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R18" s="1">
         <v>4</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>67</v>
+        <v>260</v>
       </c>
       <c r="T18" s="3">
         <v>2</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="V18">
         <v>1</v>
@@ -2662,10 +2671,10 @@
         <v>20017</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>48</v>
@@ -2677,7 +2686,7 @@
         <v>48</v>
       </c>
       <c r="G19" s="1">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="H19" s="1">
         <v>50</v>
@@ -2698,7 +2707,7 @@
         <v>100</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>48</v>
@@ -2707,19 +2716,19 @@
         <v>49</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R19" s="1">
         <v>4</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>67</v>
+        <v>261</v>
       </c>
       <c r="T19" s="3">
         <v>3</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="V19">
         <v>1</v>
@@ -2730,10 +2739,10 @@
         <v>20018</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C20" t="s">
         <v>156</v>
-      </c>
-      <c r="C20" t="s">
-        <v>157</v>
       </c>
       <c r="D20" s="2">
         <v>0</v>
@@ -2766,7 +2775,7 @@
         <v>2</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>56</v>
@@ -2781,13 +2790,13 @@
         <v>0</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="T20" s="3">
         <v>2</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="V20">
         <v>1</v>
@@ -2798,10 +2807,10 @@
         <v>20019</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" t="s">
         <v>161</v>
-      </c>
-      <c r="C21" t="s">
-        <v>162</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
@@ -2834,7 +2843,7 @@
         <v>3</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>56</v>
@@ -2855,7 +2864,7 @@
         <v>3</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="V21">
         <v>1</v>
@@ -2866,10 +2875,10 @@
         <v>20020</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>55</v>
@@ -2911,13 +2920,13 @@
         <v>49</v>
       </c>
       <c r="Q22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R22" s="1">
         <v>5</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="T22" s="3">
         <v>1</v>
@@ -2934,10 +2943,10 @@
         <v>20021</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>55</v>
@@ -2970,22 +2979,22 @@
         <v>100</v>
       </c>
       <c r="N23" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="O23" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>49</v>
       </c>
       <c r="Q23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R23" s="1">
         <v>5</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="T23" s="3">
         <v>2</v>
@@ -3002,10 +3011,10 @@
         <v>20022</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>55</v>
@@ -3038,22 +3047,22 @@
         <v>200</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>49</v>
       </c>
       <c r="Q24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="R24" s="1">
         <v>5</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="T24" s="3">
         <v>3</v>
@@ -3070,19 +3079,19 @@
         <v>20023</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="D25" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G25" s="1">
         <v>100</v>
@@ -3115,7 +3124,7 @@
         <v>49</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R25" s="1">
         <v>1</v>
@@ -3127,7 +3136,7 @@
         <v>1</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="V25">
         <v>1</v>
@@ -3138,19 +3147,19 @@
         <v>20024</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="D26" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G26" s="1">
         <v>100</v>
@@ -3174,16 +3183,16 @@
         <v>60</v>
       </c>
       <c r="N26" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="O26" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>49</v>
       </c>
       <c r="Q26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="R26" s="1">
         <v>1</v>
@@ -3195,7 +3204,7 @@
         <v>2</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="V26">
         <v>1</v>
@@ -3206,19 +3215,19 @@
         <v>20025</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="D27" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G27" s="1">
         <v>100</v>
@@ -3242,16 +3251,16 @@
         <v>90</v>
       </c>
       <c r="N27" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="O27" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>49</v>
       </c>
       <c r="Q27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="R27" s="1">
         <v>1</v>
@@ -3263,7 +3272,7 @@
         <v>3</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V27">
         <v>1</v>
@@ -3274,19 +3283,19 @@
         <v>20026</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="D28" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G28" s="1">
         <v>100</v>
@@ -3319,7 +3328,7 @@
         <v>49</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="R28" s="1">
         <v>1</v>
@@ -3331,7 +3340,7 @@
         <v>1</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="V28">
         <v>1</v>
@@ -3342,19 +3351,19 @@
         <v>20027</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="D29" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G29" s="1">
         <v>100</v>
@@ -3378,16 +3387,16 @@
         <v>60</v>
       </c>
       <c r="N29" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="O29" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>49</v>
       </c>
       <c r="Q29" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R29" s="1">
         <v>1</v>
@@ -3399,7 +3408,7 @@
         <v>2</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V29">
         <v>1</v>
@@ -3410,19 +3419,19 @@
         <v>20028</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="D30" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G30" s="1">
         <v>100</v>
@@ -3446,16 +3455,16 @@
         <v>90</v>
       </c>
       <c r="N30" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="O30" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="P30" s="1" t="s">
         <v>49</v>
       </c>
       <c r="Q30" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="R30" s="1">
         <v>1</v>
@@ -3467,7 +3476,7 @@
         <v>3</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="V30">
         <v>1</v>
@@ -3478,19 +3487,19 @@
         <v>20029</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E31" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="D31" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>205</v>
-      </c>
       <c r="F31" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G31" s="1">
         <v>100</v>
@@ -3517,25 +3526,25 @@
         <v>47</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>49</v>
       </c>
       <c r="Q31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="R31" s="1">
         <v>2</v>
       </c>
       <c r="S31" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="T31" s="3">
+        <v>1</v>
+      </c>
+      <c r="U31" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="T31" s="3">
-        <v>1</v>
-      </c>
-      <c r="U31" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="V31">
         <v>1</v>
@@ -3546,19 +3555,19 @@
         <v>20030</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="D32" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G32" s="1">
         <v>100</v>
@@ -3567,7 +3576,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J32" s="1">
         <v>20031</v>
@@ -3582,28 +3591,28 @@
         <v>150</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P32" s="1" t="s">
         <v>49</v>
       </c>
       <c r="Q32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R32" s="1">
         <v>2</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="T32" s="3">
         <v>2</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="V32">
         <v>1.5</v>
@@ -3614,19 +3623,19 @@
         <v>20031</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>48</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G33" s="1">
         <v>100</v>
@@ -3650,28 +3659,28 @@
         <v>150</v>
       </c>
       <c r="N33" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="O33" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>49</v>
       </c>
       <c r="Q33" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="R33" s="1">
         <v>2</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="T33" s="3">
         <v>3</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V33">
         <v>2</v>
@@ -3682,16 +3691,16 @@
         <v>20032</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="9" t="s">
         <v>221</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>222</v>
       </c>
       <c r="F34" s="9" t="s">
         <v>48</v>
@@ -3718,28 +3727,28 @@
         <v>125</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P34" s="1" t="s">
         <v>49</v>
       </c>
       <c r="Q34" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R34" s="1">
         <v>2</v>
       </c>
       <c r="S34" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="T34" s="3">
+        <v>1</v>
+      </c>
+      <c r="U34" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="T34" s="3">
-        <v>1</v>
-      </c>
-      <c r="U34" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="V34">
         <v>1</v>
@@ -3750,19 +3759,19 @@
         <v>20033</v>
       </c>
       <c r="B35" t="s">
+        <v>225</v>
+      </c>
+      <c r="C35" t="s">
         <v>226</v>
       </c>
-      <c r="C35" t="s">
-        <v>227</v>
-      </c>
       <c r="D35" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G35" s="1">
         <v>100</v>
@@ -3771,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>46</v>
@@ -3786,16 +3795,16 @@
         <v>90</v>
       </c>
       <c r="N35" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="O35" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="P35" s="1" t="s">
         <v>49</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="R35" s="1">
         <v>1</v>
@@ -3807,7 +3816,7 @@
         <v>3</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="V35">
         <v>1</v>
@@ -3818,16 +3827,16 @@
         <v>20034</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>63</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>48</v>
@@ -3839,7 +3848,7 @@
         <v>30</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J36" s="1">
         <v>20035</v>
@@ -3854,28 +3863,28 @@
         <v>100</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P36" s="1" t="s">
         <v>49</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="R36" s="1">
         <v>2</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T36" s="3">
         <v>2</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="V36">
         <v>1.5</v>
@@ -3886,16 +3895,16 @@
         <v>20035</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="D37" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>48</v>
@@ -3907,7 +3916,7 @@
         <v>30</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>46</v>
@@ -3922,28 +3931,28 @@
         <v>125</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P37" s="1" t="s">
         <v>49</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="R37" s="1">
         <v>2</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T37" s="3">
         <v>3</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="V37">
         <v>2</v>
@@ -3954,10 +3963,10 @@
         <v>20036</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>55</v>
@@ -4005,13 +4014,13 @@
         <v>6</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="T38" s="3">
         <v>1</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="V38">
         <v>1</v>
@@ -4022,19 +4031,19 @@
         <v>20037</v>
       </c>
       <c r="B39" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="D39" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E39" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="G39" s="1">
         <v>100</v>
@@ -4058,28 +4067,28 @@
         <v>90</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="P39" s="1" t="s">
         <v>49</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="R39" s="1">
         <v>2</v>
       </c>
       <c r="S39" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="T39" s="3">
+        <v>1</v>
+      </c>
+      <c r="U39" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="T39" s="3">
-        <v>1</v>
-      </c>
-      <c r="U39" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="V39">
         <v>2</v>
@@ -4090,19 +4099,19 @@
         <v>20038</v>
       </c>
       <c r="B40" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>63</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G40" s="1">
         <v>100</v>
@@ -4126,28 +4135,28 @@
         <v>180</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P40" s="1" t="s">
         <v>49</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="R40" s="1">
         <v>2</v>
       </c>
       <c r="S40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="T40" s="3">
+        <v>1</v>
+      </c>
+      <c r="U40" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="T40" s="3">
-        <v>1</v>
-      </c>
-      <c r="U40" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="V40">
         <v>4</v>

--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126969F0-6070-4222-A927-B67270D8A0A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A985C5-C17F-4D0D-8E92-B01637407101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1426,8 +1426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1805,7 +1805,7 @@
         <v>100</v>
       </c>
       <c r="H6" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>46</v>
@@ -2349,7 +2349,7 @@
         <v>100</v>
       </c>
       <c r="H14" s="1">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="I14" s="2">
         <v>20004</v>
@@ -2417,7 +2417,7 @@
         <v>100</v>
       </c>
       <c r="H15" s="1">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="I15" s="2">
         <v>20012</v>
@@ -2485,7 +2485,7 @@
         <v>100</v>
       </c>
       <c r="H16" s="1">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="I16" s="2">
         <v>20008</v>
@@ -2553,7 +2553,7 @@
         <v>100</v>
       </c>
       <c r="H17" s="1">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="I17" s="2">
         <v>20014</v>

--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A985C5-C17F-4D0D-8E92-B01637407101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B075C9-FDA0-42A8-A2CB-7CF6DACED041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1427,7 +1427,7 @@
   <dimension ref="A1:V40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2364,7 +2364,7 @@
         <v>14</v>
       </c>
       <c r="M14" s="1">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>119</v>
@@ -2432,7 +2432,7 @@
         <v>14</v>
       </c>
       <c r="M15" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>125</v>
@@ -2568,7 +2568,7 @@
         <v>8</v>
       </c>
       <c r="M17" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>125</v>
@@ -2704,7 +2704,7 @@
         <v>11</v>
       </c>
       <c r="M19" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>125</v>
@@ -3520,7 +3520,7 @@
         <v>10</v>
       </c>
       <c r="M31" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N31" s="2" t="s">
         <v>47</v>
@@ -3588,7 +3588,7 @@
         <v>10</v>
       </c>
       <c r="M32" s="1">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="N32" s="2" t="s">
         <v>258</v>
@@ -3656,7 +3656,7 @@
         <v>10</v>
       </c>
       <c r="M33" s="1">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="N33" s="2" t="s">
         <v>215</v>
@@ -3860,7 +3860,7 @@
         <v>20</v>
       </c>
       <c r="M36" s="1">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N36" s="2" t="s">
         <v>119</v>
@@ -3928,7 +3928,7 @@
         <v>20</v>
       </c>
       <c r="M37" s="1">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>125</v>

--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B075C9-FDA0-42A8-A2CB-7CF6DACED041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C9C275-4142-4023-96F9-87D4040B69CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="264">
   <si>
     <t>物品ID0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -604,10 +604,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Warehouse Lv2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>仓库二级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -620,10 +616,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Warehouse Lv3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>仓库三级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1060,6 +1052,22 @@
   </si>
   <si>
     <t>存储资源+10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WarehouseLv3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WarehouseLv2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rank</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1424,10 +1432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V40"/>
+  <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X30" sqref="X30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1442,7 +1450,7 @@
     <col min="19" max="19" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1509,8 +1517,11 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="W1" s="1" t="s">
+        <v>262</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -1577,8 +1588,11 @@
       <c r="V2" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="W2" s="1" t="s">
+        <v>263</v>
+      </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>20001</v>
       </c>
@@ -1589,7 +1603,7 @@
         <v>44</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>45</v>
@@ -1645,8 +1659,11 @@
       <c r="V3">
         <v>1</v>
       </c>
+      <c r="W3" s="1">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>20002</v>
       </c>
@@ -1713,8 +1730,11 @@
       <c r="V4">
         <v>1</v>
       </c>
+      <c r="W4">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>20003</v>
       </c>
@@ -1770,7 +1790,7 @@
         <v>4</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="T5" s="3">
         <v>1</v>
@@ -1781,8 +1801,11 @@
       <c r="V5">
         <v>1</v>
       </c>
+      <c r="W5" s="1">
+        <v>20</v>
+      </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>20004</v>
       </c>
@@ -1849,8 +1872,11 @@
       <c r="V6">
         <v>1</v>
       </c>
+      <c r="W6" s="1">
+        <v>30</v>
+      </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>20005</v>
       </c>
@@ -1917,8 +1943,11 @@
       <c r="V7">
         <v>1</v>
       </c>
+      <c r="W7" s="1">
+        <v>30</v>
+      </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>20006</v>
       </c>
@@ -1959,7 +1988,7 @@
         <v>75</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>90</v>
@@ -1985,8 +2014,11 @@
       <c r="V8">
         <v>1</v>
       </c>
+      <c r="W8" s="1">
+        <v>40</v>
+      </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>20007</v>
       </c>
@@ -2053,8 +2085,11 @@
       <c r="V9">
         <v>1</v>
       </c>
+      <c r="W9" s="1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>20008</v>
       </c>
@@ -2095,7 +2130,7 @@
         <v>60</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>63</v>
@@ -2121,8 +2156,11 @@
       <c r="V10">
         <v>1</v>
       </c>
+      <c r="W10" s="1">
+        <v>60</v>
+      </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>20009</v>
       </c>
@@ -2133,13 +2171,13 @@
         <v>109</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G11" s="1">
         <v>100</v>
@@ -2189,8 +2227,11 @@
       <c r="V11">
         <v>1</v>
       </c>
+      <c r="W11" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>20010</v>
       </c>
@@ -2231,7 +2272,7 @@
         <v>100</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>82</v>
@@ -2257,8 +2298,11 @@
       <c r="V12">
         <v>1.5</v>
       </c>
+      <c r="W12" s="1">
+        <v>51</v>
+      </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>20011</v>
       </c>
@@ -2325,8 +2369,11 @@
       <c r="V13">
         <v>2</v>
       </c>
+      <c r="W13" s="1">
+        <v>52</v>
+      </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>20012</v>
       </c>
@@ -2393,8 +2440,11 @@
       <c r="V14">
         <v>1</v>
       </c>
+      <c r="W14" s="1">
+        <v>30</v>
+      </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>20013</v>
       </c>
@@ -2461,8 +2511,11 @@
       <c r="V15">
         <v>1</v>
       </c>
+      <c r="W15" s="1">
+        <v>30</v>
+      </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>20014</v>
       </c>
@@ -2503,7 +2556,7 @@
         <v>80</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>82</v>
@@ -2529,8 +2582,11 @@
       <c r="V16">
         <v>1.5</v>
       </c>
+      <c r="W16" s="1">
+        <v>61</v>
+      </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>20015</v>
       </c>
@@ -2597,16 +2653,19 @@
       <c r="V17">
         <v>2</v>
       </c>
+      <c r="W17" s="1">
+        <v>62</v>
+      </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>20016</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>80</v>
@@ -2648,33 +2707,36 @@
         <v>49</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R18" s="1">
         <v>4</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="T18" s="3">
         <v>2</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="V18">
         <v>1</v>
       </c>
+      <c r="W18" s="1">
+        <v>21</v>
+      </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>20017</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>151</v>
+        <v>260</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>48</v>
@@ -2716,33 +2778,36 @@
         <v>49</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="R19" s="1">
         <v>4</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="T19" s="3">
         <v>3</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="V19">
         <v>1</v>
       </c>
+      <c r="W19" s="1">
+        <v>22</v>
+      </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>20018</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D20" s="2">
         <v>0</v>
@@ -2775,7 +2840,7 @@
         <v>2</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>56</v>
@@ -2790,27 +2855,30 @@
         <v>0</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="T20" s="3">
         <v>2</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="V20">
         <v>1</v>
       </c>
+      <c r="W20" s="1">
+        <v>1001</v>
+      </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20019</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C21" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
@@ -2864,21 +2932,24 @@
         <v>3</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="V21">
         <v>1</v>
       </c>
+      <c r="W21" s="1">
+        <v>1002</v>
+      </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20020</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>55</v>
@@ -2920,13 +2991,13 @@
         <v>49</v>
       </c>
       <c r="Q22" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="R22" s="1">
         <v>5</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T22" s="3">
         <v>1</v>
@@ -2937,16 +3008,19 @@
       <c r="V22">
         <v>1</v>
       </c>
+      <c r="W22" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>20021</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>55</v>
@@ -2979,22 +3053,22 @@
         <v>100</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>49</v>
       </c>
       <c r="Q23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="R23" s="1">
         <v>5</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T23" s="3">
         <v>2</v>
@@ -3005,16 +3079,19 @@
       <c r="V23">
         <v>1</v>
       </c>
+      <c r="W23" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>20022</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>55</v>
@@ -3047,22 +3124,22 @@
         <v>200</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>49</v>
       </c>
       <c r="Q24" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="R24" s="1">
         <v>5</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T24" s="3">
         <v>3</v>
@@ -3073,19 +3150,22 @@
       <c r="V24">
         <v>1</v>
       </c>
+      <c r="W24" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>20023</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>45</v>
@@ -3124,7 +3204,7 @@
         <v>49</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="R25" s="1">
         <v>1</v>
@@ -3136,30 +3216,33 @@
         <v>1</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="V25">
         <v>1</v>
       </c>
+      <c r="W25" s="1">
+        <v>18</v>
+      </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>20024</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G26" s="1">
         <v>100</v>
@@ -3192,7 +3275,7 @@
         <v>49</v>
       </c>
       <c r="Q26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="R26" s="1">
         <v>1</v>
@@ -3204,24 +3287,27 @@
         <v>2</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="V26">
         <v>1</v>
       </c>
+      <c r="W26" s="1">
+        <v>17</v>
+      </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>20025</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>45</v>
@@ -3251,16 +3337,16 @@
         <v>90</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>49</v>
       </c>
       <c r="Q27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="R27" s="1">
         <v>1</v>
@@ -3272,24 +3358,27 @@
         <v>3</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="V27">
         <v>1</v>
       </c>
+      <c r="W27" s="1">
+        <v>16</v>
+      </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>20026</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>45</v>
@@ -3328,7 +3417,7 @@
         <v>49</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="R28" s="1">
         <v>1</v>
@@ -3340,30 +3429,33 @@
         <v>1</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="V28">
         <v>1</v>
       </c>
+      <c r="W28" s="1">
+        <v>13</v>
+      </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>20027</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G29" s="1">
         <v>100</v>
@@ -3396,7 +3488,7 @@
         <v>49</v>
       </c>
       <c r="Q29" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="R29" s="1">
         <v>1</v>
@@ -3408,24 +3500,27 @@
         <v>2</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="V29">
         <v>1</v>
       </c>
+      <c r="W29" s="1">
+        <v>14</v>
+      </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>20028</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>45</v>
@@ -3455,16 +3550,16 @@
         <v>90</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P30" s="1" t="s">
         <v>49</v>
       </c>
       <c r="Q30" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="R30" s="1">
         <v>1</v>
@@ -3476,27 +3571,30 @@
         <v>3</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="V30">
         <v>1</v>
       </c>
+      <c r="W30" s="1">
+        <v>15</v>
+      </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>20029</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>140</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F31" s="9" t="s">
         <v>82</v>
@@ -3532,39 +3630,42 @@
         <v>49</v>
       </c>
       <c r="Q31" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="R31" s="1">
         <v>2</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="T31" s="3">
         <v>1</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="V31">
         <v>1</v>
       </c>
+      <c r="W31" s="1">
+        <v>70</v>
+      </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>20030</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>80</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F32" s="9" t="s">
         <v>82</v>
@@ -3576,7 +3677,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J32" s="1">
         <v>20031</v>
@@ -3591,48 +3692,51 @@
         <v>220</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="P32" s="1" t="s">
         <v>49</v>
       </c>
       <c r="Q32" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R32" s="1">
         <v>2</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="T32" s="3">
         <v>2</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="V32">
         <v>1.5</v>
       </c>
+      <c r="W32" s="1">
+        <v>71</v>
+      </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>20031</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>48</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F33" s="9" t="s">
         <v>82</v>
@@ -3659,48 +3763,51 @@
         <v>400</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>49</v>
       </c>
       <c r="Q33" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="R33" s="1">
         <v>2</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="T33" s="3">
         <v>3</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="V33">
         <v>2</v>
       </c>
+      <c r="W33" s="1">
+        <v>72</v>
+      </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>20032</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>80</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F34" s="9" t="s">
         <v>48</v>
@@ -3727,7 +3834,7 @@
         <v>125</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O34" s="2" t="s">
         <v>82</v>
@@ -3736,36 +3843,39 @@
         <v>49</v>
       </c>
       <c r="Q34" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="R34" s="1">
         <v>2</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="T34" s="3">
         <v>1</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="V34">
         <v>1</v>
       </c>
+      <c r="W34" s="1">
+        <v>80</v>
+      </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>20033</v>
       </c>
       <c r="B35" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C35" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>45</v>
@@ -3780,7 +3890,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>46</v>
@@ -3795,16 +3905,16 @@
         <v>90</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P35" s="1" t="s">
         <v>49</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="R35" s="1">
         <v>1</v>
@@ -3816,27 +3926,30 @@
         <v>3</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="V35">
         <v>1</v>
       </c>
+      <c r="W35" s="1">
+        <v>12</v>
+      </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>20034</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>63</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>48</v>
@@ -3848,7 +3961,7 @@
         <v>30</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J36" s="1">
         <v>20035</v>
@@ -3872,7 +3985,7 @@
         <v>49</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R36" s="1">
         <v>2</v>
@@ -3884,27 +3997,30 @@
         <v>2</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="V36">
         <v>1.5</v>
       </c>
+      <c r="W36" s="1">
+        <v>41</v>
+      </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>20035</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>80</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>48</v>
@@ -3916,7 +4032,7 @@
         <v>30</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>46</v>
@@ -3940,7 +4056,7 @@
         <v>49</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="R37" s="1">
         <v>2</v>
@@ -3952,21 +4068,24 @@
         <v>3</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="V37">
         <v>2</v>
       </c>
+      <c r="W37" s="1">
+        <v>42</v>
+      </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>20036</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>55</v>
@@ -4014,27 +4133,30 @@
         <v>6</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="T38" s="3">
         <v>1</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="V38">
         <v>1</v>
       </c>
+      <c r="W38" s="1">
+        <v>1013</v>
+      </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>20037</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>88</v>
@@ -4070,13 +4192,13 @@
         <v>81</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="P39" s="1" t="s">
         <v>49</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="R39" s="1">
         <v>2</v>
@@ -4093,16 +4215,19 @@
       <c r="V39">
         <v>2</v>
       </c>
+      <c r="W39" s="1">
+        <v>31</v>
+      </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>20038</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>63</v>
@@ -4111,7 +4236,7 @@
         <v>79</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G40" s="1">
         <v>100</v>
@@ -4138,13 +4263,13 @@
         <v>81</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="P40" s="1" t="s">
         <v>49</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="R40" s="1">
         <v>2</v>
@@ -4160,6 +4285,9 @@
       </c>
       <c r="V40">
         <v>4</v>
+      </c>
+      <c r="W40" s="1">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C9C275-4142-4023-96F9-87D4040B69CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF531F4-C57E-4724-B70E-D71A502035E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="268">
   <si>
     <t>物品ID0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1068,6 +1068,21 @@
   </si>
   <si>
     <t>Rank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Orchard</t>
+  </si>
+  <si>
+    <t>Orchard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>果园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产出水果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1131,7 +1146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1152,6 +1167,9 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1432,10 +1450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W40"/>
+  <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X30" sqref="X30"/>
+    <sheetView tabSelected="1" topLeftCell="F26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X41" sqref="X41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1446,6 +1464,8 @@
     <col min="6" max="6" width="17.25" customWidth="1"/>
     <col min="13" max="13" width="19.625" customWidth="1"/>
     <col min="14" max="14" width="22.125" customWidth="1"/>
+    <col min="15" max="15" width="15" customWidth="1"/>
+    <col min="16" max="16" width="17.375" customWidth="1"/>
     <col min="17" max="17" width="32.375" customWidth="1"/>
     <col min="19" max="19" width="25.5" customWidth="1"/>
   </cols>
@@ -1751,7 +1771,7 @@
         <v>46</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="G5" s="1">
         <v>1000</v>
@@ -1822,7 +1842,7 @@
         <v>46</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="G6" s="1">
         <v>100</v>
@@ -4288,6 +4308,74 @@
       </c>
       <c r="W40" s="1">
         <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>20039</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41" s="10">
+        <v>50022</v>
+      </c>
+      <c r="F41" s="1">
+        <v>10</v>
+      </c>
+      <c r="G41" s="1">
+        <v>100</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K41" s="1">
+        <v>6</v>
+      </c>
+      <c r="L41" s="1">
+        <v>4</v>
+      </c>
+      <c r="M41" s="1">
+        <v>180</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R41" s="1">
+        <v>2</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="T41" s="3">
+        <v>1</v>
+      </c>
+      <c r="U41" t="s">
+        <v>264</v>
+      </c>
+      <c r="V41">
+        <v>1</v>
+      </c>
+      <c r="W41" s="1">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -1,1107 +1,828 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF531F4-C57E-4724-B70E-D71A502035E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="3760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="264">
   <si>
     <t>物品ID0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>建筑名称1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>中文名称2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>维护费用/周3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>生产可用配方4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>占用人口(负表示产出)5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>建筑存储资源上限6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>建筑影响范围7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>前置建筑8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>后置建筑9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>占地面积（长）10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>占地面积11（宽）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>建造花费金钱12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>建造花费物品13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>建造花费数量14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>所在ab包名15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ab包内名称16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>建造页签种类17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>说明18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>等级19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>图标20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>产出倍率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序权重</t>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NameCN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CostPerWeek</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Formula</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>People</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Max</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Influence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BuildingID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Length</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Width</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ItemIDs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Nums</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bundleName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pfbName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>buildingTabType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Introduce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>IconName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Times</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rank</t>
   </si>
   <si>
     <t>PlainResidentialLv1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>民房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3</t>
   </si>
   <si>
     <t>50010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>12003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>building.ab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Plain_Building_Residential_L1_0X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>消耗食物，提供劳动力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ResidentialL1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CountryRoad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>乡间小道</t>
   </si>
   <si>
     <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>road.ab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>L1_Road001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>公路是经济发展的动脉</t>
   </si>
   <si>
     <t>RoadL1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Warehouse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>仓库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>12003,12009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Universal_Building_Warehouse_L1_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储资源+1000</t>
   </si>
   <si>
     <t>WareHouseL1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Bazaar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>集市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12003,12009</t>
   </si>
   <si>
     <t>20,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Universal_Building_Market_L1_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>买入或卖出产品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MarketL1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Farmland</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>小型农田</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>50006,50007,50018</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Universal_Building_Farmland_L1_01</t>
+  </si>
+  <si>
+    <t>产出作物产品</t>
+  </si>
+  <si>
+    <t>Wheat</t>
+  </si>
+  <si>
+    <t>LivestockFarm</t>
+  </si>
+  <si>
+    <t>养殖场</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>50001,50002</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>25,10</t>
+  </si>
+  <si>
+    <t>Universal_Building_Farm_L1_01</t>
+  </si>
+  <si>
+    <t>产出养殖产品</t>
+  </si>
+  <si>
+    <t>FarmL1</t>
+  </si>
+  <si>
+    <t>Workshop</t>
+  </si>
+  <si>
+    <t>工坊</t>
+  </si>
+  <si>
+    <t>50003,50004,50005,50016,50021</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Universal_Building_Factory_L1_01</t>
+  </si>
+  <si>
+    <t>对原料进行加工，产出附加值更高的产品</t>
+  </si>
+  <si>
+    <t>FactoryL1</t>
+  </si>
+  <si>
+    <t>LoggingCamps</t>
+  </si>
+  <si>
+    <t>伐木场</t>
+  </si>
+  <si>
+    <t>50009</t>
   </si>
   <si>
     <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12003</t>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Universal_Building_Farmland_L1_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产出作物产品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wheat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LivestockFarm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>养殖场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50001,50002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Universal_Building_Farm_L1_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产出养殖产品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FarmL1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Workshop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工坊</t>
-  </si>
-  <si>
-    <t>50003,50004,50005,50016,50021</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Universal_Building_Factory_L1_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对原料进行加工，产出附加值更高的产品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FactoryL1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LoggingCamps</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伐木场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12009</t>
   </si>
   <si>
     <t>Universal_Building_Sawmill_L1_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>产出木料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SawmillL1</t>
   </si>
   <si>
     <t>PlainResidentialLv2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>住宅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-6</t>
+  </si>
+  <si>
+    <t>-12</t>
+  </si>
+  <si>
+    <t>12015,12004</t>
+  </si>
+  <si>
+    <t>10,5</t>
+  </si>
+  <si>
+    <t>Plain_Building_Residential_L2_0X</t>
+  </si>
+  <si>
+    <t>ResidentialL2</t>
+  </si>
+  <si>
+    <t>Factory</t>
+  </si>
+  <si>
+    <t>加工厂</t>
+  </si>
+  <si>
+    <t>50003,50004,50005,50016,50021,50008,50019,50013</t>
+  </si>
+  <si>
+    <t>Universal_Building_Factory_L2_01</t>
+  </si>
+  <si>
+    <t>FactoryL2</t>
+  </si>
+  <si>
+    <t>Integrated mill</t>
+  </si>
+  <si>
+    <t>综合工厂</t>
+  </si>
+  <si>
+    <t>50003,50004,50005,50016,50021,50008,50019,50013,50014,50015</t>
+  </si>
+  <si>
+    <t>12015</t>
+  </si>
+  <si>
+    <t>Universal_Building_Factory_L3_01</t>
+  </si>
+  <si>
+    <t>FactoryL3</t>
+  </si>
+  <si>
+    <t>Market</t>
+  </si>
+  <si>
+    <t>综合市场</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Universal_Building_Market_L2_01</t>
+  </si>
+  <si>
+    <t>MarketL2</t>
+  </si>
+  <si>
+    <t>Shopping Mall</t>
+  </si>
+  <si>
+    <t>大型商城</t>
+  </si>
+  <si>
+    <t>12020</t>
+  </si>
+  <si>
+    <t>Universal_Building_Market_L3_01</t>
+  </si>
+  <si>
+    <t>MarketL3</t>
+  </si>
+  <si>
+    <t>LoggingCampsLv2</t>
+  </si>
+  <si>
+    <t>伐木场二级</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Universal_Building_Sawmill_L2_01</t>
+  </si>
+  <si>
+    <t>SawmillL2</t>
+  </si>
+  <si>
+    <t>LoggingCampsLv3</t>
+  </si>
+  <si>
+    <t>伐木场三级</t>
+  </si>
+  <si>
+    <t>Universal_Building_Sawmill_L3_01</t>
+  </si>
+  <si>
+    <t>SawmillL3</t>
+  </si>
+  <si>
+    <t>WarehouseLv2</t>
+  </si>
+  <si>
+    <t>仓库二级</t>
+  </si>
+  <si>
+    <t>Universal_Building_Warehouse_L2_01</t>
+  </si>
+  <si>
+    <t>存储资源+4000</t>
+  </si>
+  <si>
+    <t>WareHouseL2</t>
+  </si>
+  <si>
+    <t>WarehouseLv3</t>
+  </si>
+  <si>
+    <t>仓库三级</t>
+  </si>
+  <si>
+    <t>Universal_Building_Warehouse_L3_01</t>
+  </si>
+  <si>
+    <t>存储资源+10000</t>
+  </si>
+  <si>
+    <t>WareHouseL3</t>
+  </si>
+  <si>
+    <t>Cement road</t>
+  </si>
+  <si>
+    <t>水泥路</t>
+  </si>
+  <si>
+    <t>RoadL2</t>
+  </si>
+  <si>
+    <t>Asphalt road</t>
+  </si>
+  <si>
+    <t>柏油路</t>
+  </si>
+  <si>
+    <t>RoadL3</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>政府一级</t>
+  </si>
+  <si>
+    <t>Universal_Building_Government_L1_01</t>
+  </si>
+  <si>
+    <t>政府中心，研究政策</t>
+  </si>
+  <si>
+    <t>GovernmentLv2</t>
+  </si>
+  <si>
+    <t>政府二级</t>
+  </si>
+  <si>
+    <t>12003,12015,12004</t>
+  </si>
+  <si>
+    <t>50,50,20</t>
+  </si>
+  <si>
+    <t>Universal_Building_Government_L2_01</t>
+  </si>
+  <si>
+    <t>GovernmentLv3</t>
+  </si>
+  <si>
+    <t>政府三级</t>
+  </si>
+  <si>
+    <t>100,100,40</t>
+  </si>
+  <si>
+    <t>Universal_Building_Government_L3_01</t>
+  </si>
+  <si>
+    <t>CoachResidential</t>
+  </si>
+  <si>
+    <t>海岸公寓一级</t>
   </si>
   <si>
     <t>-10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coach_Building_Residential_L1_0X</t>
+  </si>
+  <si>
+    <t>CoachL1</t>
+  </si>
+  <si>
+    <t>CoachResidentialLv2</t>
+  </si>
+  <si>
+    <t>海岸公寓二级</t>
+  </si>
+  <si>
+    <t>Coach_Building_Residential_L2_0X</t>
+  </si>
+  <si>
+    <t>CoachL2</t>
+  </si>
+  <si>
+    <t>CoachResidentialLv3</t>
+  </si>
+  <si>
+    <t>海岸公寓三级</t>
   </si>
   <si>
     <t>-15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12015,12004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plain_Building_Residential_L2_0X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResidentialL2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Factory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加工厂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50003,50004,50005,50016,50021,50008,50019,50013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Universal_Building_Factory_L2_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FactoryL2</t>
-  </si>
-  <si>
-    <t>Integrated mill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>综合工厂</t>
-  </si>
-  <si>
-    <t>50003,50004,50005,50016,50021,50008,50019,50013,50014,50015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Universal_Building_Factory_L3_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FactoryL3</t>
-  </si>
-  <si>
-    <t>Market</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>综合市场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Universal_Building_Market_L2_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MarketL2</t>
-  </si>
-  <si>
-    <t>Shopping Mall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大型商城</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Universal_Building_Market_L3_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MarketL3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LoggingCampsLv2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伐木场二级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Universal_Building_Sawmill_L2_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SawmillL2</t>
-  </si>
-  <si>
-    <t>LoggingCampsLv3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伐木场三级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Universal_Building_Sawmill_L3_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SawmillL3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库二级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Universal_Building_Warehouse_L2_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WareHouseL2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库三级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Universal_Building_Warehouse_L3_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WareHouseL3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cement road</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水泥路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公路是经济发展的动脉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RoadL2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Asphalt road</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>柏油路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RoadL3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Government</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>政府一级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Universal_Building_Government_L1_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>政府中心，研究政策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GovernmentLv2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>政府二级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12003,12015,12004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,50,20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Universal_Building_Government_L2_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GovernmentLv3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>政府三级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,100,40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Universal_Building_Government_L3_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CoachResidential</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海岸公寓一级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coach_Building_Residential_L1_0X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CoachL1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CoachResidentialLv2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海岸公寓二级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coach_Building_Residential_L2_0X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CoachL2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CoachResidentialLv3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海岸公寓三级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>12020,12004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10,15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Coach_Building_Residential_L3_0X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CoachL3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>HuiResidential</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>徽式民宅一级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Hui_Building_Residential_L1_0X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>HuiL1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>HuiResidentialLv2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>徽式民宅二级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Hui_Building_Residential_L2_0X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>HuiL2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>HuiResidentialLv3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>徽式民宅三级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Hui_Building_Residential_L3_0X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>HuiL3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Mine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>矿井一级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>50011,50017</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Universal_Building_Mine_L1</t>
   </si>
   <si>
     <t>生产矿物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MineL1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MineLv2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>矿井二级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>20029</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,30</t>
   </si>
   <si>
     <t>Universal_Building_Mine_L2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MineL2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MineLv3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>矿井三级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>12015,12020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>30,30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Universal_Building_Mine_L3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MineL3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Pier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>渔港</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>50012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Coach_Building_Pier_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>捕捞鱼类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>HookerL1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PlainResidentialLv3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>豪华住宅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>20009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Plain_Building_Residential_L3_0X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ResidentialL3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LivestockFarmLv2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>养殖场二级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>50001,50002,50020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>20006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Universal_Building_Farm_L2_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FarmL2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LivestockFarmLv3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>养殖场三级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>20034</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Universal_Building_Farm_L3_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FarmL3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Bridge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>桥梁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>这是一座桥梁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FarmlandII</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>中型农田</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
   </si>
   <si>
     <t>Universal_Building_Farmland_L1_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FarmlandIII</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>大型农田</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>80</t>
   </si>
   <si>
     <t>Universal_Building_Farmland_L1_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12003,12009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12003,12009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存储资源+1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存储资源+4000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存储资源+10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WarehouseLv3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WarehouseLv2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序权重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Orchard</t>
   </si>
   <si>
-    <t>Orchard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>果园</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Universal_Building_Orchard_L1_01</t>
   </si>
   <si>
     <t>产出水果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1109,13 +830,12 @@
       <sz val="10"/>
       <color rgb="FF2E3033"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1123,18 +843,348 @@
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1142,9 +1192,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1154,34 +1446,78 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1230,7 +1566,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -1265,7 +1601,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -1439,24 +1775,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X41" sqref="X41"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="24.25" customWidth="1"/>
     <col min="4" max="4" width="15.75" customWidth="1"/>
@@ -1470,7 +1801,7 @@
     <col min="19" max="19" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1528,7 +1859,7 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="9" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
@@ -1538,95 +1869,95 @@
         <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>262</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T2" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="T2" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="U2" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>263</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>20001</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>254</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F3" s="2">
         <v>-10</v>
@@ -1638,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J3" s="1">
         <v>20009</v>
@@ -1653,28 +1984,28 @@
         <v>30</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="R3" s="1">
         <v>1</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T3" s="3">
+        <v>54</v>
+      </c>
+      <c r="T3" s="9">
         <v>1</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="V3">
         <v>1</v>
@@ -1683,21 +2014,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>20002</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>54</v>
+      <c r="B4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
@@ -1709,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J4" s="1">
         <v>20018</v>
@@ -1724,28 +2055,28 @@
         <v>1</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="R4" s="1">
         <v>0</v>
       </c>
-      <c r="S4" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="T4" s="3">
+      <c r="S4" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="T4" s="9">
         <v>1</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="V4">
         <v>1</v>
@@ -1754,24 +2085,24 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>20003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G5" s="1">
         <v>1000</v>
@@ -1780,7 +2111,7 @@
         <v>50</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J5" s="1">
         <v>20016</v>
@@ -1795,28 +2126,28 @@
         <v>50</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="R5" s="1">
         <v>4</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="T5" s="3">
+        <v>70</v>
+      </c>
+      <c r="T5" s="9">
         <v>1</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="V5">
         <v>1</v>
@@ -1825,24 +2156,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>20004</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>68</v>
+      <c r="B6" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G6" s="1">
         <v>100</v>
@@ -1851,7 +2182,7 @@
         <v>100</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J6" s="1">
         <v>20012</v>
@@ -1866,28 +2197,28 @@
         <v>60</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R6" s="1">
         <v>4</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="T6" s="3">
+        <v>77</v>
+      </c>
+      <c r="T6" s="9">
         <v>1</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="V6">
         <v>1</v>
@@ -1896,24 +2227,24 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>20005</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>76</v>
+      <c r="B7" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G7" s="1">
         <v>100</v>
@@ -1922,10 +2253,10 @@
         <v>5</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K7" s="1">
         <v>6</v>
@@ -1937,28 +2268,28 @@
         <v>45</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R7" s="1">
         <v>2</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="T7" s="3">
+        <v>85</v>
+      </c>
+      <c r="T7" s="9">
         <v>1</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V7">
         <v>1</v>
@@ -1967,24 +2298,24 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>20006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="G8" s="1">
         <v>100</v>
@@ -1993,7 +2324,7 @@
         <v>30</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J8" s="1">
         <v>20034</v>
@@ -2008,28 +2339,28 @@
         <v>75</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>252</v>
+        <v>67</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="R8" s="1">
         <v>2</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="T8" s="3">
+        <v>94</v>
+      </c>
+      <c r="T8" s="9">
         <v>1</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="V8">
         <v>1</v>
@@ -2038,24 +2369,24 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>20007</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>94</v>
+      <c r="B9" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G9" s="1">
         <v>100</v>
@@ -2064,7 +2395,7 @@
         <v>45</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J9" s="1">
         <v>20010</v>
@@ -2079,28 +2410,28 @@
         <v>80</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="R9" s="1">
         <v>3</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="T9" s="3">
+        <v>102</v>
+      </c>
+      <c r="T9" s="9">
         <v>1</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="V9">
         <v>1</v>
@@ -2109,24 +2440,24 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>20008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="G10" s="1">
         <v>100</v>
@@ -2135,7 +2466,7 @@
         <v>60</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J10" s="1">
         <v>20014</v>
@@ -2150,28 +2481,28 @@
         <v>60</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R10" s="1">
         <v>2</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="T10" s="3">
+        <v>110</v>
+      </c>
+      <c r="T10" s="9">
         <v>1</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="V10">
         <v>1</v>
@@ -2180,24 +2511,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>20009</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>255</v>
+        <v>114</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>251</v>
+        <v>115</v>
       </c>
       <c r="G11" s="1">
         <v>100</v>
@@ -2221,28 +2552,28 @@
         <v>60</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="R11" s="1">
         <v>1</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T11" s="3">
+        <v>54</v>
+      </c>
+      <c r="T11" s="9">
         <v>2</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="V11">
         <v>1</v>
@@ -2251,24 +2582,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>20010</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G12" s="1">
         <v>100</v>
@@ -2292,28 +2623,28 @@
         <v>100</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="R12" s="1">
         <v>3</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="T12" s="3">
+        <v>102</v>
+      </c>
+      <c r="T12" s="9">
         <v>2</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="V12">
         <v>1.5</v>
@@ -2322,24 +2653,24 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>20011</v>
       </c>
       <c r="B13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G13" s="1">
         <v>100</v>
@@ -2351,7 +2682,7 @@
         <v>20010</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K13" s="1">
         <v>4</v>
@@ -2363,28 +2694,28 @@
         <v>120</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="R13" s="1">
         <v>3</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="T13" s="3">
+        <v>102</v>
+      </c>
+      <c r="T13" s="9">
         <v>3</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="V13">
         <v>2</v>
@@ -2393,24 +2724,24 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>20012</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>128</v>
+      <c r="B14" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="C14" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G14" s="1">
         <v>100</v>
@@ -2434,28 +2765,28 @@
         <v>120</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="R14" s="1">
         <v>4</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="T14" s="3">
+        <v>77</v>
+      </c>
+      <c r="T14" s="9">
         <v>2</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="V14">
         <v>1</v>
@@ -2464,24 +2795,24 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>20013</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C15" t="s">
-        <v>135</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G15" s="1">
         <v>100</v>
@@ -2493,7 +2824,7 @@
         <v>20012</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K15" s="1">
         <v>12</v>
@@ -2505,28 +2836,28 @@
         <v>200</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="R15" s="1">
         <v>4</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="T15" s="3">
+        <v>77</v>
+      </c>
+      <c r="T15" s="9">
         <v>3</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="V15">
         <v>1</v>
@@ -2535,24 +2866,24 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>20014</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G16" s="1">
         <v>100</v>
@@ -2576,28 +2907,28 @@
         <v>80</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="R16" s="1">
         <v>2</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="T16" s="3">
+        <v>110</v>
+      </c>
+      <c r="T16" s="9">
         <v>2</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="V16">
         <v>1.5</v>
@@ -2606,24 +2937,24 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23">
       <c r="A17" s="1">
         <v>20015</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="G17" s="1">
         <v>100</v>
@@ -2635,7 +2966,7 @@
         <v>20014</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K17" s="1">
         <v>7</v>
@@ -2647,28 +2978,28 @@
         <v>200</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="R17" s="1">
         <v>2</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="T17" s="3">
+        <v>110</v>
+      </c>
+      <c r="T17" s="9">
         <v>3</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="V17">
         <v>2</v>
@@ -2677,24 +3008,24 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23">
       <c r="A18" s="1">
         <v>20016</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>261</v>
+        <v>151</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G18" s="1">
         <v>4000</v>
@@ -2718,28 +3049,28 @@
         <v>100</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="R18" s="1">
         <v>4</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="T18" s="3">
+        <v>154</v>
+      </c>
+      <c r="T18" s="9">
         <v>2</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="V18">
         <v>1</v>
@@ -2748,24 +3079,24 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23">
       <c r="A19" s="1">
         <v>20017</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>260</v>
+        <v>156</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G19" s="1">
         <v>10000</v>
@@ -2777,7 +3108,7 @@
         <v>20016</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K19" s="1">
         <v>5</v>
@@ -2789,28 +3120,28 @@
         <v>200</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="R19" s="1">
         <v>4</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="T19" s="3">
+        <v>159</v>
+      </c>
+      <c r="T19" s="9">
         <v>3</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="V19">
         <v>1</v>
@@ -2819,21 +3150,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23">
       <c r="A20" s="1">
         <v>20018</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>153</v>
+      <c r="B20" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="C20" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="D20" s="2">
         <v>0</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F20" s="2">
         <v>0</v>
@@ -2860,28 +3191,28 @@
         <v>2</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="R20" s="1">
         <v>0</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="T20" s="3">
+        <v>62</v>
+      </c>
+      <c r="T20" s="9">
         <v>2</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="V20">
         <v>1</v>
@@ -2890,21 +3221,21 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23">
       <c r="A21" s="1">
         <v>20019</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>158</v>
+      <c r="B21" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="C21" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
@@ -2919,7 +3250,7 @@
         <v>20018</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K21" s="1">
         <v>3</v>
@@ -2931,28 +3262,28 @@
         <v>3</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="R21" s="1">
         <v>0</v>
       </c>
-      <c r="S21" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="S21" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="T21" s="9">
         <v>3</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="V21">
         <v>1</v>
@@ -2961,24 +3292,24 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23">
       <c r="A22" s="1">
         <v>20020</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>55</v>
+        <v>168</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>63</v>
+        <v>49</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="G22" s="1">
         <v>100</v>
@@ -2986,8 +3317,8 @@
       <c r="H22" s="1">
         <v>0</v>
       </c>
-      <c r="I22" s="9" t="s">
-        <v>46</v>
+      <c r="I22" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="J22" s="1">
         <v>20021</v>
@@ -3002,28 +3333,28 @@
         <v>0</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q22" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="R22" s="1">
         <v>5</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="T22" s="3">
+        <v>170</v>
+      </c>
+      <c r="T22" s="9">
         <v>1</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="V22">
         <v>1</v>
@@ -3032,24 +3363,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23">
       <c r="A23" s="1">
         <v>20021</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>55</v>
+        <v>172</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>63</v>
+        <v>49</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="G23" s="1">
         <v>100</v>
@@ -3057,7 +3388,7 @@
       <c r="H23" s="1">
         <v>0</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="7">
         <v>20020</v>
       </c>
       <c r="J23" s="1">
@@ -3073,28 +3404,28 @@
         <v>100</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q23" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="R23" s="1">
         <v>5</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="T23" s="3">
+        <v>170</v>
+      </c>
+      <c r="T23" s="9">
         <v>2</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="V23">
         <v>1</v>
@@ -3103,24 +3434,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23">
       <c r="A24" s="1">
         <v>20022</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>55</v>
+        <v>177</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>63</v>
+        <v>49</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="G24" s="1">
         <v>100</v>
@@ -3128,11 +3459,11 @@
       <c r="H24" s="1">
         <v>0</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="7">
         <v>20021</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K24" s="1">
         <v>8</v>
@@ -3144,28 +3475,28 @@
         <v>200</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q24" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="R24" s="1">
         <v>5</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="T24" s="3">
+        <v>170</v>
+      </c>
+      <c r="T24" s="9">
         <v>3</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="V24">
         <v>1</v>
@@ -3174,24 +3505,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23">
       <c r="A25" s="1">
         <v>20023</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>254</v>
+        <v>47</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>110</v>
+        <v>48</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="G25" s="1">
         <v>100</v>
@@ -3199,8 +3530,8 @@
       <c r="H25" s="1">
         <v>0</v>
       </c>
-      <c r="I25" s="9" t="s">
-        <v>46</v>
+      <c r="I25" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="J25" s="1">
         <v>20024</v>
@@ -3215,28 +3546,28 @@
         <v>30</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="R25" s="1">
         <v>1</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T25" s="3">
+        <v>54</v>
+      </c>
+      <c r="T25" s="9">
         <v>1</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="V25">
         <v>1</v>
@@ -3245,24 +3576,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23">
       <c r="A26" s="1">
         <v>20024</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>255</v>
+        <v>114</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>251</v>
+        <v>48</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="G26" s="1">
         <v>100</v>
@@ -3270,7 +3601,7 @@
       <c r="H26" s="1">
         <v>0</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="7">
         <v>20023</v>
       </c>
       <c r="J26" s="1">
@@ -3286,28 +3617,28 @@
         <v>60</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q26" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="R26" s="1">
         <v>1</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T26" s="3">
+        <v>54</v>
+      </c>
+      <c r="T26" s="9">
         <v>2</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="V26">
         <v>1</v>
@@ -3316,24 +3647,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23">
       <c r="A27" s="1">
         <v>20025</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>251</v>
+        <v>115</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>111</v>
+        <v>48</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>191</v>
       </c>
       <c r="G27" s="1">
         <v>100</v>
@@ -3341,11 +3672,11 @@
       <c r="H27" s="1">
         <v>0</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="7">
         <v>20024</v>
       </c>
       <c r="J27" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K27" s="1">
         <v>4</v>
@@ -3357,28 +3688,28 @@
         <v>90</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q27" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="R27" s="1">
         <v>1</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T27" s="3">
+        <v>54</v>
+      </c>
+      <c r="T27" s="9">
         <v>3</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="V27">
         <v>1</v>
@@ -3387,24 +3718,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23">
       <c r="A28" s="1">
         <v>20026</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>254</v>
+        <v>47</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>110</v>
+        <v>48</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="G28" s="1">
         <v>100</v>
@@ -3412,8 +3743,8 @@
       <c r="H28" s="1">
         <v>0</v>
       </c>
-      <c r="I28" s="9" t="s">
-        <v>46</v>
+      <c r="I28" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="J28" s="1">
         <v>20027</v>
@@ -3428,28 +3759,28 @@
         <v>30</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="R28" s="1">
         <v>1</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T28" s="3">
+        <v>54</v>
+      </c>
+      <c r="T28" s="9">
         <v>1</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="V28">
         <v>1</v>
@@ -3458,24 +3789,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23">
       <c r="A29" s="1">
         <v>20027</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>255</v>
+        <v>114</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>251</v>
+        <v>48</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="G29" s="1">
         <v>100</v>
@@ -3483,7 +3814,7 @@
       <c r="H29" s="1">
         <v>0</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="7">
         <v>20026</v>
       </c>
       <c r="J29" s="1">
@@ -3499,28 +3830,28 @@
         <v>60</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q29" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="R29" s="1">
         <v>1</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T29" s="3">
+        <v>54</v>
+      </c>
+      <c r="T29" s="9">
         <v>2</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="V29">
         <v>1</v>
@@ -3529,24 +3860,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23">
       <c r="A30" s="1">
         <v>20028</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>251</v>
+        <v>115</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>111</v>
+        <v>48</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>191</v>
       </c>
       <c r="G30" s="1">
         <v>100</v>
@@ -3554,11 +3885,11 @@
       <c r="H30" s="1">
         <v>0</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="7">
         <v>20027</v>
       </c>
       <c r="J30" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K30" s="1">
         <v>4</v>
@@ -3570,28 +3901,28 @@
         <v>90</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q30" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="R30" s="1">
         <v>1</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T30" s="3">
+        <v>54</v>
+      </c>
+      <c r="T30" s="9">
         <v>3</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="V30">
         <v>1</v>
@@ -3600,24 +3931,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23">
       <c r="A31" s="1">
         <v>20029</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>82</v>
+        <v>209</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="G31" s="1">
         <v>100</v>
@@ -3625,8 +3956,8 @@
       <c r="H31" s="1">
         <v>0</v>
       </c>
-      <c r="I31" s="9" t="s">
-        <v>46</v>
+      <c r="I31" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="J31" s="1">
         <v>20030</v>
@@ -3641,28 +3972,28 @@
         <v>100</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q31" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="R31" s="1">
         <v>2</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="T31" s="3">
+        <v>212</v>
+      </c>
+      <c r="T31" s="9">
         <v>1</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="V31">
         <v>1</v>
@@ -3671,24 +4002,24 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23">
       <c r="A32" s="1">
         <v>20030</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>82</v>
+        <v>215</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="G32" s="1">
         <v>100</v>
@@ -3696,8 +4027,8 @@
       <c r="H32" s="1">
         <v>0</v>
       </c>
-      <c r="I32" s="9" t="s">
-        <v>208</v>
+      <c r="I32" s="7" t="s">
+        <v>216</v>
       </c>
       <c r="J32" s="1">
         <v>20031</v>
@@ -3712,28 +4043,28 @@
         <v>220</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>256</v>
+        <v>67</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q32" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="R32" s="1">
         <v>2</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="T32" s="3">
+        <v>212</v>
+      </c>
+      <c r="T32" s="9">
         <v>2</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="V32">
         <v>1.5</v>
@@ -3742,24 +4073,24 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23">
       <c r="A33" s="1">
         <v>20031</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>82</v>
+        <v>221</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="G33" s="1">
         <v>100</v>
@@ -3770,8 +4101,8 @@
       <c r="I33" s="2">
         <v>20030</v>
       </c>
-      <c r="J33" s="9" t="s">
-        <v>46</v>
+      <c r="J33" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="K33" s="1">
         <v>20</v>
@@ -3783,28 +4114,28 @@
         <v>400</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q33" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="R33" s="1">
         <v>2</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="T33" s="3">
+        <v>212</v>
+      </c>
+      <c r="T33" s="9">
         <v>3</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="V33">
         <v>2</v>
@@ -3813,24 +4144,24 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23">
       <c r="A34" s="1">
         <v>20032</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>48</v>
+        <v>227</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="G34" s="1">
         <v>100</v>
@@ -3838,11 +4169,11 @@
       <c r="H34" s="1">
         <v>0</v>
       </c>
-      <c r="I34" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J34" s="9" t="s">
-        <v>46</v>
+      <c r="I34" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="K34" s="1">
         <v>10</v>
@@ -3854,28 +4185,28 @@
         <v>125</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q34" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="R34" s="1">
         <v>2</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="T34" s="3">
+        <v>230</v>
+      </c>
+      <c r="T34" s="9">
         <v>1</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="V34">
         <v>1</v>
@@ -3884,24 +4215,24 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23">
       <c r="A35" s="1">
         <v>20033</v>
       </c>
       <c r="B35" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="C35" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>251</v>
+        <v>115</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>111</v>
+        <v>191</v>
       </c>
       <c r="G35" s="1">
         <v>100</v>
@@ -3910,10 +4241,10 @@
         <v>0</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K35" s="1">
         <v>5</v>
@@ -3925,28 +4256,28 @@
         <v>90</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="R35" s="1">
         <v>1</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T35" s="3">
+        <v>54</v>
+      </c>
+      <c r="T35" s="9">
         <v>3</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="V35">
         <v>1</v>
@@ -3955,24 +4286,24 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23">
       <c r="A36" s="1">
         <v>20034</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G36" s="1">
         <v>100</v>
@@ -3981,7 +4312,7 @@
         <v>30</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="J36" s="1">
         <v>20035</v>
@@ -3996,28 +4327,28 @@
         <v>120</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="R36" s="1">
         <v>2</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="T36" s="3">
+        <v>94</v>
+      </c>
+      <c r="T36" s="9">
         <v>2</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="V36">
         <v>1.5</v>
@@ -4026,24 +4357,24 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23">
       <c r="A37" s="1">
         <v>20035</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G37" s="1">
         <v>100</v>
@@ -4052,10 +4383,10 @@
         <v>30</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K37" s="1">
         <v>14</v>
@@ -4067,28 +4398,28 @@
         <v>200</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="R37" s="1">
         <v>2</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="T37" s="3">
+        <v>94</v>
+      </c>
+      <c r="T37" s="9">
         <v>3</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="V37">
         <v>2</v>
@@ -4097,24 +4428,24 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23">
       <c r="A38" s="1">
         <v>20036</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>55</v>
+        <v>249</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="G38" s="1">
         <v>0</v>
@@ -4122,11 +4453,11 @@
       <c r="H38" s="1">
         <v>0</v>
       </c>
-      <c r="I38" s="9" t="s">
-        <v>46</v>
+      <c r="I38" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K38" s="1">
         <v>0</v>
@@ -4137,29 +4468,29 @@
       <c r="M38" s="1">
         <v>0</v>
       </c>
-      <c r="N38" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="O38" s="9" t="s">
-        <v>55</v>
+      <c r="N38" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="R38" s="1">
         <v>6</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="T38" s="3">
+        <v>250</v>
+      </c>
+      <c r="T38" s="9">
         <v>1</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="V38">
         <v>1</v>
@@ -4168,24 +4499,24 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23">
       <c r="A39" s="1">
         <v>20037</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>242</v>
+      <c r="B39" s="5" t="s">
+        <v>251</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="G39" s="1">
         <v>100</v>
@@ -4194,10 +4525,10 @@
         <v>5</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K39" s="1">
         <v>6</v>
@@ -4209,28 +4540,28 @@
         <v>90</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="R39" s="1">
         <v>2</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="T39" s="3">
+        <v>85</v>
+      </c>
+      <c r="T39" s="9">
         <v>1</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V39">
         <v>2</v>
@@ -4239,24 +4570,24 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23">
       <c r="A40" s="1">
         <v>20038</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>245</v>
+      <c r="B40" s="5" t="s">
+        <v>255</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="G40" s="1">
         <v>100</v>
@@ -4265,10 +4596,10 @@
         <v>5</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K40" s="1">
         <v>6</v>
@@ -4280,28 +4611,28 @@
         <v>180</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="R40" s="1">
         <v>2</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="T40" s="3">
+        <v>85</v>
+      </c>
+      <c r="T40" s="9">
         <v>1</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V40">
         <v>4</v>
@@ -4310,20 +4641,20 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23">
       <c r="A41" s="1">
         <v>20039</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D41">
         <v>5</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E41" s="8">
         <v>50022</v>
       </c>
       <c r="F41" s="1">
@@ -4336,40 +4667,43 @@
         <v>0</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K41" s="1">
         <v>6</v>
       </c>
       <c r="L41" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M41" s="1">
         <v>180</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>262</v>
       </c>
       <c r="R41" s="1">
         <v>2</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="T41" s="3">
+        <v>263</v>
+      </c>
+      <c r="T41" s="9">
         <v>1</v>
       </c>
       <c r="U41" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="V41">
         <v>1</v>
@@ -4379,8 +4713,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/Resources/Data/RawData/Buildings.xlsx
+++ b/Assets/Resources/Data/RawData/Buildings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="3760"/>
+    <workbookView windowHeight="17930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="266">
   <si>
     <t>物品ID0</t>
   </si>
@@ -806,6 +806,12 @@
   </si>
   <si>
     <t>产出水果</t>
+  </si>
+  <si>
+    <t>TradeCenter</t>
+  </si>
+  <si>
+    <t>贸易中心</t>
   </si>
 </sst>
 </file>
@@ -813,10 +819,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -847,37 +853,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -891,32 +867,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -938,9 +898,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -952,18 +927,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -983,8 +959,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -999,7 +1005,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1011,7 +1155,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1023,163 +1185,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1190,6 +1196,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1213,47 +1234,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1282,6 +1262,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1290,16 +1285,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1308,133 +1314,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1781,10 +1787,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W41"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1798,6 +1804,7 @@
     <col min="15" max="15" width="15" customWidth="1"/>
     <col min="16" max="16" width="17.375" customWidth="1"/>
     <col min="17" max="17" width="32.375" customWidth="1"/>
+    <col min="18" max="18" width="22.8333333333333" customWidth="1"/>
     <col min="19" max="19" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2179,7 +2186,7 @@
         <v>100</v>
       </c>
       <c r="H6" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>49</v>
@@ -2747,7 +2754,7 @@
         <v>100</v>
       </c>
       <c r="H14" s="1">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="I14" s="2">
         <v>20004</v>
@@ -2818,7 +2825,7 @@
         <v>100</v>
       </c>
       <c r="H15" s="1">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="I15" s="2">
         <v>20012</v>
@@ -4710,6 +4717,74 @@
       </c>
       <c r="W41" s="1">
         <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42">
+        <v>20040</v>
+      </c>
+      <c r="B42" t="s">
+        <v>264</v>
+      </c>
+      <c r="C42" t="s">
+        <v>265</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>49</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K42">
+        <v>2</v>
+      </c>
+      <c r="L42">
+        <v>2</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>264</v>
+      </c>
+      <c r="R42">
+        <v>-1</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42" t="s">
+        <v>49</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
